--- a/2phase_Consolidate_modified.xlsx
+++ b/2phase_Consolidate_modified.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2phaselab\Desktop\서재원\2phaselabdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2phaselab\Desktop\서재원\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9084" tabRatio="714" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9084" tabRatio="714" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2phase_z2" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2phase_z9" sheetId="20" r:id="rId8"/>
     <sheet name="2phase_z10" sheetId="21" r:id="rId9"/>
     <sheet name="2phase_z11" sheetId="22" r:id="rId10"/>
+    <sheet name="2phase_avg" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4645,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -8679,6 +8680,3928 @@
       </c>
       <c r="T65">
         <v>3752.0855362201773</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0.29312541616449567</v>
+      </c>
+      <c r="B1">
+        <v>1.4550665789805801</v>
+      </c>
+      <c r="C1">
+        <v>1.9498698409989781E-4</v>
+      </c>
+      <c r="D1">
+        <v>0.18905368018871868</v>
+      </c>
+      <c r="E1">
+        <v>0.42277962359749671</v>
+      </c>
+      <c r="F1">
+        <v>59.483755886646058</v>
+      </c>
+      <c r="G1">
+        <v>541.966633916771</v>
+      </c>
+      <c r="H1">
+        <v>3.4042388214220831</v>
+      </c>
+      <c r="I1">
+        <v>0.87546056972078345</v>
+      </c>
+      <c r="J1">
+        <v>269.59326273735377</v>
+      </c>
+      <c r="K1">
+        <v>403.15633706077745</v>
+      </c>
+      <c r="L1">
+        <v>2182.4210817746707</v>
+      </c>
+      <c r="M1">
+        <v>6587.5758978257536</v>
+      </c>
+      <c r="N1">
+        <v>256831.1009872494</v>
+      </c>
+      <c r="O1">
+        <v>1915237.5362639483</v>
+      </c>
+      <c r="P1">
+        <v>0.28298958745257313</v>
+      </c>
+      <c r="Q1">
+        <v>0.63284793581261956</v>
+      </c>
+      <c r="R1">
+        <v>2.4868778352504664</v>
+      </c>
+      <c r="S1">
+        <v>22.658367637398971</v>
+      </c>
+      <c r="T1">
+        <v>3209.3886075123287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0.15648701556235417</v>
+      </c>
+      <c r="B2">
+        <v>1.4545431446533021</v>
+      </c>
+      <c r="C2">
+        <v>2.9460919388783557E-4</v>
+      </c>
+      <c r="D2">
+        <v>9.7044642338694087E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.42188254401954639</v>
+      </c>
+      <c r="F2">
+        <v>146.73494969959086</v>
+      </c>
+      <c r="G2">
+        <v>541.84984422018294</v>
+      </c>
+      <c r="H2">
+        <v>3.4046496633933527</v>
+      </c>
+      <c r="I2">
+        <v>0.87539279923123459</v>
+      </c>
+      <c r="J2">
+        <v>193.10188781572117</v>
+      </c>
+      <c r="K2">
+        <v>402.62108587160293</v>
+      </c>
+      <c r="L2">
+        <v>3425.1202700751987</v>
+      </c>
+      <c r="M2">
+        <v>6581.8581551209872</v>
+      </c>
+      <c r="N2">
+        <v>256793.67073606697</v>
+      </c>
+      <c r="O2">
+        <v>1914893.489960467</v>
+      </c>
+      <c r="P2">
+        <v>0.14520739148715386</v>
+      </c>
+      <c r="Q2">
+        <v>0.63126064721057407</v>
+      </c>
+      <c r="R2">
+        <v>6.1264237024076982</v>
+      </c>
+      <c r="S2">
+        <v>22.623115594291875</v>
+      </c>
+      <c r="T2">
+        <v>3751.6911279481146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>8.3085170300795944E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.4543866062903115</v>
+      </c>
+      <c r="C3">
+        <v>3.9314768582728374E-4</v>
+      </c>
+      <c r="D3">
+        <v>3.69455350424319E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.42548639433829288</v>
+      </c>
+      <c r="F3">
+        <v>272.02195489855814</v>
+      </c>
+      <c r="G3">
+        <v>546.79067385044152</v>
+      </c>
+      <c r="H3">
+        <v>3.4047726464032944</v>
+      </c>
+      <c r="I3">
+        <v>0.87537253546825777</v>
+      </c>
+      <c r="J3">
+        <v>119.1371177193097</v>
+      </c>
+      <c r="K3">
+        <v>404.30484663247415</v>
+      </c>
+      <c r="L3">
+        <v>4662.4284255269531</v>
+      </c>
+      <c r="M3">
+        <v>6610.293586521394</v>
+      </c>
+      <c r="N3">
+        <v>256782.46182531284</v>
+      </c>
+      <c r="O3">
+        <v>1914790.4356863115</v>
+      </c>
+      <c r="P3">
+        <v>5.5275008727506056E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.63657933586488746</v>
+      </c>
+      <c r="R3">
+        <v>11.352803115172332</v>
+      </c>
+      <c r="S3">
+        <v>22.820242093147954</v>
+      </c>
+      <c r="T3">
+        <v>3829.4821407740833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3.0590494570567738E-2</v>
+      </c>
+      <c r="B4">
+        <v>1.4538619296110247</v>
+      </c>
+      <c r="C4">
+        <v>4.9239180106719956E-4</v>
+      </c>
+      <c r="D4">
+        <v>4.8200797641554504E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.42056655443333169</v>
+      </c>
+      <c r="F4">
+        <v>431.76822328755941</v>
+      </c>
+      <c r="G4">
+        <v>541.50432045533171</v>
+      </c>
+      <c r="H4">
+        <v>3.4051852406627385</v>
+      </c>
+      <c r="I4">
+        <v>0.8753046259322802</v>
+      </c>
+      <c r="J4">
+        <v>43.020662026021988</v>
+      </c>
+      <c r="K4">
+        <v>401.8531184917826</v>
+      </c>
+      <c r="L4">
+        <v>5869.5396808223468</v>
+      </c>
+      <c r="M4">
+        <v>6573.2426996184677</v>
+      </c>
+      <c r="N4">
+        <v>256744.84016414566</v>
+      </c>
+      <c r="O4">
+        <v>1914444.4847016167</v>
+      </c>
+      <c r="P4">
+        <v>7.2086253416970159E-3</v>
+      </c>
+      <c r="Q4">
+        <v>0.62897438849531417</v>
+      </c>
+      <c r="R4">
+        <v>17.995557635675013</v>
+      </c>
+      <c r="S4">
+        <v>22.569220436194446</v>
+      </c>
+      <c r="T4">
+        <v>3430.667752511295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.49311442304024938</v>
+      </c>
+      <c r="B5">
+        <v>1.4561191780315883</v>
+      </c>
+      <c r="C5">
+        <v>1.3135969178568597E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.59833088390281641</v>
+      </c>
+      <c r="E5">
+        <v>0.94825026585301353</v>
+      </c>
+      <c r="F5">
+        <v>51.214720359316615</v>
+      </c>
+      <c r="G5">
+        <v>1210.9234882035867</v>
+      </c>
+      <c r="H5">
+        <v>3.4034144873457666</v>
+      </c>
+      <c r="I5">
+        <v>0.87559692986932869</v>
+      </c>
+      <c r="J5">
+        <v>479.86560053607053</v>
+      </c>
+      <c r="K5">
+        <v>604.10216865482494</v>
+      </c>
+      <c r="L5">
+        <v>2028.1500466539635</v>
+      </c>
+      <c r="M5">
+        <v>9861.9099037724427</v>
+      </c>
+      <c r="N5">
+        <v>256906.14951548132</v>
+      </c>
+      <c r="O5">
+        <v>1915926.7742767003</v>
+      </c>
+      <c r="P5">
+        <v>0.89632340452779757</v>
+      </c>
+      <c r="Q5">
+        <v>1.4205165227135645</v>
+      </c>
+      <c r="R5">
+        <v>2.1469466719548089</v>
+      </c>
+      <c r="S5">
+        <v>50.76251778298861</v>
+      </c>
+      <c r="T5">
+        <v>2805.3208897045865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.29860093442522634</v>
+      </c>
+      <c r="B6">
+        <v>1.4558005706243848</v>
+      </c>
+      <c r="C6">
+        <v>1.9629082205137091E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.43143894871843969</v>
+      </c>
+      <c r="E6">
+        <v>0.95077844277393353</v>
+      </c>
+      <c r="F6">
+        <v>129.48007605893045</v>
+      </c>
+      <c r="G6">
+        <v>1215.5607472059214</v>
+      </c>
+      <c r="H6">
+        <v>3.403663738406753</v>
+      </c>
+      <c r="I6">
+        <v>0.87555564261006269</v>
+      </c>
+      <c r="J6">
+        <v>407.41617284919607</v>
+      </c>
+      <c r="K6">
+        <v>604.80901154755691</v>
+      </c>
+      <c r="L6">
+        <v>3223.3206003486462</v>
+      </c>
+      <c r="M6">
+        <v>9876.2111080270497</v>
+      </c>
+      <c r="N6">
+        <v>256883.46335693955</v>
+      </c>
+      <c r="O6">
+        <v>1915718.5278833166</v>
+      </c>
+      <c r="P6">
+        <v>0.64616046408735073</v>
+      </c>
+      <c r="Q6">
+        <v>1.4239684239263863</v>
+      </c>
+      <c r="R6">
+        <v>5.4234458462494874</v>
+      </c>
+      <c r="S6">
+        <v>50.915384713686841</v>
+      </c>
+      <c r="T6">
+        <v>3252.2266105164836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0.19211656048329251</v>
+      </c>
+      <c r="B7">
+        <v>1.4564149361638947</v>
+      </c>
+      <c r="C7">
+        <v>2.6291431143419158E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.28006608069209993</v>
+      </c>
+      <c r="E7">
+        <v>0.94963910773293558</v>
+      </c>
+      <c r="F7">
+        <v>252.92742948233285</v>
+      </c>
+      <c r="G7">
+        <v>1211.392982366546</v>
+      </c>
+      <c r="H7">
+        <v>3.4031833190782015</v>
+      </c>
+      <c r="I7">
+        <v>0.87563526785807033</v>
+      </c>
+      <c r="J7">
+        <v>328.35558742133179</v>
+      </c>
+      <c r="K7">
+        <v>604.63523156592714</v>
+      </c>
+      <c r="L7">
+        <v>4509.0681666851806</v>
+      </c>
+      <c r="M7">
+        <v>9868.0504803436452</v>
+      </c>
+      <c r="N7">
+        <v>256927.18643343376</v>
+      </c>
+      <c r="O7">
+        <v>1916119.7875782449</v>
+      </c>
+      <c r="P7">
+        <v>0.41964181870937134</v>
+      </c>
+      <c r="Q7">
+        <v>1.422908055491044</v>
+      </c>
+      <c r="R7">
+        <v>10.610868831697928</v>
+      </c>
+      <c r="S7">
+        <v>50.820632882083821</v>
+      </c>
+      <c r="T7">
+        <v>3659.4254670189885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0.1274450783777285</v>
+      </c>
+      <c r="B8">
+        <v>1.45696380837029</v>
+      </c>
+      <c r="C8">
+        <v>3.287059350113678E-4</v>
+      </c>
+      <c r="D8">
+        <v>0.16473236795605112</v>
+      </c>
+      <c r="E8">
+        <v>0.95384514200517367</v>
+      </c>
+      <c r="F8">
+        <v>414.75699741345761</v>
+      </c>
+      <c r="G8">
+        <v>1214.3328538067317</v>
+      </c>
+      <c r="H8">
+        <v>3.4027548487905772</v>
+      </c>
+      <c r="I8">
+        <v>0.8757064495335064</v>
+      </c>
+      <c r="J8">
+        <v>251.89795136491466</v>
+      </c>
+      <c r="K8">
+        <v>606.14161382301893</v>
+      </c>
+      <c r="L8">
+        <v>5778.7101190204785</v>
+      </c>
+      <c r="M8">
+        <v>9887.873936976197</v>
+      </c>
+      <c r="N8">
+        <v>256966.17249098691</v>
+      </c>
+      <c r="O8">
+        <v>1916477.2100137642</v>
+      </c>
+      <c r="P8">
+        <v>0.24692969228884207</v>
+      </c>
+      <c r="Q8">
+        <v>1.4297899698095891</v>
+      </c>
+      <c r="R8">
+        <v>17.424413118604129</v>
+      </c>
+      <c r="S8">
+        <v>51.015504114881168</v>
+      </c>
+      <c r="T8">
+        <v>4073.925594702705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8.2553456111617726E-2</v>
+      </c>
+      <c r="B9">
+        <v>1.4578124202353229</v>
+      </c>
+      <c r="C9">
+        <v>3.9403332213722538E-4</v>
+      </c>
+      <c r="D9">
+        <v>8.1114873360402504E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.95003636676228553</v>
+      </c>
+      <c r="F9">
+        <v>604.06393122829138</v>
+      </c>
+      <c r="G9">
+        <v>1205.7623601535699</v>
+      </c>
+      <c r="H9">
+        <v>3.4020937805386278</v>
+      </c>
+      <c r="I9">
+        <v>0.87581660281098828</v>
+      </c>
+      <c r="J9">
+        <v>176.83667000048629</v>
+      </c>
+      <c r="K9">
+        <v>605.19063085462983</v>
+      </c>
+      <c r="L9">
+        <v>6982.4617847677982</v>
+      </c>
+      <c r="M9">
+        <v>9865.0201436583538</v>
+      </c>
+      <c r="N9">
+        <v>257026.31778556353</v>
+      </c>
+      <c r="O9">
+        <v>1917027.7922164442</v>
+      </c>
+      <c r="P9">
+        <v>0.12166539258034419</v>
+      </c>
+      <c r="Q9">
+        <v>1.4249735312311136</v>
+      </c>
+      <c r="R9">
+        <v>25.432480829802177</v>
+      </c>
+      <c r="S9">
+        <v>50.765368572078181</v>
+      </c>
+      <c r="T9">
+        <v>4004.0012046855545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>4.8914802611723388E-2</v>
+      </c>
+      <c r="B10">
+        <v>1.4583650213861195</v>
+      </c>
+      <c r="C10">
+        <v>4.5694207688299932E-4</v>
+      </c>
+      <c r="D10">
+        <v>2.9672570209001849E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.95142704678520273</v>
+      </c>
+      <c r="F10">
+        <v>817.04973083341497</v>
+      </c>
+      <c r="G10">
+        <v>1205.1091830674266</v>
+      </c>
+      <c r="H10">
+        <v>3.4016642278924927</v>
+      </c>
+      <c r="I10">
+        <v>0.87588840762774611</v>
+      </c>
+      <c r="J10">
+        <v>106.9846004205877</v>
+      </c>
+      <c r="K10">
+        <v>605.80301790324938</v>
+      </c>
+      <c r="L10">
+        <v>8127.1457364742209</v>
+      </c>
+      <c r="M10">
+        <v>9870.2237959502418</v>
+      </c>
+      <c r="N10">
+        <v>257065.40411427958</v>
+      </c>
+      <c r="O10">
+        <v>1917384.9610308465</v>
+      </c>
+      <c r="P10">
+        <v>4.4524484990849156E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.4276417231839351</v>
+      </c>
+      <c r="R10">
+        <v>34.44821940523633</v>
+      </c>
+      <c r="S10">
+        <v>50.809472151990619</v>
+      </c>
+      <c r="T10">
+        <v>4121.7806322487104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1.4277920339531767E-2</v>
+      </c>
+      <c r="B11">
+        <v>1.4580628780682028</v>
+      </c>
+      <c r="C11">
+        <v>5.2801805395316095E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.8278381692744159E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.94386721368523518</v>
+      </c>
+      <c r="F11">
+        <v>1093.8251710045743</v>
+      </c>
+      <c r="G11">
+        <v>1196.8444782492111</v>
+      </c>
+      <c r="H11">
+        <v>3.4018990014100003</v>
+      </c>
+      <c r="I11">
+        <v>0.87584913934062825</v>
+      </c>
+      <c r="J11">
+        <v>26.548872272981459</v>
+      </c>
+      <c r="K11">
+        <v>603.29907212624983</v>
+      </c>
+      <c r="L11">
+        <v>9399.3591612933978</v>
+      </c>
+      <c r="M11">
+        <v>9832.0289477703573</v>
+      </c>
+      <c r="N11">
+        <v>257044.04044678734</v>
+      </c>
+      <c r="O11">
+        <v>1917189.8083472061</v>
+      </c>
+      <c r="P11">
+        <v>2.7421083863370041E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1.4159821398533539</v>
+      </c>
+      <c r="R11">
+        <v>46.082006204254853</v>
+      </c>
+      <c r="S11">
+        <v>50.422129728058408</v>
+      </c>
+      <c r="T11">
+        <v>3694.9999171173249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0.58358258686997144</v>
+      </c>
+      <c r="B12">
+        <v>1.4568643235788898</v>
+      </c>
+      <c r="C12">
+        <v>1.1326457569773772E-4</v>
+      </c>
+      <c r="D12">
+        <v>0.88689818909649487</v>
+      </c>
+      <c r="E12">
+        <v>1.2983364577136607</v>
+      </c>
+      <c r="F12">
+        <v>49.773627106458811</v>
+      </c>
+      <c r="G12">
+        <v>1653.4997827382174</v>
+      </c>
+      <c r="H12">
+        <v>3.4028324584025627</v>
+      </c>
+      <c r="I12">
+        <v>0.87569354417939493</v>
+      </c>
+      <c r="J12">
+        <v>584.45371325425106</v>
+      </c>
+      <c r="K12">
+        <v>707.14237749810445</v>
+      </c>
+      <c r="L12">
+        <v>2001.5716794340015</v>
+      </c>
+      <c r="M12">
+        <v>11536.486804637649</v>
+      </c>
+      <c r="N12">
+        <v>256959.11126760195</v>
+      </c>
+      <c r="O12">
+        <v>1916412.5015668888</v>
+      </c>
+      <c r="P12">
+        <v>1.3293404590777411</v>
+      </c>
+      <c r="Q12">
+        <v>1.9460307890499746</v>
+      </c>
+      <c r="R12">
+        <v>2.0905150559374062</v>
+      </c>
+      <c r="S12">
+        <v>69.447745558308398</v>
+      </c>
+      <c r="T12">
+        <v>2645.5969464116374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0.36030056690926326</v>
+      </c>
+      <c r="B13">
+        <v>1.4567295604942883</v>
+      </c>
+      <c r="C13">
+        <v>1.691571479175535E-4</v>
+      </c>
+      <c r="D13">
+        <v>0.67388795058035755</v>
+      </c>
+      <c r="E13">
+        <v>1.2899018274945058</v>
+      </c>
+      <c r="F13">
+        <v>126.29508132674349</v>
+      </c>
+      <c r="G13">
+        <v>1643.5627256717919</v>
+      </c>
+      <c r="H13">
+        <v>3.4029376259449915</v>
+      </c>
+      <c r="I13">
+        <v>0.87567606496513095</v>
+      </c>
+      <c r="J13">
+        <v>509.42162481101064</v>
+      </c>
+      <c r="K13">
+        <v>704.79345144858075</v>
+      </c>
+      <c r="L13">
+        <v>3187.718612351076</v>
+      </c>
+      <c r="M13">
+        <v>11499.524991459322</v>
+      </c>
+      <c r="N13">
+        <v>256949.54249068984</v>
+      </c>
+      <c r="O13">
+        <v>1916324.7933300498</v>
+      </c>
+      <c r="P13">
+        <v>1.0099663510180916</v>
+      </c>
+      <c r="Q13">
+        <v>1.9331959278456441</v>
+      </c>
+      <c r="R13">
+        <v>5.302624057726387</v>
+      </c>
+      <c r="S13">
+        <v>69.006608634125172</v>
+      </c>
+      <c r="T13">
+        <v>3285.9673058869994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0.2444452862008728</v>
+      </c>
+      <c r="B14">
+        <v>1.4571785877166459</v>
+      </c>
+      <c r="C14">
+        <v>2.2382528261983986E-4</v>
+      </c>
+      <c r="D14">
+        <v>0.49122096795960735</v>
+      </c>
+      <c r="E14">
+        <v>1.2942186587095559</v>
+      </c>
+      <c r="F14">
+        <v>242.67111903523298</v>
+      </c>
+      <c r="G14">
+        <v>1646.3744817418742</v>
+      </c>
+      <c r="H14">
+        <v>3.4025873751157083</v>
+      </c>
+      <c r="I14">
+        <v>0.87573431667750201</v>
+      </c>
+      <c r="J14">
+        <v>435.03173648513098</v>
+      </c>
+      <c r="K14">
+        <v>706.13269574441483</v>
+      </c>
+      <c r="L14">
+        <v>4421.5861160920476</v>
+      </c>
+      <c r="M14">
+        <v>11516.840560626804</v>
+      </c>
+      <c r="N14">
+        <v>256981.40956855961</v>
+      </c>
+      <c r="O14">
+        <v>1916616.7949547397</v>
+      </c>
+      <c r="P14">
+        <v>0.7364447571013033</v>
+      </c>
+      <c r="Q14">
+        <v>1.9403091641391572</v>
+      </c>
+      <c r="R14">
+        <v>10.200486520561682</v>
+      </c>
+      <c r="S14">
+        <v>69.204035385712501</v>
+      </c>
+      <c r="T14">
+        <v>3704.7313370977922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0.17137575764517646</v>
+      </c>
+      <c r="B15">
+        <v>1.4582063446949394</v>
+      </c>
+      <c r="C15">
+        <v>2.8334085001749517E-4</v>
+      </c>
+      <c r="D15">
+        <v>0.33269772936169312</v>
+      </c>
+      <c r="E15">
+        <v>1.2944961792093024</v>
+      </c>
+      <c r="F15">
+        <v>398.80828518771756</v>
+      </c>
+      <c r="G15">
+        <v>1640.595763352698</v>
+      </c>
+      <c r="H15">
+        <v>3.4017874964667918</v>
+      </c>
+      <c r="I15">
+        <v>0.87586778265957588</v>
+      </c>
+      <c r="J15">
+        <v>358.20669176056765</v>
+      </c>
+      <c r="K15">
+        <v>706.57645712647877</v>
+      </c>
+      <c r="L15">
+        <v>5676.7056280961951</v>
+      </c>
+      <c r="M15">
+        <v>11513.70454504615</v>
+      </c>
+      <c r="N15">
+        <v>257054.1867376196</v>
+      </c>
+      <c r="O15">
+        <v>1917282.5134496109</v>
+      </c>
+      <c r="P15">
+        <v>0.49916336960121566</v>
+      </c>
+      <c r="Q15">
+        <v>1.9421986317421924</v>
+      </c>
+      <c r="R15">
+        <v>16.807636100576129</v>
+      </c>
+      <c r="S15">
+        <v>69.142336312295583</v>
+      </c>
+      <c r="T15">
+        <v>4332.0019935882283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0.11879274386057556</v>
+      </c>
+      <c r="B16">
+        <v>1.4594333296172042</v>
+      </c>
+      <c r="C16">
+        <v>3.3964631875194837E-4</v>
+      </c>
+      <c r="D16">
+        <v>0.19878405018182427</v>
+      </c>
+      <c r="E16">
+        <v>1.2822560067787196</v>
+      </c>
+      <c r="F16">
+        <v>594.66238999264931</v>
+      </c>
+      <c r="G16">
+        <v>1617.8738879835169</v>
+      </c>
+      <c r="H16">
+        <v>3.4008359105235368</v>
+      </c>
+      <c r="I16">
+        <v>0.87602741942667151</v>
+      </c>
+      <c r="J16">
+        <v>277.0571170618428</v>
+      </c>
+      <c r="K16">
+        <v>703.66494245681656</v>
+      </c>
+      <c r="L16">
+        <v>6944.1370587434467</v>
+      </c>
+      <c r="M16">
+        <v>11453.952583567692</v>
+      </c>
+      <c r="N16">
+        <v>257140.80795556656</v>
+      </c>
+      <c r="O16">
+        <v>1918072.308469773</v>
+      </c>
+      <c r="P16">
+        <v>0.2985160026715159</v>
+      </c>
+      <c r="Q16">
+        <v>1.9255767109836379</v>
+      </c>
+      <c r="R16">
+        <v>25.140365812947142</v>
+      </c>
+      <c r="S16">
+        <v>68.398375393512708</v>
+      </c>
+      <c r="T16">
+        <v>4427.2952948992597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>8.2968392468049879E-2</v>
+      </c>
+      <c r="B17">
+        <v>1.4607172822314076</v>
+      </c>
+      <c r="C17">
+        <v>3.9433556498122061E-4</v>
+      </c>
+      <c r="D17">
+        <v>0.11086948817889933</v>
+      </c>
+      <c r="E17">
+        <v>1.2930655426605411</v>
+      </c>
+      <c r="F17">
+        <v>812.15290504729023</v>
+      </c>
+      <c r="G17">
+        <v>1623.9540433610043</v>
+      </c>
+      <c r="H17">
+        <v>3.3998441597974858</v>
+      </c>
+      <c r="I17">
+        <v>0.87619489194882161</v>
+      </c>
+      <c r="J17">
+        <v>207.04581351872906</v>
+      </c>
+      <c r="K17">
+        <v>707.08349772585734</v>
+      </c>
+      <c r="L17">
+        <v>8130.262469240708</v>
+      </c>
+      <c r="M17">
+        <v>11496.682361641162</v>
+      </c>
+      <c r="N17">
+        <v>257231.19144320791</v>
+      </c>
+      <c r="O17">
+        <v>1918892.7111927108</v>
+      </c>
+      <c r="P17">
+        <v>0.16665151941768624</v>
+      </c>
+      <c r="Q17">
+        <v>1.9436487074181918</v>
+      </c>
+      <c r="R17">
+        <v>34.447557923995674</v>
+      </c>
+      <c r="S17">
+        <v>68.880195621941198</v>
+      </c>
+      <c r="T17">
+        <v>4497.6149628714102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>5.3386228380875769E-2</v>
+      </c>
+      <c r="B18">
+        <v>1.4617581972456939</v>
+      </c>
+      <c r="C18">
+        <v>4.4877258181049925E-4</v>
+      </c>
+      <c r="D18">
+        <v>4.8121096570012699E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.2990250235699343</v>
+      </c>
+      <c r="F18">
+        <v>1059.8826872784398</v>
+      </c>
+      <c r="G18">
+        <v>1625.3187219473068</v>
+      </c>
+      <c r="H18">
+        <v>3.3990432366087195</v>
+      </c>
+      <c r="I18">
+        <v>0.87633103870783891</v>
+      </c>
+      <c r="J18">
+        <v>136.47605132977949</v>
+      </c>
+      <c r="K18">
+        <v>709.08361384417321</v>
+      </c>
+      <c r="L18">
+        <v>9301.7329792720357</v>
+      </c>
+      <c r="M18">
+        <v>11518.720442659096</v>
+      </c>
+      <c r="N18">
+        <v>257304.3073846903</v>
+      </c>
+      <c r="O18">
+        <v>1919553.0700028311</v>
+      </c>
+      <c r="P18">
+        <v>7.2387877124504146E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1.9541047584197164</v>
+      </c>
+      <c r="R18">
+        <v>45.074156984651331</v>
+      </c>
+      <c r="S18">
+        <v>69.120735815830727</v>
+      </c>
+      <c r="T18">
+        <v>4293.7720416460734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0.67993160399228991</v>
+      </c>
+      <c r="B19">
+        <v>1.4572195393224763</v>
+      </c>
+      <c r="C19">
+        <v>9.778306805967684E-5</v>
+      </c>
+      <c r="D19">
+        <v>1.2220787198551399</v>
+      </c>
+      <c r="E19">
+        <v>1.6829002814529874</v>
+      </c>
+      <c r="F19">
+        <v>46.785066153390012</v>
+      </c>
+      <c r="G19">
+        <v>2140.4976089670872</v>
+      </c>
+      <c r="H19">
+        <v>3.4025554554948547</v>
+      </c>
+      <c r="I19">
+        <v>0.87573963094585872</v>
+      </c>
+      <c r="J19">
+        <v>686.18481921101591</v>
+      </c>
+      <c r="K19">
+        <v>805.23140836698235</v>
+      </c>
+      <c r="L19">
+        <v>1941.5491916832534</v>
+      </c>
+      <c r="M19">
+        <v>13132.643287953682</v>
+      </c>
+      <c r="N19">
+        <v>256984.31364569897</v>
+      </c>
+      <c r="O19">
+        <v>1916643.391413349</v>
+      </c>
+      <c r="P19">
+        <v>1.832211466279646</v>
+      </c>
+      <c r="Q19">
+        <v>2.5231019427692059</v>
+      </c>
+      <c r="R19">
+        <v>1.9667786300852503</v>
+      </c>
+      <c r="S19">
+        <v>89.983520409321841</v>
+      </c>
+      <c r="T19">
+        <v>2724.9027599055526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0.4244792398168189</v>
+      </c>
+      <c r="B20">
+        <v>1.4576633582084371</v>
+      </c>
+      <c r="C20">
+        <v>1.4660855722661308E-4</v>
+      </c>
+      <c r="D20">
+        <v>0.97997714245199152</v>
+      </c>
+      <c r="E20">
+        <v>1.6889148029206489</v>
+      </c>
+      <c r="F20">
+        <v>121.75406792027127</v>
+      </c>
+      <c r="G20">
+        <v>2144.6883829997532</v>
+      </c>
+      <c r="H20">
+        <v>3.4022097761957886</v>
+      </c>
+      <c r="I20">
+        <v>0.87579724435180595</v>
+      </c>
+      <c r="J20">
+        <v>614.60662408514452</v>
+      </c>
+      <c r="K20">
+        <v>806.8506156724518</v>
+      </c>
+      <c r="L20">
+        <v>3134.1175313992917</v>
+      </c>
+      <c r="M20">
+        <v>13153.93338912706</v>
+      </c>
+      <c r="N20">
+        <v>257015.76400467783</v>
+      </c>
+      <c r="O20">
+        <v>1916931.26178019</v>
+      </c>
+      <c r="P20">
+        <v>1.4697203645550048</v>
+      </c>
+      <c r="Q20">
+        <v>2.5329493641454839</v>
+      </c>
+      <c r="R20">
+        <v>5.1241757576129165</v>
+      </c>
+      <c r="S20">
+        <v>90.261955165209358</v>
+      </c>
+      <c r="T20">
+        <v>3278.7438915274106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0.29350194434458249</v>
+      </c>
+      <c r="B21">
+        <v>1.4580592356664024</v>
+      </c>
+      <c r="C21">
+        <v>1.9695951033685938E-4</v>
+      </c>
+      <c r="D21">
+        <v>0.75117368690527964</v>
+      </c>
+      <c r="E21">
+        <v>1.6818466326121357</v>
+      </c>
+      <c r="F21">
+        <v>234.6322035580275</v>
+      </c>
+      <c r="G21">
+        <v>2132.6468643221342</v>
+      </c>
+      <c r="H21">
+        <v>3.4019018329983384</v>
+      </c>
+      <c r="I21">
+        <v>0.87584866607093026</v>
+      </c>
+      <c r="J21">
+        <v>538.20358801767679</v>
+      </c>
+      <c r="K21">
+        <v>805.32206872395659</v>
+      </c>
+      <c r="L21">
+        <v>4353.2720925154745</v>
+      </c>
+      <c r="M21">
+        <v>13124.461018171734</v>
+      </c>
+      <c r="N21">
+        <v>257043.78279557373</v>
+      </c>
+      <c r="O21">
+        <v>1917187.4537474748</v>
+      </c>
+      <c r="P21">
+        <v>1.1269018025052546</v>
+      </c>
+      <c r="Q21">
+        <v>2.5230862513784995</v>
+      </c>
+      <c r="R21">
+        <v>9.8847808931938754</v>
+      </c>
+      <c r="S21">
+        <v>89.845923350277573</v>
+      </c>
+      <c r="T21">
+        <v>3754.9579740010909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0.21546578311496883</v>
+      </c>
+      <c r="B22">
+        <v>1.4595793096322112</v>
+      </c>
+      <c r="C22">
+        <v>2.4732432141382919E-4</v>
+      </c>
+      <c r="D22">
+        <v>0.55984391022753099</v>
+      </c>
+      <c r="E22">
+        <v>1.6787295138865879</v>
+      </c>
+      <c r="F22">
+        <v>377.91909960443422</v>
+      </c>
+      <c r="G22">
+        <v>2117.0014764234984</v>
+      </c>
+      <c r="H22">
+        <v>3.4007229433854143</v>
+      </c>
+      <c r="I22">
+        <v>0.87604643699305051</v>
+      </c>
+      <c r="J22">
+        <v>464.99051281451108</v>
+      </c>
+      <c r="K22">
+        <v>805.19482642813352</v>
+      </c>
+      <c r="L22">
+        <v>5536.9910012828441</v>
+      </c>
+      <c r="M22">
+        <v>13104.938208618752</v>
+      </c>
+      <c r="N22">
+        <v>257151.0965962451</v>
+      </c>
+      <c r="O22">
+        <v>1918165.9025047389</v>
+      </c>
+      <c r="P22">
+        <v>0.8408137467404414</v>
+      </c>
+      <c r="Q22">
+        <v>2.5212364134872565</v>
+      </c>
+      <c r="R22">
+        <v>15.983116636706793</v>
+      </c>
+      <c r="S22">
+        <v>89.533134348524612</v>
+      </c>
+      <c r="T22">
+        <v>4131.3947685547482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0.15750794115311817</v>
+      </c>
+      <c r="B23">
+        <v>1.4610407457636323</v>
+      </c>
+      <c r="C23">
+        <v>2.9683702319579472E-4</v>
+      </c>
+      <c r="D23">
+        <v>0.39132532377617174</v>
+      </c>
+      <c r="E23">
+        <v>1.6998668425321624</v>
+      </c>
+      <c r="F23">
+        <v>577.03076132214744</v>
+      </c>
+      <c r="G23">
+        <v>2132.3605263983868</v>
+      </c>
+      <c r="H23">
+        <v>3.3995949725523444</v>
+      </c>
+      <c r="I23">
+        <v>0.87623716105475824</v>
+      </c>
+      <c r="J23">
+        <v>389.04547170151216</v>
+      </c>
+      <c r="K23">
+        <v>810.84686031681474</v>
+      </c>
+      <c r="L23">
+        <v>6856.2564284431583</v>
+      </c>
+      <c r="M23">
+        <v>13180.07514574698</v>
+      </c>
+      <c r="N23">
+        <v>257253.92586270551</v>
+      </c>
+      <c r="O23">
+        <v>1919098.3814693633</v>
+      </c>
+      <c r="P23">
+        <v>0.58835401070703142</v>
+      </c>
+      <c r="Q23">
+        <v>2.5557341007752949</v>
+      </c>
+      <c r="R23">
+        <v>24.494967358878249</v>
+      </c>
+      <c r="S23">
+        <v>90.518746993331504</v>
+      </c>
+      <c r="T23">
+        <v>4531.032516351449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0.11654633782325617</v>
+      </c>
+      <c r="B24">
+        <v>1.462844948611713</v>
+      </c>
+      <c r="C24">
+        <v>3.4545986383267954E-4</v>
+      </c>
+      <c r="D24">
+        <v>0.25231906584805647</v>
+      </c>
+      <c r="E24">
+        <v>1.6835144906131096</v>
+      </c>
+      <c r="F24">
+        <v>788.06282872575298</v>
+      </c>
+      <c r="G24">
+        <v>2098.1496884489347</v>
+      </c>
+      <c r="H24">
+        <v>3.3982100842824403</v>
+      </c>
+      <c r="I24">
+        <v>0.87647359034300287</v>
+      </c>
+      <c r="J24">
+        <v>312.68122405579311</v>
+      </c>
+      <c r="K24">
+        <v>807.67231909287261</v>
+      </c>
+      <c r="L24">
+        <v>8033.2624154987716</v>
+      </c>
+      <c r="M24">
+        <v>13107.798807009798</v>
+      </c>
+      <c r="N24">
+        <v>257380.52374325987</v>
+      </c>
+      <c r="O24">
+        <v>1920237.7849298255</v>
+      </c>
+      <c r="P24">
+        <v>0.37986381585949131</v>
+      </c>
+      <c r="Q24">
+        <v>2.5345141331656111</v>
+      </c>
+      <c r="R24">
+        <v>33.606934277998029</v>
+      </c>
+      <c r="S24">
+        <v>89.475580010694557</v>
+      </c>
+      <c r="T24">
+        <v>4524.869108757719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>8.2093683562984091E-2</v>
+      </c>
+      <c r="B25">
+        <v>1.4644812041525688</v>
+      </c>
+      <c r="C25">
+        <v>3.9757814584557362E-4</v>
+      </c>
+      <c r="D25">
+        <v>0.14008339606480572</v>
+      </c>
+      <c r="E25">
+        <v>1.6748034109318537</v>
+      </c>
+      <c r="F25">
+        <v>1048.3610805270341</v>
+      </c>
+      <c r="G25">
+        <v>2075.0412336757386</v>
+      </c>
+      <c r="H25">
+        <v>3.3969615923604723</v>
+      </c>
+      <c r="I25">
+        <v>0.87668918471593382</v>
+      </c>
+      <c r="J25">
+        <v>233.17295013960108</v>
+      </c>
+      <c r="K25">
+        <v>806.2444812752401</v>
+      </c>
+      <c r="L25">
+        <v>9287.1626199115017</v>
+      </c>
+      <c r="M25">
+        <v>13065.949366165765</v>
+      </c>
+      <c r="N25">
+        <v>257495.1098249699</v>
+      </c>
+      <c r="O25">
+        <v>1921259.2449468414</v>
+      </c>
+      <c r="P25">
+        <v>0.21114818341118083</v>
+      </c>
+      <c r="Q25">
+        <v>2.5244369263114694</v>
+      </c>
+      <c r="R25">
+        <v>44.893155234273408</v>
+      </c>
+      <c r="S25">
+        <v>88.857884894097765</v>
+      </c>
+      <c r="T25">
+        <v>4735.0475038152063</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5.5773819057315009E-2</v>
+      </c>
+      <c r="B26">
+        <v>1.4657929901770277</v>
+      </c>
+      <c r="C26">
+        <v>4.4538701688368059E-4</v>
+      </c>
+      <c r="D26">
+        <v>6.7567374713555242E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.682720290659746</v>
+      </c>
+      <c r="F26">
+        <v>1326.7608960497873</v>
+      </c>
+      <c r="G26">
+        <v>2075.0543140721938</v>
+      </c>
+      <c r="H26">
+        <v>3.3959654639229271</v>
+      </c>
+      <c r="I26">
+        <v>0.87686320754234126</v>
+      </c>
+      <c r="J26">
+        <v>162.04665254631342</v>
+      </c>
+      <c r="K26">
+        <v>808.68149887108518</v>
+      </c>
+      <c r="L26">
+        <v>10467.338556720444</v>
+      </c>
+      <c r="M26">
+        <v>13090.452952466439</v>
+      </c>
+      <c r="N26">
+        <v>257586.80799393295</v>
+      </c>
+      <c r="O26">
+        <v>1922069.9209374664</v>
+      </c>
+      <c r="P26">
+        <v>0.10194278894159875</v>
+      </c>
+      <c r="Q26">
+        <v>2.5388169980808497</v>
+      </c>
+      <c r="R26">
+        <v>57.003741262215549</v>
+      </c>
+      <c r="S26">
+        <v>89.153863048415303</v>
+      </c>
+      <c r="T26">
+        <v>4653.161426921165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>3.1140354171162399E-2</v>
+      </c>
+      <c r="B27">
+        <v>1.465750701917468</v>
+      </c>
+      <c r="C27">
+        <v>4.9515679519039765E-4</v>
+      </c>
+      <c r="D27">
+        <v>1.9577098445337986E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.6814634154068011</v>
+      </c>
+      <c r="F27">
+        <v>1650.4247789052963</v>
+      </c>
+      <c r="G27">
+        <v>2073.8189341485286</v>
+      </c>
+      <c r="H27">
+        <v>3.3959975115380567</v>
+      </c>
+      <c r="I27">
+        <v>0.8768575819076988</v>
+      </c>
+      <c r="J27">
+        <v>87.224093945836714</v>
+      </c>
+      <c r="K27">
+        <v>808.3622345757118</v>
+      </c>
+      <c r="L27">
+        <v>11673.783937489694</v>
+      </c>
+      <c r="M27">
+        <v>13085.767536051861</v>
+      </c>
+      <c r="N27">
+        <v>257583.85479183181</v>
+      </c>
+      <c r="O27">
+        <v>1922043.8971965348</v>
+      </c>
+      <c r="P27">
+        <v>2.9536177920858595E-2</v>
+      </c>
+      <c r="Q27">
+        <v>2.5368418483228616</v>
+      </c>
+      <c r="R27">
+        <v>70.902247143243898</v>
+      </c>
+      <c r="S27">
+        <v>89.091259703981294</v>
+      </c>
+      <c r="T27">
+        <v>4678.5215570884229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0.77617909699520649</v>
+      </c>
+      <c r="B28">
+        <v>1.4579322273084905</v>
+      </c>
+      <c r="C28">
+        <v>8.6952551244423985E-5</v>
+      </c>
+      <c r="D28">
+        <v>1.6097136126639868</v>
+      </c>
+      <c r="E28">
+        <v>2.1183024523205369</v>
+      </c>
+      <c r="F28">
+        <v>44.217431861106355</v>
+      </c>
+      <c r="G28">
+        <v>2687.3278314283912</v>
+      </c>
+      <c r="H28">
+        <v>3.40200058872496</v>
+      </c>
+      <c r="I28">
+        <v>0.87583216514899498</v>
+      </c>
+      <c r="J28">
+        <v>787.81230741806985</v>
+      </c>
+      <c r="K28">
+        <v>903.73777865582065</v>
+      </c>
+      <c r="L28">
+        <v>1889.4659318093729</v>
+      </c>
+      <c r="M28">
+        <v>14729.996141720943</v>
+      </c>
+      <c r="N28">
+        <v>257034.79701862275</v>
+      </c>
+      <c r="O28">
+        <v>1917105.320753888</v>
+      </c>
+      <c r="P28">
+        <v>2.4146467284521638</v>
+      </c>
+      <c r="Q28">
+        <v>3.1775540979013148</v>
+      </c>
+      <c r="R28">
+        <v>1.8622250268776848</v>
+      </c>
+      <c r="S28">
+        <v>113.17729077596574</v>
+      </c>
+      <c r="T28">
+        <v>2397.7753890461404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0.49898824319987978</v>
+      </c>
+      <c r="B29">
+        <v>1.4584261780217807</v>
+      </c>
+      <c r="C29">
+        <v>1.2977205797858469E-4</v>
+      </c>
+      <c r="D29">
+        <v>1.3558713858111127</v>
+      </c>
+      <c r="E29">
+        <v>2.1381309522539933</v>
+      </c>
+      <c r="F29">
+        <v>112.31834284569302</v>
+      </c>
+      <c r="G29">
+        <v>2707.6273968700625</v>
+      </c>
+      <c r="H29">
+        <v>3.4016167344248225</v>
+      </c>
+      <c r="I29">
+        <v>0.87589635830165924</v>
+      </c>
+      <c r="J29">
+        <v>723.2132704658045</v>
+      </c>
+      <c r="K29">
+        <v>908.18492564109476</v>
+      </c>
+      <c r="L29">
+        <v>3013.5436911619381</v>
+      </c>
+      <c r="M29">
+        <v>14796.077542153609</v>
+      </c>
+      <c r="N29">
+        <v>257069.72620693722</v>
+      </c>
+      <c r="O29">
+        <v>1917424.4218166198</v>
+      </c>
+      <c r="P29">
+        <v>2.0346131078725609</v>
+      </c>
+      <c r="Q29">
+        <v>3.2084674898582555</v>
+      </c>
+      <c r="R29">
+        <v>4.7362730312665517</v>
+      </c>
+      <c r="S29">
+        <v>114.17603121274938</v>
+      </c>
+      <c r="T29">
+        <v>2909.0164024735263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0.34900845598980462</v>
+      </c>
+      <c r="B30">
+        <v>1.4591170543237595</v>
+      </c>
+      <c r="C30">
+        <v>1.7444494224435372E-4</v>
+      </c>
+      <c r="D30">
+        <v>1.0872663576516732</v>
+      </c>
+      <c r="E30">
+        <v>2.131565256846172</v>
+      </c>
+      <c r="F30">
+        <v>219.93599557234563</v>
+      </c>
+      <c r="G30">
+        <v>2692.5633567090795</v>
+      </c>
+      <c r="H30">
+        <v>3.4010808430638351</v>
+      </c>
+      <c r="I30">
+        <v>0.8759862356293372</v>
+      </c>
+      <c r="J30">
+        <v>647.85381316620339</v>
+      </c>
+      <c r="K30">
+        <v>907.10667060257481</v>
+      </c>
+      <c r="L30">
+        <v>4221.1735479386389</v>
+      </c>
+      <c r="M30">
+        <v>14769.575621923639</v>
+      </c>
+      <c r="N30">
+        <v>257118.5050354361</v>
+      </c>
+      <c r="O30">
+        <v>1917869.2567268591</v>
+      </c>
+      <c r="P30">
+        <v>1.6323778919613152</v>
+      </c>
+      <c r="Q30">
+        <v>3.2002461734066325</v>
+      </c>
+      <c r="R30">
+        <v>9.2906782145444975</v>
+      </c>
+      <c r="S30">
+        <v>113.74099839527717</v>
+      </c>
+      <c r="T30">
+        <v>3610.9573495000695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0.25958881259819483</v>
+      </c>
+      <c r="B31">
+        <v>1.4607338950183177</v>
+      </c>
+      <c r="C31">
+        <v>2.1867615294909979E-4</v>
+      </c>
+      <c r="D31">
+        <v>0.85541505165342102</v>
+      </c>
+      <c r="E31">
+        <v>2.1365409766121433</v>
+      </c>
+      <c r="F31">
+        <v>361.87587456861877</v>
+      </c>
+      <c r="G31">
+        <v>2683.1092330840379</v>
+      </c>
+      <c r="H31">
+        <v>3.3998313552112855</v>
+      </c>
+      <c r="I31">
+        <v>0.87619706204165659</v>
+      </c>
+      <c r="J31">
+        <v>575.11212093955896</v>
+      </c>
+      <c r="K31">
+        <v>908.90750651954704</v>
+      </c>
+      <c r="L31">
+        <v>5427.2003338409368</v>
+      </c>
+      <c r="M31">
+        <v>14777.984765254811</v>
+      </c>
+      <c r="N31">
+        <v>257232.35938442458</v>
+      </c>
+      <c r="O31">
+        <v>1918903.2843046312</v>
+      </c>
+      <c r="P31">
+        <v>1.2858178202894681</v>
+      </c>
+      <c r="Q31">
+        <v>3.2115432808863074</v>
+      </c>
+      <c r="R31">
+        <v>15.349655037104617</v>
+      </c>
+      <c r="S31">
+        <v>113.80919273440225</v>
+      </c>
+      <c r="T31">
+        <v>4098.3008193025034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0.1972698347498453</v>
+      </c>
+      <c r="B32">
+        <v>1.462486072396235</v>
+      </c>
+      <c r="C32">
+        <v>2.6302194129591448E-4</v>
+      </c>
+      <c r="D32">
+        <v>0.64128853929497676</v>
+      </c>
+      <c r="E32">
+        <v>2.1233391822025873</v>
+      </c>
+      <c r="F32">
+        <v>537.61294208475408</v>
+      </c>
+      <c r="G32">
+        <v>2649.7234122678892</v>
+      </c>
+      <c r="H32">
+        <v>3.3984848670938792</v>
+      </c>
+      <c r="I32">
+        <v>0.87642646645393163</v>
+      </c>
+      <c r="J32">
+        <v>498.39641856017073</v>
+      </c>
+      <c r="K32">
+        <v>906.89678130815037</v>
+      </c>
+      <c r="L32">
+        <v>6631.6732585383261</v>
+      </c>
+      <c r="M32">
+        <v>14722.736333446464</v>
+      </c>
+      <c r="N32">
+        <v>257355.3664934414</v>
+      </c>
+      <c r="O32">
+        <v>1920012.2167704601</v>
+      </c>
+      <c r="P32">
+        <v>0.96519840801507151</v>
+      </c>
+      <c r="Q32">
+        <v>3.1958213390045764</v>
+      </c>
+      <c r="R32">
+        <v>22.905630403741384</v>
+      </c>
+      <c r="S32">
+        <v>112.89457600888717</v>
+      </c>
+      <c r="T32">
+        <v>4493.1700146264238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0.15182216668004084</v>
+      </c>
+      <c r="B33">
+        <v>1.4645865800590079</v>
+      </c>
+      <c r="C33">
+        <v>3.0668818454028318E-4</v>
+      </c>
+      <c r="D33">
+        <v>0.46635563283223319</v>
+      </c>
+      <c r="E33">
+        <v>2.1351743308604454</v>
+      </c>
+      <c r="F33">
+        <v>750.26758202221936</v>
+      </c>
+      <c r="G33">
+        <v>2644.4282394623474</v>
+      </c>
+      <c r="H33">
+        <v>3.3968814196629404</v>
+      </c>
+      <c r="I33">
+        <v>0.87670312472160083</v>
+      </c>
+      <c r="J33">
+        <v>425.46759994309639</v>
+      </c>
+      <c r="K33">
+        <v>910.38386069571015</v>
+      </c>
+      <c r="L33">
+        <v>7857.800973782194</v>
+      </c>
+      <c r="M33">
+        <v>14752.269136092864</v>
+      </c>
+      <c r="N33">
+        <v>257502.48225225459</v>
+      </c>
+      <c r="O33">
+        <v>1921324.6318921603</v>
+      </c>
+      <c r="P33">
+        <v>0.70299391686642176</v>
+      </c>
+      <c r="Q33">
+        <v>3.2186049880611192</v>
+      </c>
+      <c r="R33">
+        <v>32.136701481188325</v>
+      </c>
+      <c r="S33">
+        <v>113.27052235279582</v>
+      </c>
+      <c r="T33">
+        <v>4843.6346939191744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0.11748349823327076</v>
+      </c>
+      <c r="B34">
+        <v>1.4665384869744802</v>
+      </c>
+      <c r="C34">
+        <v>3.4980443888649171E-4</v>
+      </c>
+      <c r="D34">
+        <v>0.32312535489504274</v>
+      </c>
+      <c r="E34">
+        <v>2.1405211459450708</v>
+      </c>
+      <c r="F34">
+        <v>984.29481286318946</v>
+      </c>
+      <c r="G34">
+        <v>2632.5486851690825</v>
+      </c>
+      <c r="H34">
+        <v>3.3954012046101241</v>
+      </c>
+      <c r="I34">
+        <v>0.87696253419722614</v>
+      </c>
+      <c r="J34">
+        <v>354.50293662210981</v>
+      </c>
+      <c r="K34">
+        <v>912.41849438371923</v>
+      </c>
+      <c r="L34">
+        <v>9025.334666823288</v>
+      </c>
+      <c r="M34">
+        <v>14760.087173497959</v>
+      </c>
+      <c r="N34">
+        <v>257638.83387667919</v>
+      </c>
+      <c r="O34">
+        <v>1922527.5225696131</v>
+      </c>
+      <c r="P34">
+        <v>0.48778489710853778</v>
+      </c>
+      <c r="Q34">
+        <v>3.2312966813533213</v>
+      </c>
+      <c r="R34">
+        <v>42.369570730144261</v>
+      </c>
+      <c r="S34">
+        <v>113.31966425014886</v>
+      </c>
+      <c r="T34">
+        <v>5086.3710259623504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>8.8455411303821299E-2</v>
+      </c>
+      <c r="B35">
+        <v>1.4685727360143948</v>
+      </c>
+      <c r="C35">
+        <v>3.9303947292601831E-4</v>
+      </c>
+      <c r="D35">
+        <v>0.20338595069153148</v>
+      </c>
+      <c r="E35">
+        <v>2.1470275375237642</v>
+      </c>
+      <c r="F35">
+        <v>1256.0907954931827</v>
+      </c>
+      <c r="G35">
+        <v>2621.4035213999691</v>
+      </c>
+      <c r="H35">
+        <v>3.3938682678865342</v>
+      </c>
+      <c r="I35">
+        <v>0.8772347995205847</v>
+      </c>
+      <c r="J35">
+        <v>281.53883396534809</v>
+      </c>
+      <c r="K35">
+        <v>914.73782962993357</v>
+      </c>
+      <c r="L35">
+        <v>10225.048953088968</v>
+      </c>
+      <c r="M35">
+        <v>14771.405436914134</v>
+      </c>
+      <c r="N35">
+        <v>257780.394966711</v>
+      </c>
+      <c r="O35">
+        <v>1923765.4023733065</v>
+      </c>
+      <c r="P35">
+        <v>0.3074869795307893</v>
+      </c>
+      <c r="Q35">
+        <v>3.2459617305813206</v>
+      </c>
+      <c r="R35">
+        <v>54.347388701388844</v>
+      </c>
+      <c r="S35">
+        <v>113.42049207897951</v>
+      </c>
+      <c r="T35">
+        <v>5129.2221697033829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>5.9445400340919205E-2</v>
+      </c>
+      <c r="B36">
+        <v>1.4704898967648548</v>
+      </c>
+      <c r="C36">
+        <v>4.4238769592904093E-4</v>
+      </c>
+      <c r="D36">
+        <v>9.6440805824615006E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.1341347236183812</v>
+      </c>
+      <c r="F36">
+        <v>1604.5842849462842</v>
+      </c>
+      <c r="G36">
+        <v>2587.9035356628542</v>
+      </c>
+      <c r="H36">
+        <v>3.3924325667762005</v>
+      </c>
+      <c r="I36">
+        <v>0.8774925140852089</v>
+      </c>
+      <c r="J36">
+        <v>194.05518341048307</v>
+      </c>
+      <c r="K36">
+        <v>912.86330219216984</v>
+      </c>
+      <c r="L36">
+        <v>11588.146793192964</v>
+      </c>
+      <c r="M36">
+        <v>14716.575497020163</v>
+      </c>
+      <c r="N36">
+        <v>257913.14200193607</v>
+      </c>
+      <c r="O36">
+        <v>1924918.626022611</v>
+      </c>
+      <c r="P36">
+        <v>0.14600812473601496</v>
+      </c>
+      <c r="Q36">
+        <v>3.2310079355434227</v>
+      </c>
+      <c r="R36">
+        <v>69.761466425236307</v>
+      </c>
+      <c r="S36">
+        <v>112.51259738028547</v>
+      </c>
+      <c r="T36">
+        <v>5207.2737390463662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>3.7203782112081064E-2</v>
+      </c>
+      <c r="B37">
+        <v>1.4720929322797647</v>
+      </c>
+      <c r="C37">
+        <v>4.8448728271912082E-4</v>
+      </c>
+      <c r="D37">
+        <v>3.6377776821509701E-2</v>
+      </c>
+      <c r="E37">
+        <v>2.1379219970320973</v>
+      </c>
+      <c r="F37">
+        <v>1949.1126698571309</v>
+      </c>
+      <c r="G37">
+        <v>2577.7526663055282</v>
+      </c>
+      <c r="H37">
+        <v>3.3912387579951133</v>
+      </c>
+      <c r="I37">
+        <v>0.87770837706111526</v>
+      </c>
+      <c r="J37">
+        <v>119.27811222217164</v>
+      </c>
+      <c r="K37">
+        <v>914.40503302858338</v>
+      </c>
+      <c r="L37">
+        <v>12800.680612430793</v>
+      </c>
+      <c r="M37">
+        <v>14720.928787478351</v>
+      </c>
+      <c r="N37">
+        <v>258023.53181083649</v>
+      </c>
+      <c r="O37">
+        <v>1925873.8179215167</v>
+      </c>
+      <c r="P37">
+        <v>5.5139420639026597E-2</v>
+      </c>
+      <c r="Q37">
+        <v>3.2405438316416704</v>
+      </c>
+      <c r="R37">
+        <v>85.082118369677687</v>
+      </c>
+      <c r="S37">
+        <v>112.52333478414839</v>
+      </c>
+      <c r="T37">
+        <v>4978.8165500872365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>1.756360382988769E-2</v>
+      </c>
+      <c r="B38">
+        <v>1.4706626196011097</v>
+      </c>
+      <c r="C38">
+        <v>5.2410837748264087E-4</v>
+      </c>
+      <c r="D38">
+        <v>6.5879057024957445E-3</v>
+      </c>
+      <c r="E38">
+        <v>2.1363675380335252</v>
+      </c>
+      <c r="F38">
+        <v>2309.4600389877951</v>
+      </c>
+      <c r="G38">
+        <v>2589.0179461419762</v>
+      </c>
+      <c r="H38">
+        <v>3.3923036465484913</v>
+      </c>
+      <c r="I38">
+        <v>0.87751576385459062</v>
+      </c>
+      <c r="J38">
+        <v>50.723129056605828</v>
+      </c>
+      <c r="K38">
+        <v>913.41961795154066</v>
+      </c>
+      <c r="L38">
+        <v>13905.732463627561</v>
+      </c>
+      <c r="M38">
+        <v>14723.334333414601</v>
+      </c>
+      <c r="N38">
+        <v>257925.06458811095</v>
+      </c>
+      <c r="O38">
+        <v>1925021.92794295</v>
+      </c>
+      <c r="P38">
+        <v>9.9751291151239478E-3</v>
+      </c>
+      <c r="Q38">
+        <v>3.2347976719172915</v>
+      </c>
+      <c r="R38">
+        <v>100.45048970253399</v>
+      </c>
+      <c r="S38">
+        <v>112.60992446208101</v>
+      </c>
+      <c r="T38">
+        <v>5054.8074112758777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>0.88646977874028376</v>
+      </c>
+      <c r="B39">
+        <v>1.4587596241605676</v>
+      </c>
+      <c r="C39">
+        <v>7.8919203062021904E-5</v>
+      </c>
+      <c r="D39">
+        <v>2.0735263233383296</v>
+      </c>
+      <c r="E39">
+        <v>2.6231341637807835</v>
+      </c>
+      <c r="F39">
+        <v>40.814158525314497</v>
+      </c>
+      <c r="G39">
+        <v>3317.7998497746094</v>
+      </c>
+      <c r="H39">
+        <v>3.4013579445670294</v>
+      </c>
+      <c r="I39">
+        <v>0.87593972285140909</v>
+      </c>
+      <c r="J39">
+        <v>894.51009690317335</v>
+      </c>
+      <c r="K39">
+        <v>1006.0990117639036</v>
+      </c>
+      <c r="L39">
+        <v>1817.4671793749353</v>
+      </c>
+      <c r="M39">
+        <v>16386.501610528205</v>
+      </c>
+      <c r="N39">
+        <v>257093.27954821454</v>
+      </c>
+      <c r="O39">
+        <v>1917639.3363113375</v>
+      </c>
+      <c r="P39">
+        <v>3.1122879402674819</v>
+      </c>
+      <c r="Q39">
+        <v>3.9372294104734538</v>
+      </c>
+      <c r="R39">
+        <v>1.7225277379107724</v>
+      </c>
+      <c r="S39">
+        <v>140.02499320250095</v>
+      </c>
+      <c r="T39">
+        <v>2516.2165474943881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>0.55526316016872435</v>
+      </c>
+      <c r="B40">
+        <v>1.4592999735201244</v>
+      </c>
+      <c r="C40">
+        <v>1.1780553031377662E-4</v>
+      </c>
+      <c r="D40">
+        <v>1.7494928245264587</v>
+      </c>
+      <c r="E40">
+        <v>2.6210697609564622</v>
+      </c>
+      <c r="F40">
+        <v>110.81724992075756</v>
+      </c>
+      <c r="G40">
+        <v>3308.7060877160998</v>
+      </c>
+      <c r="H40">
+        <v>3.4009391549932961</v>
+      </c>
+      <c r="I40">
+        <v>0.87601005133163656</v>
+      </c>
+      <c r="J40">
+        <v>821.87415791625313</v>
+      </c>
+      <c r="K40">
+        <v>1005.9781142087852</v>
+      </c>
+      <c r="L40">
+        <v>2997.1139950274232</v>
+      </c>
+      <c r="M40">
+        <v>16376.785950192776</v>
+      </c>
+      <c r="N40">
+        <v>257131.40604128179</v>
+      </c>
+      <c r="O40">
+        <v>1917986.7381649672</v>
+      </c>
+      <c r="P40">
+        <v>2.6269724956977991</v>
+      </c>
+      <c r="Q40">
+        <v>3.9356995780771755</v>
+      </c>
+      <c r="R40">
+        <v>4.6833964596561435</v>
+      </c>
+      <c r="S40">
+        <v>139.83366658469751</v>
+      </c>
+      <c r="T40">
+        <v>3176.9244022210441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>0.39819321986038814</v>
+      </c>
+      <c r="B41">
+        <v>1.4603084665857369</v>
+      </c>
+      <c r="C41">
+        <v>1.5746289990127037E-4</v>
+      </c>
+      <c r="D41">
+        <v>1.4619128116154356</v>
+      </c>
+      <c r="E41">
+        <v>2.6243371245160887</v>
+      </c>
+      <c r="F41">
+        <v>212.34151505613664</v>
+      </c>
+      <c r="G41">
+        <v>3300.7644700240735</v>
+      </c>
+      <c r="H41">
+        <v>3.4001594839423808</v>
+      </c>
+      <c r="I41">
+        <v>0.87614151600973611</v>
+      </c>
+      <c r="J41">
+        <v>751.67733559934049</v>
+      </c>
+      <c r="K41">
+        <v>1007.1184026146443</v>
+      </c>
+      <c r="L41">
+        <v>4154.7774801514788</v>
+      </c>
+      <c r="M41">
+        <v>16380.89328361114</v>
+      </c>
+      <c r="N41">
+        <v>257202.43863767342</v>
+      </c>
+      <c r="O41">
+        <v>1918632.181990548</v>
+      </c>
+      <c r="P41">
+        <v>2.1967863906985645</v>
+      </c>
+      <c r="Q41">
+        <v>3.9435375584207493</v>
+      </c>
+      <c r="R41">
+        <v>8.9971262191926016</v>
+      </c>
+      <c r="S41">
+        <v>139.85675174627005</v>
+      </c>
+      <c r="T41">
+        <v>3729.5564924506848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>0.28880856699535451</v>
+      </c>
+      <c r="B42">
+        <v>1.4626462608867279</v>
+      </c>
+      <c r="C42">
+        <v>1.9775736369099308E-4</v>
+      </c>
+      <c r="D42">
+        <v>1.1417557900788262</v>
+      </c>
+      <c r="E42">
+        <v>2.60003743978739</v>
+      </c>
+      <c r="F42">
+        <v>368.99626621082621</v>
+      </c>
+      <c r="G42">
+        <v>3242.7246787209924</v>
+      </c>
+      <c r="H42">
+        <v>3.3983621720084982</v>
+      </c>
+      <c r="I42">
+        <v>0.87644749455132021</v>
+      </c>
+      <c r="J42">
+        <v>665.07384657275622</v>
+      </c>
+      <c r="K42">
+        <v>1003.6286709995904</v>
+      </c>
+      <c r="L42">
+        <v>5495.395148737548</v>
+      </c>
+      <c r="M42">
+        <v>16290.821254969274</v>
+      </c>
+      <c r="N42">
+        <v>257366.59701068926</v>
+      </c>
+      <c r="O42">
+        <v>1920112.9686466858</v>
+      </c>
+      <c r="P42">
+        <v>1.7186504640954279</v>
+      </c>
+      <c r="Q42">
+        <v>3.9137577329453084</v>
+      </c>
+      <c r="R42">
+        <v>15.727912020745833</v>
+      </c>
+      <c r="S42">
+        <v>138.2162724250588</v>
+      </c>
+      <c r="T42">
+        <v>3931.5149143981353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>0.28657640137829243</v>
+      </c>
+      <c r="B43">
+        <v>1.4626139677167496</v>
+      </c>
+      <c r="C43">
+        <v>1.9810234322424383E-4</v>
+      </c>
+      <c r="D43">
+        <v>1.1411276155411503</v>
+      </c>
+      <c r="E43">
+        <v>2.6156566044444047</v>
+      </c>
+      <c r="F43">
+        <v>376.03306263481812</v>
+      </c>
+      <c r="G43">
+        <v>3262.5842568000267</v>
+      </c>
+      <c r="H43">
+        <v>3.3983869011774108</v>
+      </c>
+      <c r="I43">
+        <v>0.87644325459899763</v>
+      </c>
+      <c r="J43">
+        <v>664.88003746243396</v>
+      </c>
+      <c r="K43">
+        <v>1006.6223055397328</v>
+      </c>
+      <c r="L43">
+        <v>5547.2899191041843</v>
+      </c>
+      <c r="M43">
+        <v>16339.874488697773</v>
+      </c>
+      <c r="N43">
+        <v>257364.33316816451</v>
+      </c>
+      <c r="O43">
+        <v>1920092.6662570601</v>
+      </c>
+      <c r="P43">
+        <v>1.7176640553654243</v>
+      </c>
+      <c r="Q43">
+        <v>3.9371751848304259</v>
+      </c>
+      <c r="R43">
+        <v>16.026531420788796</v>
+      </c>
+      <c r="S43">
+        <v>139.05136090481366</v>
+      </c>
+      <c r="T43">
+        <v>4221.2822872508423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>0.17794675907397492</v>
+      </c>
+      <c r="B44">
+        <v>1.4673987781576767</v>
+      </c>
+      <c r="C44">
+        <v>2.7670658429890569E-4</v>
+      </c>
+      <c r="D44">
+        <v>0.69665592150615818</v>
+      </c>
+      <c r="E44">
+        <v>2.6152037638732319</v>
+      </c>
+      <c r="F44">
+        <v>750.73694155473447</v>
+      </c>
+      <c r="G44">
+        <v>3206.4511447577838</v>
+      </c>
+      <c r="H44">
+        <v>3.3947517146171635</v>
+      </c>
+      <c r="I44">
+        <v>0.87707748055462054</v>
+      </c>
+      <c r="J44">
+        <v>520.7522689916957</v>
+      </c>
+      <c r="K44">
+        <v>1008.9619089613489</v>
+      </c>
+      <c r="L44">
+        <v>7891.790732185179</v>
+      </c>
+      <c r="M44">
+        <v>16309.625190448891</v>
+      </c>
+      <c r="N44">
+        <v>257698.77828445402</v>
+      </c>
+      <c r="O44">
+        <v>1923052.9048272597</v>
+      </c>
+      <c r="P44">
+        <v>1.0523252281804039</v>
+      </c>
+      <c r="Q44">
+        <v>3.950364609843946</v>
+      </c>
+      <c r="R44">
+        <v>32.386192186531801</v>
+      </c>
+      <c r="S44">
+        <v>138.32374199648919</v>
+      </c>
+      <c r="T44">
+        <v>4922.8546734033316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>0.13810565034590053</v>
+      </c>
+      <c r="B45">
+        <v>1.4703839661972853</v>
+      </c>
+      <c r="C45">
+        <v>3.2020799767316211E-4</v>
+      </c>
+      <c r="D45">
+        <v>0.50089103587862782</v>
+      </c>
+      <c r="E45">
+        <v>2.6296571889232254</v>
+      </c>
+      <c r="F45">
+        <v>1013.1492842288044</v>
+      </c>
+      <c r="G45">
+        <v>3189.9896317370735</v>
+      </c>
+      <c r="H45">
+        <v>3.3925116680783955</v>
+      </c>
+      <c r="I45">
+        <v>0.8774782568423336</v>
+      </c>
+      <c r="J45">
+        <v>442.22516073447395</v>
+      </c>
+      <c r="K45">
+        <v>1013.2611390542934</v>
+      </c>
+      <c r="L45">
+        <v>9206.7100055017199</v>
+      </c>
+      <c r="M45">
+        <v>16336.62644964283</v>
+      </c>
+      <c r="N45">
+        <v>257905.82669024103</v>
+      </c>
+      <c r="O45">
+        <v>1924855.224010519</v>
+      </c>
+      <c r="P45">
+        <v>0.75827326313768495</v>
+      </c>
+      <c r="Q45">
+        <v>3.9809032199599135</v>
+      </c>
+      <c r="R45">
+        <v>44.036303649267211</v>
+      </c>
+      <c r="S45">
+        <v>138.65217520053406</v>
+      </c>
+      <c r="T45">
+        <v>5112.8828529350267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0.11240493979820555</v>
+      </c>
+      <c r="B46">
+        <v>1.4727872211781059</v>
+      </c>
+      <c r="C46">
+        <v>3.561480698216814E-4</v>
+      </c>
+      <c r="D46">
+        <v>0.36883013404514858</v>
+      </c>
+      <c r="E46">
+        <v>2.638811870308758</v>
+      </c>
+      <c r="F46">
+        <v>1244.313565718249</v>
+      </c>
+      <c r="G46">
+        <v>3173.8537931492656</v>
+      </c>
+      <c r="H46">
+        <v>3.3907235792315782</v>
+      </c>
+      <c r="I46">
+        <v>0.87780187779992713</v>
+      </c>
+      <c r="J46">
+        <v>379.93235586634262</v>
+      </c>
+      <c r="K46">
+        <v>1016.2423676210545</v>
+      </c>
+      <c r="L46">
+        <v>10237.73632272786</v>
+      </c>
+      <c r="M46">
+        <v>16350.554301351502</v>
+      </c>
+      <c r="N46">
+        <v>258071.14756215995</v>
+      </c>
+      <c r="O46">
+        <v>1926285.1472091784</v>
+      </c>
+      <c r="P46">
+        <v>0.55933643259900212</v>
+      </c>
+      <c r="Q46">
+        <v>4.0017977968625678</v>
+      </c>
+      <c r="R46">
+        <v>54.411074687230482</v>
+      </c>
+      <c r="S46">
+        <v>138.7855927502581</v>
+      </c>
+      <c r="T46">
+        <v>5120.6612562036571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>8.4036323704782742E-2</v>
+      </c>
+      <c r="B47">
+        <v>1.4755063610376598</v>
+      </c>
+      <c r="C47">
+        <v>3.9968052974357737E-4</v>
+      </c>
+      <c r="D47">
+        <v>0.22431465792085983</v>
+      </c>
+      <c r="E47">
+        <v>2.6181437069399234</v>
+      </c>
+      <c r="F47">
+        <v>1560.22860761577</v>
+      </c>
+      <c r="G47">
+        <v>3118.8082240754779</v>
+      </c>
+      <c r="H47">
+        <v>3.3887167318607934</v>
+      </c>
+      <c r="I47">
+        <v>0.87816745309614219</v>
+      </c>
+      <c r="J47">
+        <v>296.69439495749015</v>
+      </c>
+      <c r="K47">
+        <v>1013.6248646687976</v>
+      </c>
+      <c r="L47">
+        <v>11507.758766001649</v>
+      </c>
+      <c r="M47">
+        <v>16270.127877988858</v>
+      </c>
+      <c r="N47">
+        <v>258256.33478331167</v>
+      </c>
+      <c r="O47">
+        <v>1927883.6048918718</v>
+      </c>
+      <c r="P47">
+        <v>0.34085345504903153</v>
+      </c>
+      <c r="Q47">
+        <v>3.9783549438851189</v>
+      </c>
+      <c r="R47">
+        <v>68.691134402751061</v>
+      </c>
+      <c r="S47">
+        <v>137.30966978214292</v>
+      </c>
+      <c r="T47">
+        <v>5465.6460503808821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>6.3273223321943073E-2</v>
+      </c>
+      <c r="B48">
+        <v>1.4781058010277344</v>
+      </c>
+      <c r="C48">
+        <v>4.3585033029245723E-4</v>
+      </c>
+      <c r="D48">
+        <v>0.13290845100528448</v>
+      </c>
+      <c r="E48">
+        <v>2.638055610601274</v>
+      </c>
+      <c r="F48">
+        <v>1872.8685533149244</v>
+      </c>
+      <c r="G48">
+        <v>3113.8394098431659</v>
+      </c>
+      <c r="H48">
+        <v>3.3868142375917896</v>
+      </c>
+      <c r="I48">
+        <v>0.8785148527377955</v>
+      </c>
+      <c r="J48">
+        <v>228.6734540658602</v>
+      </c>
+      <c r="K48">
+        <v>1018.782383458159</v>
+      </c>
+      <c r="L48">
+        <v>12654.011541581283</v>
+      </c>
+      <c r="M48">
+        <v>16316.337607467229</v>
+      </c>
+      <c r="N48">
+        <v>258431.1515114049</v>
+      </c>
+      <c r="O48">
+        <v>1929395.4183494567</v>
+      </c>
+      <c r="P48">
+        <v>0.20234228067549118</v>
+      </c>
+      <c r="Q48">
+        <v>4.0162245873786722</v>
+      </c>
+      <c r="R48">
+        <v>82.991804879195726</v>
+      </c>
+      <c r="S48">
+        <v>137.98253607785355</v>
+      </c>
+      <c r="T48">
+        <v>5598.5263868543989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>3.7800564046957703E-2</v>
+      </c>
+      <c r="B49">
+        <v>1.4797503014533124</v>
+      </c>
+      <c r="C49">
+        <v>4.8407213843019547E-4</v>
+      </c>
+      <c r="D49">
+        <v>4.5540202448268674E-2</v>
+      </c>
+      <c r="E49">
+        <v>2.6237231511820958</v>
+      </c>
+      <c r="F49">
+        <v>2321.1972263012976</v>
+      </c>
+      <c r="G49">
+        <v>3079.0643964595815</v>
+      </c>
+      <c r="H49">
+        <v>3.38561867685172</v>
+      </c>
+      <c r="I49">
+        <v>0.87873290816073235</v>
+      </c>
+      <c r="J49">
+        <v>133.96429699786577</v>
+      </c>
+      <c r="K49">
+        <v>1016.8352533100615</v>
+      </c>
+      <c r="L49">
+        <v>14119.705079586463</v>
+      </c>
+      <c r="M49">
+        <v>16262.188475693469</v>
+      </c>
+      <c r="N49">
+        <v>258540.46120066073</v>
+      </c>
+      <c r="O49">
+        <v>1930344.9685693816</v>
+      </c>
+      <c r="P49">
+        <v>6.9414407272228251E-2</v>
+      </c>
+      <c r="Q49">
+        <v>3.9991958224738187</v>
+      </c>
+      <c r="R49">
+        <v>103.28002236939756</v>
+      </c>
+      <c r="S49">
+        <v>137.00078396607697</v>
+      </c>
+      <c r="T49">
+        <v>5675.3112025342143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2.2180581769566575E-2</v>
+      </c>
+      <c r="B50">
+        <v>1.4799231344123469</v>
+      </c>
+      <c r="C50">
+        <v>5.1580738610579303E-4</v>
+      </c>
+      <c r="D50">
+        <v>1.3826983271040663E-2</v>
+      </c>
+      <c r="E50">
+        <v>2.6465996561160994</v>
+      </c>
+      <c r="F50">
+        <v>2671.5238099399708</v>
+      </c>
+      <c r="G50">
+        <v>3104.0266145176533</v>
+      </c>
+      <c r="H50">
+        <v>3.385493386175102</v>
+      </c>
+      <c r="I50">
+        <v>0.87875572888963949</v>
+      </c>
+      <c r="J50">
+        <v>73.823094939131735</v>
+      </c>
+      <c r="K50">
+        <v>1021.3454433043569</v>
+      </c>
+      <c r="L50">
+        <v>15151.427837658333</v>
+      </c>
+      <c r="M50">
+        <v>16331.901625588152</v>
+      </c>
+      <c r="N50">
+        <v>258551.8868223168</v>
+      </c>
+      <c r="O50">
+        <v>1930444.4921488955</v>
+      </c>
+      <c r="P50">
+        <v>2.1078358442370711E-2</v>
+      </c>
+      <c r="Q50">
+        <v>4.0345732045477174</v>
+      </c>
+      <c r="R50">
+        <v>118.91860473243871</v>
+      </c>
+      <c r="S50">
+        <v>138.17077455098143</v>
+      </c>
+      <c r="T50">
+        <v>5633.4222177895008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>1.0073977069020488</v>
+      </c>
+      <c r="B51">
+        <v>1.4593968325362969</v>
+      </c>
+      <c r="C51">
+        <v>7.1744085970149981E-5</v>
+      </c>
+      <c r="D51">
+        <v>2.6049711760024516</v>
+      </c>
+      <c r="E51">
+        <v>3.1887802454762646</v>
+      </c>
+      <c r="F51">
+        <v>37.212236062622978</v>
+      </c>
+      <c r="G51">
+        <v>4023.943717105657</v>
+      </c>
+      <c r="H51">
+        <v>3.4008641622164499</v>
+      </c>
+      <c r="I51">
+        <v>0.87602266564276354</v>
+      </c>
+      <c r="J51">
+        <v>1002.9331487077394</v>
+      </c>
+      <c r="K51">
+        <v>1109.6418305002767</v>
+      </c>
+      <c r="L51">
+        <v>1737.0130824774292</v>
+      </c>
+      <c r="M51">
+        <v>18062.844972544473</v>
+      </c>
+      <c r="N51">
+        <v>257138.23511450557</v>
+      </c>
+      <c r="O51">
+        <v>1918048.8960986331</v>
+      </c>
+      <c r="P51">
+        <v>3.9118060382148028</v>
+      </c>
+      <c r="Q51">
+        <v>4.7884943732607326</v>
+      </c>
+      <c r="R51">
+        <v>1.5730644066659831</v>
+      </c>
+      <c r="S51">
+        <v>170.10325918479472</v>
+      </c>
+      <c r="T51">
+        <v>2154.7472024477393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>0.62738178974950487</v>
+      </c>
+      <c r="B52">
+        <v>1.4603039232599628</v>
+      </c>
+      <c r="C52">
+        <v>1.0811026496151324E-4</v>
+      </c>
+      <c r="D52">
+        <v>2.2405327204260455</v>
+      </c>
+      <c r="E52">
+        <v>3.1862316358817804</v>
+      </c>
+      <c r="F52">
+        <v>104.44130404212824</v>
+      </c>
+      <c r="G52">
+        <v>4007.5540732928312</v>
+      </c>
+      <c r="H52">
+        <v>3.4001629906565478</v>
+      </c>
+      <c r="I52">
+        <v>0.87614092310617619</v>
+      </c>
+      <c r="J52">
+        <v>930.56211538006426</v>
+      </c>
+      <c r="K52">
+        <v>1109.707177733374</v>
+      </c>
+      <c r="L52">
+        <v>2913.8260194844879</v>
+      </c>
+      <c r="M52">
+        <v>18049.582868832349</v>
+      </c>
+      <c r="N52">
+        <v>257202.11896878292</v>
+      </c>
+      <c r="O52">
+        <v>1918629.2829673886</v>
+      </c>
+      <c r="P52">
+        <v>3.366791277041234</v>
+      </c>
+      <c r="Q52">
+        <v>4.7878688762374999</v>
+      </c>
+      <c r="R52">
+        <v>4.4252332366643694</v>
+      </c>
+      <c r="S52">
+        <v>169.80218358544857</v>
+      </c>
+      <c r="T52">
+        <v>3170.8786444979537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>0.44828419323206686</v>
+      </c>
+      <c r="B53">
+        <v>1.461552755641979</v>
+      </c>
+      <c r="C53">
+        <v>1.4314342929676863E-4</v>
+      </c>
+      <c r="D53">
+        <v>1.9035435824492615</v>
+      </c>
+      <c r="E53">
+        <v>3.1846885066706401</v>
+      </c>
+      <c r="F53">
+        <v>205.25576814324151</v>
+      </c>
+      <c r="G53">
+        <v>3987.5846988081039</v>
+      </c>
+      <c r="H53">
+        <v>3.3992010884325197</v>
+      </c>
+      <c r="I53">
+        <v>0.87630413894818027</v>
+      </c>
+      <c r="J53">
+        <v>858.27224917011029</v>
+      </c>
+      <c r="K53">
+        <v>1110.1384338214139</v>
+      </c>
+      <c r="L53">
+        <v>4092.1788119331541</v>
+      </c>
+      <c r="M53">
+        <v>18036.899171224781</v>
+      </c>
+      <c r="N53">
+        <v>257289.88652452509</v>
+      </c>
+      <c r="O53">
+        <v>1919423.0828223599</v>
+      </c>
+      <c r="P53">
+        <v>2.8630400659969335</v>
+      </c>
+      <c r="Q53">
+        <v>4.7899564141242985</v>
+      </c>
+      <c r="R53">
+        <v>8.7244587077753994</v>
+      </c>
+      <c r="S53">
+        <v>169.49349761625118</v>
+      </c>
+      <c r="T53">
+        <v>3725.215452333096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>0.33723733989537941</v>
+      </c>
+      <c r="B54">
+        <v>1.4635177044341547</v>
+      </c>
+      <c r="C54">
+        <v>1.7965802881340353E-4</v>
+      </c>
+      <c r="D54">
+        <v>1.5730420373282239</v>
+      </c>
+      <c r="E54">
+        <v>3.1709263551922424</v>
+      </c>
+      <c r="F54">
+        <v>344.63872149056209</v>
+      </c>
+      <c r="G54">
+        <v>3942.3377948779657</v>
+      </c>
+      <c r="H54">
+        <v>3.3976959070989809</v>
+      </c>
+      <c r="I54">
+        <v>0.87656206846716567</v>
+      </c>
+      <c r="J54">
+        <v>780.98772858315704</v>
+      </c>
+      <c r="K54">
+        <v>1108.8355046042354</v>
+      </c>
+      <c r="L54">
+        <v>5317.5515632577708</v>
+      </c>
+      <c r="M54">
+        <v>17984.840533201856</v>
+      </c>
+      <c r="N54">
+        <v>257427.65829373008</v>
+      </c>
+      <c r="O54">
+        <v>1920659.1651064097</v>
+      </c>
+      <c r="P54">
+        <v>2.3693717926048303</v>
+      </c>
+      <c r="Q54">
+        <v>4.7761619105746078</v>
+      </c>
+      <c r="R54">
+        <v>14.722213676229522</v>
+      </c>
+      <c r="S54">
+        <v>168.40806264904376</v>
+      </c>
+      <c r="T54">
+        <v>4047.4609475178854</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>0.25566235041953056</v>
+      </c>
+      <c r="B55">
+        <v>1.4672964557257158</v>
+      </c>
+      <c r="C55">
+        <v>2.1744418577569616E-4</v>
+      </c>
+      <c r="D55">
+        <v>1.239449454386141</v>
+      </c>
+      <c r="E55">
+        <v>3.1569193904177477</v>
+      </c>
+      <c r="F55">
+        <v>539.90353789212634</v>
+      </c>
+      <c r="G55">
+        <v>3872.0558686210011</v>
+      </c>
+      <c r="H55">
+        <v>3.3948288717438082</v>
+      </c>
+      <c r="I55">
+        <v>0.87706379241689225</v>
+      </c>
+      <c r="J55">
+        <v>694.56692831739701</v>
+      </c>
+      <c r="K55">
+        <v>1108.4891246406085</v>
+      </c>
+      <c r="L55">
+        <v>6691.5487496004835</v>
+      </c>
+      <c r="M55">
+        <v>17920.056188875245</v>
+      </c>
+      <c r="N55">
+        <v>257691.65415435191</v>
+      </c>
+      <c r="O55">
+        <v>1922990.5633919232</v>
+      </c>
+      <c r="P55">
+        <v>1.8720948472134169</v>
+      </c>
+      <c r="Q55">
+        <v>4.7682884549707145</v>
+      </c>
+      <c r="R55">
+        <v>23.284994487595863</v>
+      </c>
+      <c r="S55">
+        <v>166.99427440039764</v>
+      </c>
+      <c r="T55">
+        <v>4212.4328921572824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>0.20759863076546786</v>
+      </c>
+      <c r="B56">
+        <v>1.4692193239552258</v>
+      </c>
+      <c r="C56">
+        <v>2.5307258196483376E-4</v>
+      </c>
+      <c r="D56">
+        <v>1.0060108393391625</v>
+      </c>
+      <c r="E56">
+        <v>3.1688519782708759</v>
+      </c>
+      <c r="F56">
+        <v>735.65901961302643</v>
+      </c>
+      <c r="G56">
+        <v>3860.0736887664011</v>
+      </c>
+      <c r="H56">
+        <v>3.3933830861203362</v>
+      </c>
+      <c r="I56">
+        <v>0.87732162818195303</v>
+      </c>
+      <c r="J56">
+        <v>626.35408605259443</v>
+      </c>
+      <c r="K56">
+        <v>1111.6538116398685</v>
+      </c>
+      <c r="L56">
+        <v>7832.3276242759857</v>
+      </c>
+      <c r="M56">
+        <v>17941.153473767703</v>
+      </c>
+      <c r="N56">
+        <v>257825.24569255218</v>
+      </c>
+      <c r="O56">
+        <v>1924155.7319944759</v>
+      </c>
+      <c r="P56">
+        <v>1.5216486657889523</v>
+      </c>
+      <c r="Q56">
+        <v>4.7930690170157613</v>
+      </c>
+      <c r="R56">
+        <v>31.8817001108374</v>
+      </c>
+      <c r="S56">
+        <v>167.28634934119302</v>
+      </c>
+      <c r="T56">
+        <v>4807.3673882517323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>0.16728894602656927</v>
+      </c>
+      <c r="B57">
+        <v>1.472789755122542</v>
+      </c>
+      <c r="C57">
+        <v>2.8985052812861221E-4</v>
+      </c>
+      <c r="D57">
+        <v>0.77853988742125502</v>
+      </c>
+      <c r="E57">
+        <v>3.1731464775567146</v>
+      </c>
+      <c r="F57">
+        <v>972.02676493453669</v>
+      </c>
+      <c r="G57">
+        <v>3816.4950331205309</v>
+      </c>
+      <c r="H57">
+        <v>3.390721701049614</v>
+      </c>
+      <c r="I57">
+        <v>0.87780221900053457</v>
+      </c>
+      <c r="J57">
+        <v>551.9936287094888</v>
+      </c>
+      <c r="K57">
+        <v>1114.393810167237</v>
+      </c>
+      <c r="L57">
+        <v>9048.5644036164977</v>
+      </c>
+      <c r="M57">
+        <v>17929.695783797295</v>
+      </c>
+      <c r="N57">
+        <v>258071.32111515317</v>
+      </c>
+      <c r="O57">
+        <v>1926286.645925533</v>
+      </c>
+      <c r="P57">
+        <v>1.1806696103202847</v>
+      </c>
+      <c r="Q57">
+        <v>4.8121331683535633</v>
+      </c>
+      <c r="R57">
+        <v>42.504846274867852</v>
+      </c>
+      <c r="S57">
+        <v>166.88792998669115</v>
+      </c>
+      <c r="T57">
+        <v>5142.1748500531057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>0.13481649452182518</v>
+      </c>
+      <c r="B58">
+        <v>1.4758270466910182</v>
+      </c>
+      <c r="C58">
+        <v>3.2643218395693745E-4</v>
+      </c>
+      <c r="D58">
+        <v>0.57837424898181899</v>
+      </c>
+      <c r="E58">
+        <v>3.1637890508369146</v>
+      </c>
+      <c r="F58">
+        <v>1233.573369575377</v>
+      </c>
+      <c r="G58">
+        <v>3764.5276075490146</v>
+      </c>
+      <c r="H58">
+        <v>3.3884811829318355</v>
+      </c>
+      <c r="I58">
+        <v>0.87821045183330848</v>
+      </c>
+      <c r="J58">
+        <v>476.490328013848</v>
+      </c>
+      <c r="K58">
+        <v>1114.4314884613311</v>
+      </c>
+      <c r="L58">
+        <v>10237.033814022863</v>
+      </c>
+      <c r="M58">
+        <v>17883.268141513265</v>
+      </c>
+      <c r="N58">
+        <v>258278.02630927437</v>
+      </c>
+      <c r="O58">
+        <v>1928070.9118411213</v>
+      </c>
+      <c r="P58">
+        <v>0.87906445598617189</v>
+      </c>
+      <c r="Q58">
+        <v>4.8086070666614082</v>
+      </c>
+      <c r="R58">
+        <v>54.353219410056155</v>
+      </c>
+      <c r="S58">
+        <v>165.87111887698907</v>
+      </c>
+      <c r="T58">
+        <v>5378.3138860003328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0.10772855186167954</v>
+      </c>
+      <c r="B59">
+        <v>1.4791808583095727</v>
+      </c>
+      <c r="C59">
+        <v>3.6375122153641394E-4</v>
+      </c>
+      <c r="D59">
+        <v>0.40996372068321446</v>
+      </c>
+      <c r="E59">
+        <v>3.1653379846002272</v>
+      </c>
+      <c r="F59">
+        <v>1525.1305073140293</v>
+      </c>
+      <c r="G59">
+        <v>3722.1150111959673</v>
+      </c>
+      <c r="H59">
+        <v>3.3860319633681875</v>
+      </c>
+      <c r="I59">
+        <v>0.87865758353392442</v>
+      </c>
+      <c r="J59">
+        <v>401.83013554788204</v>
+      </c>
+      <c r="K59">
+        <v>1116.5542669695856</v>
+      </c>
+      <c r="L59">
+        <v>11436.123509831988</v>
+      </c>
+      <c r="M59">
+        <v>17865.707818056118</v>
+      </c>
+      <c r="N59">
+        <v>258502.730801436</v>
+      </c>
+      <c r="O59">
+        <v>1930016.7087268147</v>
+      </c>
+      <c r="P59">
+        <v>0.62462573348386574</v>
+      </c>
+      <c r="Q59">
+        <v>4.8227476252295869</v>
+      </c>
+      <c r="R59">
+        <v>67.76362108202035</v>
+      </c>
+      <c r="S59">
+        <v>165.37862827659617</v>
+      </c>
+      <c r="T59">
+        <v>5549.415047317264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>8.2471699010962671E-2</v>
+      </c>
+      <c r="B60">
+        <v>1.482482449372015</v>
+      </c>
+      <c r="C60">
+        <v>4.032729647938945E-4</v>
+      </c>
+      <c r="D60">
+        <v>0.25925904797171945</v>
+      </c>
+      <c r="E60">
+        <v>3.1629940853767615</v>
+      </c>
+      <c r="F60">
+        <v>1872.7289438231901</v>
+      </c>
+      <c r="G60">
+        <v>3676.5515477651543</v>
+      </c>
+      <c r="H60">
+        <v>3.3836463426020766</v>
+      </c>
+      <c r="I60">
+        <v>0.87909112452665361</v>
+      </c>
+      <c r="J60">
+        <v>320.06696168469546</v>
+      </c>
+      <c r="K60">
+        <v>1117.9517913150735</v>
+      </c>
+      <c r="L60">
+        <v>12730.777341426377</v>
+      </c>
+      <c r="M60">
+        <v>17837.656269607429</v>
+      </c>
+      <c r="N60">
+        <v>258719.58842476318</v>
+      </c>
+      <c r="O60">
+        <v>1931913.1615551151</v>
+      </c>
+      <c r="P60">
+        <v>0.39596097298161542</v>
+      </c>
+      <c r="Q60">
+        <v>4.830775339873556</v>
+      </c>
+      <c r="R60">
+        <v>83.892327534283709</v>
+      </c>
+      <c r="S60">
+        <v>164.69786920264113</v>
+      </c>
+      <c r="T60">
+        <v>5736.0280593889966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>6.0851622672254538E-2</v>
+      </c>
+      <c r="B61">
+        <v>1.4849696019205409</v>
+      </c>
+      <c r="C61">
+        <v>4.4109553419681598E-4</v>
+      </c>
+      <c r="D61">
+        <v>0.14487551638629051</v>
+      </c>
+      <c r="E61">
+        <v>3.1396700121226364</v>
+      </c>
+      <c r="F61">
+        <v>2230.5068140879907</v>
+      </c>
+      <c r="G61">
+        <v>3617.8835352332585</v>
+      </c>
+      <c r="H61">
+        <v>3.3818687567510808</v>
+      </c>
+      <c r="I61">
+        <v>0.87941263838333217</v>
+      </c>
+      <c r="J61">
+        <v>239.55126904742991</v>
+      </c>
+      <c r="K61">
+        <v>1115.1748846222235</v>
+      </c>
+      <c r="L61">
+        <v>13941.652417018351</v>
+      </c>
+      <c r="M61">
+        <v>17755.780393594883</v>
+      </c>
+      <c r="N61">
+        <v>258879.92723536066</v>
+      </c>
+      <c r="O61">
+        <v>1933332.9793555252</v>
+      </c>
+      <c r="P61">
+        <v>0.22166573946099249</v>
+      </c>
+      <c r="Q61">
+        <v>4.8038294686383987</v>
+      </c>
+      <c r="R61">
+        <v>100.53605570921704</v>
+      </c>
+      <c r="S61">
+        <v>163.06954919408798</v>
+      </c>
+      <c r="T61">
+        <v>5856.6233432459967</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>4.2163805142291171E-2</v>
+      </c>
+      <c r="B62">
+        <v>1.4873974081307859</v>
+      </c>
+      <c r="C62">
+        <v>4.7495378890154881E-4</v>
+      </c>
+      <c r="D62">
+        <v>6.762336397678767E-2</v>
+      </c>
+      <c r="E62">
+        <v>3.1244857753334014</v>
+      </c>
+      <c r="F62">
+        <v>2596.9308567346916</v>
+      </c>
+      <c r="G62">
+        <v>3570.0983217378675</v>
+      </c>
+      <c r="H62">
+        <v>3.3801492073725314</v>
+      </c>
+      <c r="I62">
+        <v>0.87972340453984166</v>
+      </c>
+      <c r="J62">
+        <v>163.85563166982536</v>
+      </c>
+      <c r="K62">
+        <v>1113.7873033170392</v>
+      </c>
+      <c r="L62">
+        <v>15093.747497342827</v>
+      </c>
+      <c r="M62">
+        <v>17697.29847291284</v>
+      </c>
+      <c r="N62">
+        <v>259034.21762714614</v>
+      </c>
+      <c r="O62">
+        <v>1934709.435575973</v>
+      </c>
+      <c r="P62">
+        <v>0.10364911738635027</v>
+      </c>
+      <c r="Q62">
+        <v>4.7890281384208855</v>
+      </c>
+      <c r="R62">
+        <v>117.75474359317388</v>
+      </c>
+      <c r="S62">
+        <v>161.88186581419316</v>
+      </c>
+      <c r="T62">
+        <v>5730.9088714036561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>2.2652167389626384E-2</v>
+      </c>
+      <c r="B63">
+        <v>1.488243141883254</v>
+      </c>
+      <c r="C63">
+        <v>5.1342678219127929E-4</v>
+      </c>
+      <c r="D63">
+        <v>1.68185599351857E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.1180221530276695</v>
+      </c>
+      <c r="F63">
+        <v>3049.6456034626217</v>
+      </c>
+      <c r="G63">
+        <v>3552.2685224523552</v>
+      </c>
+      <c r="H63">
+        <v>3.3795534521607009</v>
+      </c>
+      <c r="I63">
+        <v>0.8798311661679874</v>
+      </c>
+      <c r="J63">
+        <v>81.749520727603667</v>
+      </c>
+      <c r="K63">
+        <v>1113.0903299967842</v>
+      </c>
+      <c r="L63">
+        <v>16375.591199239787</v>
+      </c>
+      <c r="M63">
+        <v>17673.607063770189</v>
+      </c>
+      <c r="N63">
+        <v>259087.50395850174</v>
+      </c>
+      <c r="O63">
+        <v>1935186.1277053426</v>
+      </c>
+      <c r="P63">
+        <v>2.5794312875326169E-2</v>
+      </c>
+      <c r="Q63">
+        <v>4.7820526416850928</v>
+      </c>
+      <c r="R63">
+        <v>138.57064356005472</v>
+      </c>
+      <c r="S63">
+        <v>161.40896328919311</v>
+      </c>
+      <c r="T63">
+        <v>5595.2157028247184</v>
       </c>
     </row>
   </sheetData>

--- a/2phase_Consolidate_modified.xlsx
+++ b/2phase_Consolidate_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9084" tabRatio="714" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9084" tabRatio="714" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2phase_z2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
   <si>
     <t>W/m²K</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4646,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -8690,3917 +8690,4041 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>0.29312541616449567</v>
-      </c>
-      <c r="B1">
-        <v>1.4550665789805801</v>
-      </c>
-      <c r="C1">
-        <v>1.9498698409989781E-4</v>
-      </c>
-      <c r="D1">
-        <v>0.18905368018871868</v>
-      </c>
-      <c r="E1">
-        <v>0.42277962359749671</v>
-      </c>
-      <c r="F1">
-        <v>59.483755886646058</v>
-      </c>
-      <c r="G1">
-        <v>541.966633916771</v>
-      </c>
-      <c r="H1">
-        <v>3.4042388214220831</v>
-      </c>
-      <c r="I1">
-        <v>0.87546056972078345</v>
-      </c>
-      <c r="J1">
-        <v>269.59326273735377</v>
-      </c>
-      <c r="K1">
-        <v>403.15633706077745</v>
-      </c>
-      <c r="L1">
-        <v>2182.4210817746707</v>
-      </c>
-      <c r="M1">
-        <v>6587.5758978257536</v>
-      </c>
-      <c r="N1">
-        <v>256831.1009872494</v>
-      </c>
-      <c r="O1">
-        <v>1915237.5362639483</v>
-      </c>
-      <c r="P1">
-        <v>0.28298958745257313</v>
-      </c>
-      <c r="Q1">
-        <v>0.63284793581261956</v>
-      </c>
-      <c r="R1">
-        <v>2.4868778352504664</v>
-      </c>
-      <c r="S1">
-        <v>22.658367637398971</v>
-      </c>
-      <c r="T1">
-        <v>3209.3886075123287</v>
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0.15648701556235417</v>
-      </c>
-      <c r="B2">
-        <v>1.4545431446533021</v>
-      </c>
-      <c r="C2">
-        <v>2.9460919388783557E-4</v>
-      </c>
-      <c r="D2">
-        <v>9.7044642338694087E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.42188254401954639</v>
-      </c>
-      <c r="F2">
-        <v>146.73494969959086</v>
-      </c>
-      <c r="G2">
-        <v>541.84984422018294</v>
-      </c>
-      <c r="H2">
-        <v>3.4046496633933527</v>
-      </c>
-      <c r="I2">
-        <v>0.87539279923123459</v>
-      </c>
-      <c r="J2">
-        <v>193.10188781572117</v>
-      </c>
-      <c r="K2">
-        <v>402.62108587160293</v>
-      </c>
-      <c r="L2">
-        <v>3425.1202700751987</v>
-      </c>
-      <c r="M2">
-        <v>6581.8581551209872</v>
-      </c>
-      <c r="N2">
-        <v>256793.67073606697</v>
-      </c>
-      <c r="O2">
-        <v>1914893.489960467</v>
-      </c>
-      <c r="P2">
-        <v>0.14520739148715386</v>
-      </c>
-      <c r="Q2">
-        <v>0.63126064721057407</v>
-      </c>
-      <c r="R2">
-        <v>6.1264237024076982</v>
-      </c>
-      <c r="S2">
-        <v>22.623115594291875</v>
-      </c>
-      <c r="T2">
-        <v>3751.6911279481146</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>8.3085170300795944E-2</v>
+        <v>0.293125416164496</v>
       </c>
       <c r="B3">
-        <v>1.4543866062903115</v>
+        <v>1.4550665789805801</v>
       </c>
       <c r="C3">
-        <v>3.9314768582728374E-4</v>
+        <v>1.9498698409989781E-4</v>
       </c>
       <c r="D3">
-        <v>3.69455350424319E-2</v>
+        <v>0.18905368018871868</v>
       </c>
       <c r="E3">
-        <v>0.42548639433829288</v>
+        <v>0.42277962359749671</v>
       </c>
       <c r="F3">
-        <v>272.02195489855814</v>
+        <v>59.483755886646058</v>
       </c>
       <c r="G3">
-        <v>546.79067385044152</v>
+        <v>541.966633916771</v>
       </c>
       <c r="H3">
-        <v>3.4047726464032944</v>
+        <v>3.4042388214220831</v>
       </c>
       <c r="I3">
-        <v>0.87537253546825777</v>
+        <v>0.87546056972078345</v>
       </c>
       <c r="J3">
-        <v>119.1371177193097</v>
+        <v>269.59326273735377</v>
       </c>
       <c r="K3">
-        <v>404.30484663247415</v>
+        <v>403.15633706077745</v>
       </c>
       <c r="L3">
-        <v>4662.4284255269531</v>
+        <v>2182.4210817746707</v>
       </c>
       <c r="M3">
-        <v>6610.293586521394</v>
+        <v>6587.5758978257536</v>
       </c>
       <c r="N3">
-        <v>256782.46182531284</v>
+        <v>256831.1009872494</v>
       </c>
       <c r="O3">
-        <v>1914790.4356863115</v>
+        <v>1915237.5362639483</v>
       </c>
       <c r="P3">
-        <v>5.5275008727506056E-2</v>
+        <v>0.28298958745257313</v>
       </c>
       <c r="Q3">
-        <v>0.63657933586488746</v>
+        <v>0.63284793581261956</v>
       </c>
       <c r="R3">
-        <v>11.352803115172332</v>
+        <v>2.4868778352504664</v>
       </c>
       <c r="S3">
-        <v>22.820242093147954</v>
+        <v>22.658367637398971</v>
       </c>
       <c r="T3">
-        <v>3829.4821407740833</v>
+        <v>3209.3886075123287</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3.0590494570567738E-2</v>
+        <v>0.15648701556235417</v>
       </c>
       <c r="B4">
-        <v>1.4538619296110247</v>
+        <v>1.4545431446533021</v>
       </c>
       <c r="C4">
-        <v>4.9239180106719956E-4</v>
+        <v>2.9460919388783557E-4</v>
       </c>
       <c r="D4">
-        <v>4.8200797641554504E-3</v>
+        <v>9.7044642338694087E-2</v>
       </c>
       <c r="E4">
-        <v>0.42056655443333169</v>
+        <v>0.42188254401954639</v>
       </c>
       <c r="F4">
-        <v>431.76822328755941</v>
+        <v>146.73494969959086</v>
       </c>
       <c r="G4">
-        <v>541.50432045533171</v>
+        <v>541.84984422018294</v>
       </c>
       <c r="H4">
-        <v>3.4051852406627385</v>
+        <v>3.4046496633933527</v>
       </c>
       <c r="I4">
-        <v>0.8753046259322802</v>
+        <v>0.87539279923123459</v>
       </c>
       <c r="J4">
-        <v>43.020662026021988</v>
+        <v>193.10188781572117</v>
       </c>
       <c r="K4">
-        <v>401.8531184917826</v>
+        <v>402.62108587160293</v>
       </c>
       <c r="L4">
-        <v>5869.5396808223468</v>
+        <v>3425.1202700751987</v>
       </c>
       <c r="M4">
-        <v>6573.2426996184677</v>
+        <v>6581.8581551209872</v>
       </c>
       <c r="N4">
-        <v>256744.84016414566</v>
+        <v>256793.67073606697</v>
       </c>
       <c r="O4">
-        <v>1914444.4847016167</v>
+        <v>1914893.489960467</v>
       </c>
       <c r="P4">
-        <v>7.2086253416970159E-3</v>
+        <v>0.14520739148715386</v>
       </c>
       <c r="Q4">
-        <v>0.62897438849531417</v>
+        <v>0.63126064721057407</v>
       </c>
       <c r="R4">
-        <v>17.995557635675013</v>
+        <v>6.1264237024076982</v>
       </c>
       <c r="S4">
-        <v>22.569220436194446</v>
+        <v>22.623115594291875</v>
       </c>
       <c r="T4">
-        <v>3430.667752511295</v>
+        <v>3751.6911279481146</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>0.49311442304024938</v>
+        <v>8.3085170300795944E-2</v>
       </c>
       <c r="B5">
-        <v>1.4561191780315883</v>
+        <v>1.4543866062903115</v>
       </c>
       <c r="C5">
-        <v>1.3135969178568597E-4</v>
+        <v>3.9314768582728374E-4</v>
       </c>
       <c r="D5">
-        <v>0.59833088390281641</v>
+        <v>3.69455350424319E-2</v>
       </c>
       <c r="E5">
-        <v>0.94825026585301353</v>
+        <v>0.42548639433829288</v>
       </c>
       <c r="F5">
-        <v>51.214720359316615</v>
+        <v>272.02195489855814</v>
       </c>
       <c r="G5">
-        <v>1210.9234882035867</v>
+        <v>546.79067385044152</v>
       </c>
       <c r="H5">
-        <v>3.4034144873457666</v>
+        <v>3.4047726464032944</v>
       </c>
       <c r="I5">
-        <v>0.87559692986932869</v>
+        <v>0.87537253546825777</v>
       </c>
       <c r="J5">
-        <v>479.86560053607053</v>
+        <v>119.1371177193097</v>
       </c>
       <c r="K5">
-        <v>604.10216865482494</v>
+        <v>404.30484663247415</v>
       </c>
       <c r="L5">
-        <v>2028.1500466539635</v>
+        <v>4662.4284255269531</v>
       </c>
       <c r="M5">
-        <v>9861.9099037724427</v>
+        <v>6610.293586521394</v>
       </c>
       <c r="N5">
-        <v>256906.14951548132</v>
+        <v>256782.46182531284</v>
       </c>
       <c r="O5">
-        <v>1915926.7742767003</v>
+        <v>1914790.4356863115</v>
       </c>
       <c r="P5">
-        <v>0.89632340452779757</v>
+        <v>5.5275008727506056E-2</v>
       </c>
       <c r="Q5">
-        <v>1.4205165227135645</v>
+        <v>0.63657933586488746</v>
       </c>
       <c r="R5">
-        <v>2.1469466719548089</v>
+        <v>11.352803115172332</v>
       </c>
       <c r="S5">
-        <v>50.76251778298861</v>
+        <v>22.820242093147954</v>
       </c>
       <c r="T5">
-        <v>2805.3208897045865</v>
+        <v>3829.4821407740833</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>0.29860093442522634</v>
+        <v>3.0590494570567738E-2</v>
       </c>
       <c r="B6">
-        <v>1.4558005706243848</v>
+        <v>1.4538619296110247</v>
       </c>
       <c r="C6">
-        <v>1.9629082205137091E-4</v>
+        <v>4.9239180106719956E-4</v>
       </c>
       <c r="D6">
-        <v>0.43143894871843969</v>
+        <v>4.8200797641554504E-3</v>
       </c>
       <c r="E6">
-        <v>0.95077844277393353</v>
+        <v>0.42056655443333169</v>
       </c>
       <c r="F6">
-        <v>129.48007605893045</v>
+        <v>431.76822328755941</v>
       </c>
       <c r="G6">
-        <v>1215.5607472059214</v>
+        <v>541.50432045533171</v>
       </c>
       <c r="H6">
-        <v>3.403663738406753</v>
+        <v>3.4051852406627385</v>
       </c>
       <c r="I6">
-        <v>0.87555564261006269</v>
+        <v>0.8753046259322802</v>
       </c>
       <c r="J6">
-        <v>407.41617284919607</v>
+        <v>43.020662026021988</v>
       </c>
       <c r="K6">
-        <v>604.80901154755691</v>
+        <v>401.8531184917826</v>
       </c>
       <c r="L6">
-        <v>3223.3206003486462</v>
+        <v>5869.5396808223468</v>
       </c>
       <c r="M6">
-        <v>9876.2111080270497</v>
+        <v>6573.2426996184677</v>
       </c>
       <c r="N6">
-        <v>256883.46335693955</v>
+        <v>256744.84016414566</v>
       </c>
       <c r="O6">
-        <v>1915718.5278833166</v>
+        <v>1914444.4847016167</v>
       </c>
       <c r="P6">
-        <v>0.64616046408735073</v>
+        <v>7.2086253416970159E-3</v>
       </c>
       <c r="Q6">
-        <v>1.4239684239263863</v>
+        <v>0.62897438849531417</v>
       </c>
       <c r="R6">
-        <v>5.4234458462494874</v>
+        <v>17.995557635675013</v>
       </c>
       <c r="S6">
-        <v>50.915384713686841</v>
+        <v>22.569220436194446</v>
       </c>
       <c r="T6">
-        <v>3252.2266105164836</v>
+        <v>3430.667752511295</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>0.19211656048329251</v>
+        <v>0.49311442304024938</v>
       </c>
       <c r="B7">
-        <v>1.4564149361638947</v>
+        <v>1.4561191780315883</v>
       </c>
       <c r="C7">
-        <v>2.6291431143419158E-4</v>
+        <v>1.3135969178568597E-4</v>
       </c>
       <c r="D7">
-        <v>0.28006608069209993</v>
+        <v>0.59833088390281641</v>
       </c>
       <c r="E7">
-        <v>0.94963910773293558</v>
+        <v>0.94825026585301353</v>
       </c>
       <c r="F7">
-        <v>252.92742948233285</v>
+        <v>51.214720359316615</v>
       </c>
       <c r="G7">
-        <v>1211.392982366546</v>
+        <v>1210.9234882035867</v>
       </c>
       <c r="H7">
-        <v>3.4031833190782015</v>
+        <v>3.4034144873457666</v>
       </c>
       <c r="I7">
-        <v>0.87563526785807033</v>
+        <v>0.87559692986932869</v>
       </c>
       <c r="J7">
-        <v>328.35558742133179</v>
+        <v>479.86560053607053</v>
       </c>
       <c r="K7">
-        <v>604.63523156592714</v>
+        <v>604.10216865482494</v>
       </c>
       <c r="L7">
-        <v>4509.0681666851806</v>
+        <v>2028.1500466539635</v>
       </c>
       <c r="M7">
-        <v>9868.0504803436452</v>
+        <v>9861.9099037724427</v>
       </c>
       <c r="N7">
-        <v>256927.18643343376</v>
+        <v>256906.14951548132</v>
       </c>
       <c r="O7">
-        <v>1916119.7875782449</v>
+        <v>1915926.7742767003</v>
       </c>
       <c r="P7">
-        <v>0.41964181870937134</v>
+        <v>0.89632340452779757</v>
       </c>
       <c r="Q7">
-        <v>1.422908055491044</v>
+        <v>1.4205165227135645</v>
       </c>
       <c r="R7">
-        <v>10.610868831697928</v>
+        <v>2.1469466719548089</v>
       </c>
       <c r="S7">
-        <v>50.820632882083821</v>
+        <v>50.76251778298861</v>
       </c>
       <c r="T7">
-        <v>3659.4254670189885</v>
+        <v>2805.3208897045865</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>0.1274450783777285</v>
+        <v>0.29860093442522634</v>
       </c>
       <c r="B8">
-        <v>1.45696380837029</v>
+        <v>1.4558005706243848</v>
       </c>
       <c r="C8">
-        <v>3.287059350113678E-4</v>
+        <v>1.9629082205137091E-4</v>
       </c>
       <c r="D8">
-        <v>0.16473236795605112</v>
+        <v>0.43143894871843969</v>
       </c>
       <c r="E8">
-        <v>0.95384514200517367</v>
+        <v>0.95077844277393353</v>
       </c>
       <c r="F8">
-        <v>414.75699741345761</v>
+        <v>129.48007605893045</v>
       </c>
       <c r="G8">
-        <v>1214.3328538067317</v>
+        <v>1215.5607472059214</v>
       </c>
       <c r="H8">
-        <v>3.4027548487905772</v>
+        <v>3.403663738406753</v>
       </c>
       <c r="I8">
-        <v>0.8757064495335064</v>
+        <v>0.87555564261006269</v>
       </c>
       <c r="J8">
-        <v>251.89795136491466</v>
+        <v>407.41617284919607</v>
       </c>
       <c r="K8">
-        <v>606.14161382301893</v>
+        <v>604.80901154755691</v>
       </c>
       <c r="L8">
-        <v>5778.7101190204785</v>
+        <v>3223.3206003486462</v>
       </c>
       <c r="M8">
-        <v>9887.873936976197</v>
+        <v>9876.2111080270497</v>
       </c>
       <c r="N8">
-        <v>256966.17249098691</v>
+        <v>256883.46335693955</v>
       </c>
       <c r="O8">
-        <v>1916477.2100137642</v>
+        <v>1915718.5278833166</v>
       </c>
       <c r="P8">
-        <v>0.24692969228884207</v>
+        <v>0.64616046408735073</v>
       </c>
       <c r="Q8">
-        <v>1.4297899698095891</v>
+        <v>1.4239684239263863</v>
       </c>
       <c r="R8">
-        <v>17.424413118604129</v>
+        <v>5.4234458462494874</v>
       </c>
       <c r="S8">
-        <v>51.015504114881168</v>
+        <v>50.915384713686841</v>
       </c>
       <c r="T8">
-        <v>4073.925594702705</v>
+        <v>3252.2266105164836</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8.2553456111617726E-2</v>
+        <v>0.19211656048329251</v>
       </c>
       <c r="B9">
-        <v>1.4578124202353229</v>
+        <v>1.4564149361638947</v>
       </c>
       <c r="C9">
-        <v>3.9403332213722538E-4</v>
+        <v>2.6291431143419158E-4</v>
       </c>
       <c r="D9">
-        <v>8.1114873360402504E-2</v>
+        <v>0.28006608069209993</v>
       </c>
       <c r="E9">
-        <v>0.95003636676228553</v>
+        <v>0.94963910773293558</v>
       </c>
       <c r="F9">
-        <v>604.06393122829138</v>
+        <v>252.92742948233285</v>
       </c>
       <c r="G9">
-        <v>1205.7623601535699</v>
+        <v>1211.392982366546</v>
       </c>
       <c r="H9">
-        <v>3.4020937805386278</v>
+        <v>3.4031833190782015</v>
       </c>
       <c r="I9">
-        <v>0.87581660281098828</v>
+        <v>0.87563526785807033</v>
       </c>
       <c r="J9">
-        <v>176.83667000048629</v>
+        <v>328.35558742133179</v>
       </c>
       <c r="K9">
-        <v>605.19063085462983</v>
+        <v>604.63523156592714</v>
       </c>
       <c r="L9">
-        <v>6982.4617847677982</v>
+        <v>4509.0681666851806</v>
       </c>
       <c r="M9">
-        <v>9865.0201436583538</v>
+        <v>9868.0504803436452</v>
       </c>
       <c r="N9">
-        <v>257026.31778556353</v>
+        <v>256927.18643343376</v>
       </c>
       <c r="O9">
-        <v>1917027.7922164442</v>
+        <v>1916119.7875782449</v>
       </c>
       <c r="P9">
-        <v>0.12166539258034419</v>
+        <v>0.41964181870937134</v>
       </c>
       <c r="Q9">
-        <v>1.4249735312311136</v>
+        <v>1.422908055491044</v>
       </c>
       <c r="R9">
-        <v>25.432480829802177</v>
+        <v>10.610868831697928</v>
       </c>
       <c r="S9">
-        <v>50.765368572078181</v>
+        <v>50.820632882083821</v>
       </c>
       <c r="T9">
-        <v>4004.0012046855545</v>
+        <v>3659.4254670189885</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>4.8914802611723388E-2</v>
+        <v>0.1274450783777285</v>
       </c>
       <c r="B10">
-        <v>1.4583650213861195</v>
+        <v>1.45696380837029</v>
       </c>
       <c r="C10">
-        <v>4.5694207688299932E-4</v>
+        <v>3.287059350113678E-4</v>
       </c>
       <c r="D10">
-        <v>2.9672570209001849E-2</v>
+        <v>0.16473236795605112</v>
       </c>
       <c r="E10">
-        <v>0.95142704678520273</v>
+        <v>0.95384514200517367</v>
       </c>
       <c r="F10">
-        <v>817.04973083341497</v>
+        <v>414.75699741345761</v>
       </c>
       <c r="G10">
-        <v>1205.1091830674266</v>
+        <v>1214.3328538067317</v>
       </c>
       <c r="H10">
-        <v>3.4016642278924927</v>
+        <v>3.4027548487905772</v>
       </c>
       <c r="I10">
-        <v>0.87588840762774611</v>
+        <v>0.8757064495335064</v>
       </c>
       <c r="J10">
-        <v>106.9846004205877</v>
+        <v>251.89795136491466</v>
       </c>
       <c r="K10">
-        <v>605.80301790324938</v>
+        <v>606.14161382301893</v>
       </c>
       <c r="L10">
-        <v>8127.1457364742209</v>
+        <v>5778.7101190204785</v>
       </c>
       <c r="M10">
-        <v>9870.2237959502418</v>
+        <v>9887.873936976197</v>
       </c>
       <c r="N10">
-        <v>257065.40411427958</v>
+        <v>256966.17249098691</v>
       </c>
       <c r="O10">
-        <v>1917384.9610308465</v>
+        <v>1916477.2100137642</v>
       </c>
       <c r="P10">
-        <v>4.4524484990849156E-2</v>
+        <v>0.24692969228884207</v>
       </c>
       <c r="Q10">
-        <v>1.4276417231839351</v>
+        <v>1.4297899698095891</v>
       </c>
       <c r="R10">
-        <v>34.44821940523633</v>
+        <v>17.424413118604129</v>
       </c>
       <c r="S10">
-        <v>50.809472151990619</v>
+        <v>51.015504114881168</v>
       </c>
       <c r="T10">
-        <v>4121.7806322487104</v>
+        <v>4073.925594702705</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1.4277920339531767E-2</v>
+        <v>8.2553456111617726E-2</v>
       </c>
       <c r="B11">
-        <v>1.4580628780682028</v>
+        <v>1.4578124202353229</v>
       </c>
       <c r="C11">
-        <v>5.2801805395316095E-4</v>
+        <v>3.9403332213722538E-4</v>
       </c>
       <c r="D11">
-        <v>1.8278381692744159E-3</v>
+        <v>8.1114873360402504E-2</v>
       </c>
       <c r="E11">
-        <v>0.94386721368523518</v>
+        <v>0.95003636676228553</v>
       </c>
       <c r="F11">
-        <v>1093.8251710045743</v>
+        <v>604.06393122829138</v>
       </c>
       <c r="G11">
-        <v>1196.8444782492111</v>
+        <v>1205.7623601535699</v>
       </c>
       <c r="H11">
-        <v>3.4018990014100003</v>
+        <v>3.4020937805386278</v>
       </c>
       <c r="I11">
-        <v>0.87584913934062825</v>
+        <v>0.87581660281098828</v>
       </c>
       <c r="J11">
-        <v>26.548872272981459</v>
+        <v>176.83667000048629</v>
       </c>
       <c r="K11">
-        <v>603.29907212624983</v>
+        <v>605.19063085462983</v>
       </c>
       <c r="L11">
-        <v>9399.3591612933978</v>
+        <v>6982.4617847677982</v>
       </c>
       <c r="M11">
-        <v>9832.0289477703573</v>
+        <v>9865.0201436583538</v>
       </c>
       <c r="N11">
-        <v>257044.04044678734</v>
+        <v>257026.31778556353</v>
       </c>
       <c r="O11">
-        <v>1917189.8083472061</v>
+        <v>1917027.7922164442</v>
       </c>
       <c r="P11">
-        <v>2.7421083863370041E-3</v>
+        <v>0.12166539258034419</v>
       </c>
       <c r="Q11">
-        <v>1.4159821398533539</v>
+        <v>1.4249735312311136</v>
       </c>
       <c r="R11">
-        <v>46.082006204254853</v>
+        <v>25.432480829802177</v>
       </c>
       <c r="S11">
-        <v>50.422129728058408</v>
+        <v>50.765368572078181</v>
       </c>
       <c r="T11">
-        <v>3694.9999171173249</v>
+        <v>4004.0012046855545</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>0.58358258686997144</v>
+        <v>4.8914802611723388E-2</v>
       </c>
       <c r="B12">
-        <v>1.4568643235788898</v>
+        <v>1.4583650213861195</v>
       </c>
       <c r="C12">
-        <v>1.1326457569773772E-4</v>
+        <v>4.5694207688299932E-4</v>
       </c>
       <c r="D12">
-        <v>0.88689818909649487</v>
+        <v>2.9672570209001849E-2</v>
       </c>
       <c r="E12">
-        <v>1.2983364577136607</v>
+        <v>0.95142704678520273</v>
       </c>
       <c r="F12">
-        <v>49.773627106458811</v>
+        <v>817.04973083341497</v>
       </c>
       <c r="G12">
-        <v>1653.4997827382174</v>
+        <v>1205.1091830674266</v>
       </c>
       <c r="H12">
-        <v>3.4028324584025627</v>
+        <v>3.4016642278924927</v>
       </c>
       <c r="I12">
-        <v>0.87569354417939493</v>
+        <v>0.87588840762774611</v>
       </c>
       <c r="J12">
-        <v>584.45371325425106</v>
+        <v>106.9846004205877</v>
       </c>
       <c r="K12">
-        <v>707.14237749810445</v>
+        <v>605.80301790324938</v>
       </c>
       <c r="L12">
-        <v>2001.5716794340015</v>
+        <v>8127.1457364742209</v>
       </c>
       <c r="M12">
-        <v>11536.486804637649</v>
+        <v>9870.2237959502418</v>
       </c>
       <c r="N12">
-        <v>256959.11126760195</v>
+        <v>257065.40411427958</v>
       </c>
       <c r="O12">
-        <v>1916412.5015668888</v>
+        <v>1917384.9610308465</v>
       </c>
       <c r="P12">
-        <v>1.3293404590777411</v>
+        <v>4.4524484990849156E-2</v>
       </c>
       <c r="Q12">
-        <v>1.9460307890499746</v>
+        <v>1.4276417231839351</v>
       </c>
       <c r="R12">
-        <v>2.0905150559374062</v>
+        <v>34.44821940523633</v>
       </c>
       <c r="S12">
-        <v>69.447745558308398</v>
+        <v>50.809472151990619</v>
       </c>
       <c r="T12">
-        <v>2645.5969464116374</v>
+        <v>4121.7806322487104</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>0.36030056690926326</v>
+        <v>1.4277920339531767E-2</v>
       </c>
       <c r="B13">
-        <v>1.4567295604942883</v>
+        <v>1.4580628780682028</v>
       </c>
       <c r="C13">
-        <v>1.691571479175535E-4</v>
+        <v>5.2801805395316095E-4</v>
       </c>
       <c r="D13">
-        <v>0.67388795058035755</v>
+        <v>1.8278381692744159E-3</v>
       </c>
       <c r="E13">
-        <v>1.2899018274945058</v>
+        <v>0.94386721368523518</v>
       </c>
       <c r="F13">
-        <v>126.29508132674349</v>
+        <v>1093.8251710045743</v>
       </c>
       <c r="G13">
-        <v>1643.5627256717919</v>
+        <v>1196.8444782492111</v>
       </c>
       <c r="H13">
-        <v>3.4029376259449915</v>
+        <v>3.4018990014100003</v>
       </c>
       <c r="I13">
-        <v>0.87567606496513095</v>
+        <v>0.87584913934062825</v>
       </c>
       <c r="J13">
-        <v>509.42162481101064</v>
+        <v>26.548872272981459</v>
       </c>
       <c r="K13">
-        <v>704.79345144858075</v>
+        <v>603.29907212624983</v>
       </c>
       <c r="L13">
-        <v>3187.718612351076</v>
+        <v>9399.3591612933978</v>
       </c>
       <c r="M13">
-        <v>11499.524991459322</v>
+        <v>9832.0289477703573</v>
       </c>
       <c r="N13">
-        <v>256949.54249068984</v>
+        <v>257044.04044678734</v>
       </c>
       <c r="O13">
-        <v>1916324.7933300498</v>
+        <v>1917189.8083472061</v>
       </c>
       <c r="P13">
-        <v>1.0099663510180916</v>
+        <v>2.7421083863370041E-3</v>
       </c>
       <c r="Q13">
-        <v>1.9331959278456441</v>
+        <v>1.4159821398533539</v>
       </c>
       <c r="R13">
-        <v>5.302624057726387</v>
+        <v>46.082006204254853</v>
       </c>
       <c r="S13">
-        <v>69.006608634125172</v>
+        <v>50.422129728058408</v>
       </c>
       <c r="T13">
-        <v>3285.9673058869994</v>
+        <v>3694.9999171173249</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>0.2444452862008728</v>
+        <v>0.58358258686997144</v>
       </c>
       <c r="B14">
-        <v>1.4571785877166459</v>
+        <v>1.4568643235788898</v>
       </c>
       <c r="C14">
-        <v>2.2382528261983986E-4</v>
+        <v>1.1326457569773772E-4</v>
       </c>
       <c r="D14">
-        <v>0.49122096795960735</v>
+        <v>0.88689818909649487</v>
       </c>
       <c r="E14">
-        <v>1.2942186587095559</v>
+        <v>1.2983364577136607</v>
       </c>
       <c r="F14">
-        <v>242.67111903523298</v>
+        <v>49.773627106458811</v>
       </c>
       <c r="G14">
-        <v>1646.3744817418742</v>
+        <v>1653.4997827382174</v>
       </c>
       <c r="H14">
-        <v>3.4025873751157083</v>
+        <v>3.4028324584025627</v>
       </c>
       <c r="I14">
-        <v>0.87573431667750201</v>
+        <v>0.87569354417939493</v>
       </c>
       <c r="J14">
-        <v>435.03173648513098</v>
+        <v>584.45371325425106</v>
       </c>
       <c r="K14">
-        <v>706.13269574441483</v>
+        <v>707.14237749810445</v>
       </c>
       <c r="L14">
-        <v>4421.5861160920476</v>
+        <v>2001.5716794340015</v>
       </c>
       <c r="M14">
-        <v>11516.840560626804</v>
+        <v>11536.486804637649</v>
       </c>
       <c r="N14">
-        <v>256981.40956855961</v>
+        <v>256959.11126760195</v>
       </c>
       <c r="O14">
-        <v>1916616.7949547397</v>
+        <v>1916412.5015668888</v>
       </c>
       <c r="P14">
-        <v>0.7364447571013033</v>
+        <v>1.3293404590777411</v>
       </c>
       <c r="Q14">
-        <v>1.9403091641391572</v>
+        <v>1.9460307890499746</v>
       </c>
       <c r="R14">
-        <v>10.200486520561682</v>
+        <v>2.0905150559374062</v>
       </c>
       <c r="S14">
-        <v>69.204035385712501</v>
+        <v>69.447745558308398</v>
       </c>
       <c r="T14">
-        <v>3704.7313370977922</v>
+        <v>2645.5969464116374</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>0.17137575764517646</v>
+        <v>0.36030056690926326</v>
       </c>
       <c r="B15">
-        <v>1.4582063446949394</v>
+        <v>1.4567295604942883</v>
       </c>
       <c r="C15">
-        <v>2.8334085001749517E-4</v>
+        <v>1.691571479175535E-4</v>
       </c>
       <c r="D15">
-        <v>0.33269772936169312</v>
+        <v>0.67388795058035755</v>
       </c>
       <c r="E15">
-        <v>1.2944961792093024</v>
+        <v>1.2899018274945058</v>
       </c>
       <c r="F15">
-        <v>398.80828518771756</v>
+        <v>126.29508132674349</v>
       </c>
       <c r="G15">
-        <v>1640.595763352698</v>
+        <v>1643.5627256717919</v>
       </c>
       <c r="H15">
-        <v>3.4017874964667918</v>
+        <v>3.4029376259449915</v>
       </c>
       <c r="I15">
-        <v>0.87586778265957588</v>
+        <v>0.87567606496513095</v>
       </c>
       <c r="J15">
-        <v>358.20669176056765</v>
+        <v>509.42162481101064</v>
       </c>
       <c r="K15">
-        <v>706.57645712647877</v>
+        <v>704.79345144858075</v>
       </c>
       <c r="L15">
-        <v>5676.7056280961951</v>
+        <v>3187.718612351076</v>
       </c>
       <c r="M15">
-        <v>11513.70454504615</v>
+        <v>11499.524991459322</v>
       </c>
       <c r="N15">
-        <v>257054.1867376196</v>
+        <v>256949.54249068984</v>
       </c>
       <c r="O15">
-        <v>1917282.5134496109</v>
+        <v>1916324.7933300498</v>
       </c>
       <c r="P15">
-        <v>0.49916336960121566</v>
+        <v>1.0099663510180916</v>
       </c>
       <c r="Q15">
-        <v>1.9421986317421924</v>
+        <v>1.9331959278456441</v>
       </c>
       <c r="R15">
-        <v>16.807636100576129</v>
+        <v>5.302624057726387</v>
       </c>
       <c r="S15">
-        <v>69.142336312295583</v>
+        <v>69.006608634125172</v>
       </c>
       <c r="T15">
-        <v>4332.0019935882283</v>
+        <v>3285.9673058869994</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>0.11879274386057556</v>
+        <v>0.2444452862008728</v>
       </c>
       <c r="B16">
-        <v>1.4594333296172042</v>
+        <v>1.4571785877166459</v>
       </c>
       <c r="C16">
-        <v>3.3964631875194837E-4</v>
+        <v>2.2382528261983986E-4</v>
       </c>
       <c r="D16">
-        <v>0.19878405018182427</v>
+        <v>0.49122096795960735</v>
       </c>
       <c r="E16">
-        <v>1.2822560067787196</v>
+        <v>1.2942186587095559</v>
       </c>
       <c r="F16">
-        <v>594.66238999264931</v>
+        <v>242.67111903523298</v>
       </c>
       <c r="G16">
-        <v>1617.8738879835169</v>
+        <v>1646.3744817418742</v>
       </c>
       <c r="H16">
-        <v>3.4008359105235368</v>
+        <v>3.4025873751157083</v>
       </c>
       <c r="I16">
-        <v>0.87602741942667151</v>
+        <v>0.87573431667750201</v>
       </c>
       <c r="J16">
-        <v>277.0571170618428</v>
+        <v>435.03173648513098</v>
       </c>
       <c r="K16">
-        <v>703.66494245681656</v>
+        <v>706.13269574441483</v>
       </c>
       <c r="L16">
-        <v>6944.1370587434467</v>
+        <v>4421.5861160920476</v>
       </c>
       <c r="M16">
-        <v>11453.952583567692</v>
+        <v>11516.840560626804</v>
       </c>
       <c r="N16">
-        <v>257140.80795556656</v>
+        <v>256981.40956855961</v>
       </c>
       <c r="O16">
-        <v>1918072.308469773</v>
+        <v>1916616.7949547397</v>
       </c>
       <c r="P16">
-        <v>0.2985160026715159</v>
+        <v>0.7364447571013033</v>
       </c>
       <c r="Q16">
-        <v>1.9255767109836379</v>
+        <v>1.9403091641391572</v>
       </c>
       <c r="R16">
-        <v>25.140365812947142</v>
+        <v>10.200486520561682</v>
       </c>
       <c r="S16">
-        <v>68.398375393512708</v>
+        <v>69.204035385712501</v>
       </c>
       <c r="T16">
-        <v>4427.2952948992597</v>
+        <v>3704.7313370977922</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>8.2968392468049879E-2</v>
+        <v>0.17137575764517646</v>
       </c>
       <c r="B17">
-        <v>1.4607172822314076</v>
+        <v>1.4582063446949394</v>
       </c>
       <c r="C17">
-        <v>3.9433556498122061E-4</v>
+        <v>2.8334085001749517E-4</v>
       </c>
       <c r="D17">
-        <v>0.11086948817889933</v>
+        <v>0.33269772936169312</v>
       </c>
       <c r="E17">
-        <v>1.2930655426605411</v>
+        <v>1.2944961792093024</v>
       </c>
       <c r="F17">
-        <v>812.15290504729023</v>
+        <v>398.80828518771756</v>
       </c>
       <c r="G17">
-        <v>1623.9540433610043</v>
+        <v>1640.595763352698</v>
       </c>
       <c r="H17">
-        <v>3.3998441597974858</v>
+        <v>3.4017874964667918</v>
       </c>
       <c r="I17">
-        <v>0.87619489194882161</v>
+        <v>0.87586778265957588</v>
       </c>
       <c r="J17">
-        <v>207.04581351872906</v>
+        <v>358.20669176056765</v>
       </c>
       <c r="K17">
-        <v>707.08349772585734</v>
+        <v>706.57645712647877</v>
       </c>
       <c r="L17">
-        <v>8130.262469240708</v>
+        <v>5676.7056280961951</v>
       </c>
       <c r="M17">
-        <v>11496.682361641162</v>
+        <v>11513.70454504615</v>
       </c>
       <c r="N17">
-        <v>257231.19144320791</v>
+        <v>257054.1867376196</v>
       </c>
       <c r="O17">
-        <v>1918892.7111927108</v>
+        <v>1917282.5134496109</v>
       </c>
       <c r="P17">
-        <v>0.16665151941768624</v>
+        <v>0.49916336960121566</v>
       </c>
       <c r="Q17">
-        <v>1.9436487074181918</v>
+        <v>1.9421986317421924</v>
       </c>
       <c r="R17">
-        <v>34.447557923995674</v>
+        <v>16.807636100576129</v>
       </c>
       <c r="S17">
-        <v>68.880195621941198</v>
+        <v>69.142336312295583</v>
       </c>
       <c r="T17">
-        <v>4497.6149628714102</v>
+        <v>4332.0019935882283</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>5.3386228380875769E-2</v>
+        <v>0.11879274386057556</v>
       </c>
       <c r="B18">
-        <v>1.4617581972456939</v>
+        <v>1.4594333296172042</v>
       </c>
       <c r="C18">
-        <v>4.4877258181049925E-4</v>
+        <v>3.3964631875194837E-4</v>
       </c>
       <c r="D18">
-        <v>4.8121096570012699E-2</v>
+        <v>0.19878405018182427</v>
       </c>
       <c r="E18">
-        <v>1.2990250235699343</v>
+        <v>1.2822560067787196</v>
       </c>
       <c r="F18">
-        <v>1059.8826872784398</v>
+        <v>594.66238999264931</v>
       </c>
       <c r="G18">
-        <v>1625.3187219473068</v>
+        <v>1617.8738879835169</v>
       </c>
       <c r="H18">
-        <v>3.3990432366087195</v>
+        <v>3.4008359105235368</v>
       </c>
       <c r="I18">
-        <v>0.87633103870783891</v>
+        <v>0.87602741942667151</v>
       </c>
       <c r="J18">
-        <v>136.47605132977949</v>
+        <v>277.0571170618428</v>
       </c>
       <c r="K18">
-        <v>709.08361384417321</v>
+        <v>703.66494245681656</v>
       </c>
       <c r="L18">
-        <v>9301.7329792720357</v>
+        <v>6944.1370587434467</v>
       </c>
       <c r="M18">
-        <v>11518.720442659096</v>
+        <v>11453.952583567692</v>
       </c>
       <c r="N18">
-        <v>257304.3073846903</v>
+        <v>257140.80795556656</v>
       </c>
       <c r="O18">
-        <v>1919553.0700028311</v>
+        <v>1918072.308469773</v>
       </c>
       <c r="P18">
-        <v>7.2387877124504146E-2</v>
+        <v>0.2985160026715159</v>
       </c>
       <c r="Q18">
-        <v>1.9541047584197164</v>
+        <v>1.9255767109836379</v>
       </c>
       <c r="R18">
-        <v>45.074156984651331</v>
+        <v>25.140365812947142</v>
       </c>
       <c r="S18">
-        <v>69.120735815830727</v>
+        <v>68.398375393512708</v>
       </c>
       <c r="T18">
-        <v>4293.7720416460734</v>
+        <v>4427.2952948992597</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>0.67993160399228991</v>
+        <v>8.2968392468049879E-2</v>
       </c>
       <c r="B19">
-        <v>1.4572195393224763</v>
+        <v>1.4607172822314076</v>
       </c>
       <c r="C19">
-        <v>9.778306805967684E-5</v>
+        <v>3.9433556498122061E-4</v>
       </c>
       <c r="D19">
-        <v>1.2220787198551399</v>
+        <v>0.11086948817889933</v>
       </c>
       <c r="E19">
-        <v>1.6829002814529874</v>
+        <v>1.2930655426605411</v>
       </c>
       <c r="F19">
-        <v>46.785066153390012</v>
+        <v>812.15290504729023</v>
       </c>
       <c r="G19">
-        <v>2140.4976089670872</v>
+        <v>1623.9540433610043</v>
       </c>
       <c r="H19">
-        <v>3.4025554554948547</v>
+        <v>3.3998441597974858</v>
       </c>
       <c r="I19">
-        <v>0.87573963094585872</v>
+        <v>0.87619489194882161</v>
       </c>
       <c r="J19">
-        <v>686.18481921101591</v>
+        <v>207.04581351872906</v>
       </c>
       <c r="K19">
-        <v>805.23140836698235</v>
+        <v>707.08349772585734</v>
       </c>
       <c r="L19">
-        <v>1941.5491916832534</v>
+        <v>8130.262469240708</v>
       </c>
       <c r="M19">
-        <v>13132.643287953682</v>
+        <v>11496.682361641162</v>
       </c>
       <c r="N19">
-        <v>256984.31364569897</v>
+        <v>257231.19144320791</v>
       </c>
       <c r="O19">
-        <v>1916643.391413349</v>
+        <v>1918892.7111927108</v>
       </c>
       <c r="P19">
-        <v>1.832211466279646</v>
+        <v>0.16665151941768624</v>
       </c>
       <c r="Q19">
-        <v>2.5231019427692059</v>
+        <v>1.9436487074181918</v>
       </c>
       <c r="R19">
-        <v>1.9667786300852503</v>
+        <v>34.447557923995674</v>
       </c>
       <c r="S19">
-        <v>89.983520409321841</v>
+        <v>68.880195621941198</v>
       </c>
       <c r="T19">
-        <v>2724.9027599055526</v>
+        <v>4497.6149628714102</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>0.4244792398168189</v>
+        <v>5.3386228380875769E-2</v>
       </c>
       <c r="B20">
-        <v>1.4576633582084371</v>
+        <v>1.4617581972456939</v>
       </c>
       <c r="C20">
-        <v>1.4660855722661308E-4</v>
+        <v>4.4877258181049925E-4</v>
       </c>
       <c r="D20">
-        <v>0.97997714245199152</v>
+        <v>4.8121096570012699E-2</v>
       </c>
       <c r="E20">
-        <v>1.6889148029206489</v>
+        <v>1.2990250235699343</v>
       </c>
       <c r="F20">
-        <v>121.75406792027127</v>
+        <v>1059.8826872784398</v>
       </c>
       <c r="G20">
-        <v>2144.6883829997532</v>
+        <v>1625.3187219473068</v>
       </c>
       <c r="H20">
-        <v>3.4022097761957886</v>
+        <v>3.3990432366087195</v>
       </c>
       <c r="I20">
-        <v>0.87579724435180595</v>
+        <v>0.87633103870783891</v>
       </c>
       <c r="J20">
-        <v>614.60662408514452</v>
+        <v>136.47605132977949</v>
       </c>
       <c r="K20">
-        <v>806.8506156724518</v>
+        <v>709.08361384417321</v>
       </c>
       <c r="L20">
-        <v>3134.1175313992917</v>
+        <v>9301.7329792720357</v>
       </c>
       <c r="M20">
-        <v>13153.93338912706</v>
+        <v>11518.720442659096</v>
       </c>
       <c r="N20">
-        <v>257015.76400467783</v>
+        <v>257304.3073846903</v>
       </c>
       <c r="O20">
-        <v>1916931.26178019</v>
+        <v>1919553.0700028311</v>
       </c>
       <c r="P20">
-        <v>1.4697203645550048</v>
+        <v>7.2387877124504146E-2</v>
       </c>
       <c r="Q20">
-        <v>2.5329493641454839</v>
+        <v>1.9541047584197164</v>
       </c>
       <c r="R20">
-        <v>5.1241757576129165</v>
+        <v>45.074156984651331</v>
       </c>
       <c r="S20">
-        <v>90.261955165209358</v>
+        <v>69.120735815830727</v>
       </c>
       <c r="T20">
-        <v>3278.7438915274106</v>
+        <v>4293.7720416460734</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>0.29350194434458249</v>
+        <v>0.67993160399228991</v>
       </c>
       <c r="B21">
-        <v>1.4580592356664024</v>
+        <v>1.4572195393224763</v>
       </c>
       <c r="C21">
-        <v>1.9695951033685938E-4</v>
+        <v>9.778306805967684E-5</v>
       </c>
       <c r="D21">
-        <v>0.75117368690527964</v>
+        <v>1.2220787198551399</v>
       </c>
       <c r="E21">
-        <v>1.6818466326121357</v>
+        <v>1.6829002814529874</v>
       </c>
       <c r="F21">
-        <v>234.6322035580275</v>
+        <v>46.785066153390012</v>
       </c>
       <c r="G21">
-        <v>2132.6468643221342</v>
+        <v>2140.4976089670872</v>
       </c>
       <c r="H21">
-        <v>3.4019018329983384</v>
+        <v>3.4025554554948547</v>
       </c>
       <c r="I21">
-        <v>0.87584866607093026</v>
+        <v>0.87573963094585872</v>
       </c>
       <c r="J21">
-        <v>538.20358801767679</v>
+        <v>686.18481921101591</v>
       </c>
       <c r="K21">
-        <v>805.32206872395659</v>
+        <v>805.23140836698235</v>
       </c>
       <c r="L21">
-        <v>4353.2720925154745</v>
+        <v>1941.5491916832534</v>
       </c>
       <c r="M21">
-        <v>13124.461018171734</v>
+        <v>13132.643287953682</v>
       </c>
       <c r="N21">
-        <v>257043.78279557373</v>
+        <v>256984.31364569897</v>
       </c>
       <c r="O21">
-        <v>1917187.4537474748</v>
+        <v>1916643.391413349</v>
       </c>
       <c r="P21">
-        <v>1.1269018025052546</v>
+        <v>1.832211466279646</v>
       </c>
       <c r="Q21">
-        <v>2.5230862513784995</v>
+        <v>2.5231019427692059</v>
       </c>
       <c r="R21">
-        <v>9.8847808931938754</v>
+        <v>1.9667786300852503</v>
       </c>
       <c r="S21">
-        <v>89.845923350277573</v>
+        <v>89.983520409321841</v>
       </c>
       <c r="T21">
-        <v>3754.9579740010909</v>
+        <v>2724.9027599055526</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>0.21546578311496883</v>
+        <v>0.4244792398168189</v>
       </c>
       <c r="B22">
-        <v>1.4595793096322112</v>
+        <v>1.4576633582084371</v>
       </c>
       <c r="C22">
-        <v>2.4732432141382919E-4</v>
+        <v>1.4660855722661308E-4</v>
       </c>
       <c r="D22">
-        <v>0.55984391022753099</v>
+        <v>0.97997714245199152</v>
       </c>
       <c r="E22">
-        <v>1.6787295138865879</v>
+        <v>1.6889148029206489</v>
       </c>
       <c r="F22">
-        <v>377.91909960443422</v>
+        <v>121.75406792027127</v>
       </c>
       <c r="G22">
-        <v>2117.0014764234984</v>
+        <v>2144.6883829997532</v>
       </c>
       <c r="H22">
-        <v>3.4007229433854143</v>
+        <v>3.4022097761957886</v>
       </c>
       <c r="I22">
-        <v>0.87604643699305051</v>
+        <v>0.87579724435180595</v>
       </c>
       <c r="J22">
-        <v>464.99051281451108</v>
+        <v>614.60662408514452</v>
       </c>
       <c r="K22">
-        <v>805.19482642813352</v>
+        <v>806.8506156724518</v>
       </c>
       <c r="L22">
-        <v>5536.9910012828441</v>
+        <v>3134.1175313992917</v>
       </c>
       <c r="M22">
-        <v>13104.938208618752</v>
+        <v>13153.93338912706</v>
       </c>
       <c r="N22">
-        <v>257151.0965962451</v>
+        <v>257015.76400467783</v>
       </c>
       <c r="O22">
-        <v>1918165.9025047389</v>
+        <v>1916931.26178019</v>
       </c>
       <c r="P22">
-        <v>0.8408137467404414</v>
+        <v>1.4697203645550048</v>
       </c>
       <c r="Q22">
-        <v>2.5212364134872565</v>
+        <v>2.5329493641454839</v>
       </c>
       <c r="R22">
-        <v>15.983116636706793</v>
+        <v>5.1241757576129165</v>
       </c>
       <c r="S22">
-        <v>89.533134348524612</v>
+        <v>90.261955165209358</v>
       </c>
       <c r="T22">
-        <v>4131.3947685547482</v>
+        <v>3278.7438915274106</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>0.15750794115311817</v>
+        <v>0.29350194434458249</v>
       </c>
       <c r="B23">
-        <v>1.4610407457636323</v>
+        <v>1.4580592356664024</v>
       </c>
       <c r="C23">
-        <v>2.9683702319579472E-4</v>
+        <v>1.9695951033685938E-4</v>
       </c>
       <c r="D23">
-        <v>0.39132532377617174</v>
+        <v>0.75117368690527964</v>
       </c>
       <c r="E23">
-        <v>1.6998668425321624</v>
+        <v>1.6818466326121357</v>
       </c>
       <c r="F23">
-        <v>577.03076132214744</v>
+        <v>234.6322035580275</v>
       </c>
       <c r="G23">
-        <v>2132.3605263983868</v>
+        <v>2132.6468643221342</v>
       </c>
       <c r="H23">
-        <v>3.3995949725523444</v>
+        <v>3.4019018329983384</v>
       </c>
       <c r="I23">
-        <v>0.87623716105475824</v>
+        <v>0.87584866607093026</v>
       </c>
       <c r="J23">
-        <v>389.04547170151216</v>
+        <v>538.20358801767679</v>
       </c>
       <c r="K23">
-        <v>810.84686031681474</v>
+        <v>805.32206872395659</v>
       </c>
       <c r="L23">
-        <v>6856.2564284431583</v>
+        <v>4353.2720925154745</v>
       </c>
       <c r="M23">
-        <v>13180.07514574698</v>
+        <v>13124.461018171734</v>
       </c>
       <c r="N23">
-        <v>257253.92586270551</v>
+        <v>257043.78279557373</v>
       </c>
       <c r="O23">
-        <v>1919098.3814693633</v>
+        <v>1917187.4537474748</v>
       </c>
       <c r="P23">
-        <v>0.58835401070703142</v>
+        <v>1.1269018025052546</v>
       </c>
       <c r="Q23">
-        <v>2.5557341007752949</v>
+        <v>2.5230862513784995</v>
       </c>
       <c r="R23">
-        <v>24.494967358878249</v>
+        <v>9.8847808931938754</v>
       </c>
       <c r="S23">
-        <v>90.518746993331504</v>
+        <v>89.845923350277573</v>
       </c>
       <c r="T23">
-        <v>4531.032516351449</v>
+        <v>3754.9579740010909</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>0.11654633782325617</v>
+        <v>0.21546578311496883</v>
       </c>
       <c r="B24">
-        <v>1.462844948611713</v>
+        <v>1.4595793096322112</v>
       </c>
       <c r="C24">
-        <v>3.4545986383267954E-4</v>
+        <v>2.4732432141382919E-4</v>
       </c>
       <c r="D24">
-        <v>0.25231906584805647</v>
+        <v>0.55984391022753099</v>
       </c>
       <c r="E24">
-        <v>1.6835144906131096</v>
+        <v>1.6787295138865879</v>
       </c>
       <c r="F24">
-        <v>788.06282872575298</v>
+        <v>377.91909960443422</v>
       </c>
       <c r="G24">
-        <v>2098.1496884489347</v>
+        <v>2117.0014764234984</v>
       </c>
       <c r="H24">
-        <v>3.3982100842824403</v>
+        <v>3.4007229433854143</v>
       </c>
       <c r="I24">
-        <v>0.87647359034300287</v>
+        <v>0.87604643699305051</v>
       </c>
       <c r="J24">
-        <v>312.68122405579311</v>
+        <v>464.99051281451108</v>
       </c>
       <c r="K24">
-        <v>807.67231909287261</v>
+        <v>805.19482642813352</v>
       </c>
       <c r="L24">
-        <v>8033.2624154987716</v>
+        <v>5536.9910012828441</v>
       </c>
       <c r="M24">
-        <v>13107.798807009798</v>
+        <v>13104.938208618752</v>
       </c>
       <c r="N24">
-        <v>257380.52374325987</v>
+        <v>257151.0965962451</v>
       </c>
       <c r="O24">
-        <v>1920237.7849298255</v>
+        <v>1918165.9025047389</v>
       </c>
       <c r="P24">
-        <v>0.37986381585949131</v>
+        <v>0.8408137467404414</v>
       </c>
       <c r="Q24">
-        <v>2.5345141331656111</v>
+        <v>2.5212364134872565</v>
       </c>
       <c r="R24">
-        <v>33.606934277998029</v>
+        <v>15.983116636706793</v>
       </c>
       <c r="S24">
-        <v>89.475580010694557</v>
+        <v>89.533134348524612</v>
       </c>
       <c r="T24">
-        <v>4524.869108757719</v>
+        <v>4131.3947685547482</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>8.2093683562984091E-2</v>
+        <v>0.15750794115311817</v>
       </c>
       <c r="B25">
-        <v>1.4644812041525688</v>
+        <v>1.4610407457636323</v>
       </c>
       <c r="C25">
-        <v>3.9757814584557362E-4</v>
+        <v>2.9683702319579472E-4</v>
       </c>
       <c r="D25">
-        <v>0.14008339606480572</v>
+        <v>0.39132532377617174</v>
       </c>
       <c r="E25">
-        <v>1.6748034109318537</v>
+        <v>1.6998668425321624</v>
       </c>
       <c r="F25">
-        <v>1048.3610805270341</v>
+        <v>577.03076132214744</v>
       </c>
       <c r="G25">
-        <v>2075.0412336757386</v>
+        <v>2132.3605263983868</v>
       </c>
       <c r="H25">
-        <v>3.3969615923604723</v>
+        <v>3.3995949725523444</v>
       </c>
       <c r="I25">
-        <v>0.87668918471593382</v>
+        <v>0.87623716105475824</v>
       </c>
       <c r="J25">
-        <v>233.17295013960108</v>
+        <v>389.04547170151216</v>
       </c>
       <c r="K25">
-        <v>806.2444812752401</v>
+        <v>810.84686031681474</v>
       </c>
       <c r="L25">
-        <v>9287.1626199115017</v>
+        <v>6856.2564284431583</v>
       </c>
       <c r="M25">
-        <v>13065.949366165765</v>
+        <v>13180.07514574698</v>
       </c>
       <c r="N25">
-        <v>257495.1098249699</v>
+        <v>257253.92586270551</v>
       </c>
       <c r="O25">
-        <v>1921259.2449468414</v>
+        <v>1919098.3814693633</v>
       </c>
       <c r="P25">
-        <v>0.21114818341118083</v>
+        <v>0.58835401070703142</v>
       </c>
       <c r="Q25">
-        <v>2.5244369263114694</v>
+        <v>2.5557341007752949</v>
       </c>
       <c r="R25">
-        <v>44.893155234273408</v>
+        <v>24.494967358878249</v>
       </c>
       <c r="S25">
-        <v>88.857884894097765</v>
+        <v>90.518746993331504</v>
       </c>
       <c r="T25">
-        <v>4735.0475038152063</v>
+        <v>4531.032516351449</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>5.5773819057315009E-2</v>
+        <v>0.11654633782325617</v>
       </c>
       <c r="B26">
-        <v>1.4657929901770277</v>
+        <v>1.462844948611713</v>
       </c>
       <c r="C26">
-        <v>4.4538701688368059E-4</v>
+        <v>3.4545986383267954E-4</v>
       </c>
       <c r="D26">
-        <v>6.7567374713555242E-2</v>
+        <v>0.25231906584805647</v>
       </c>
       <c r="E26">
-        <v>1.682720290659746</v>
+        <v>1.6835144906131096</v>
       </c>
       <c r="F26">
-        <v>1326.7608960497873</v>
+        <v>788.06282872575298</v>
       </c>
       <c r="G26">
-        <v>2075.0543140721938</v>
+        <v>2098.1496884489347</v>
       </c>
       <c r="H26">
-        <v>3.3959654639229271</v>
+        <v>3.3982100842824403</v>
       </c>
       <c r="I26">
-        <v>0.87686320754234126</v>
+        <v>0.87647359034300287</v>
       </c>
       <c r="J26">
-        <v>162.04665254631342</v>
+        <v>312.68122405579311</v>
       </c>
       <c r="K26">
-        <v>808.68149887108518</v>
+        <v>807.67231909287261</v>
       </c>
       <c r="L26">
-        <v>10467.338556720444</v>
+        <v>8033.2624154987716</v>
       </c>
       <c r="M26">
-        <v>13090.452952466439</v>
+        <v>13107.798807009798</v>
       </c>
       <c r="N26">
-        <v>257586.80799393295</v>
+        <v>257380.52374325987</v>
       </c>
       <c r="O26">
-        <v>1922069.9209374664</v>
+        <v>1920237.7849298255</v>
       </c>
       <c r="P26">
-        <v>0.10194278894159875</v>
+        <v>0.37986381585949131</v>
       </c>
       <c r="Q26">
-        <v>2.5388169980808497</v>
+        <v>2.5345141331656111</v>
       </c>
       <c r="R26">
-        <v>57.003741262215549</v>
+        <v>33.606934277998029</v>
       </c>
       <c r="S26">
-        <v>89.153863048415303</v>
+        <v>89.475580010694557</v>
       </c>
       <c r="T26">
-        <v>4653.161426921165</v>
+        <v>4524.869108757719</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3.1140354171162399E-2</v>
+        <v>8.2093683562984091E-2</v>
       </c>
       <c r="B27">
-        <v>1.465750701917468</v>
+        <v>1.4644812041525688</v>
       </c>
       <c r="C27">
-        <v>4.9515679519039765E-4</v>
+        <v>3.9757814584557362E-4</v>
       </c>
       <c r="D27">
-        <v>1.9577098445337986E-2</v>
+        <v>0.14008339606480572</v>
       </c>
       <c r="E27">
-        <v>1.6814634154068011</v>
+        <v>1.6748034109318537</v>
       </c>
       <c r="F27">
-        <v>1650.4247789052963</v>
+        <v>1048.3610805270341</v>
       </c>
       <c r="G27">
-        <v>2073.8189341485286</v>
+        <v>2075.0412336757386</v>
       </c>
       <c r="H27">
-        <v>3.3959975115380567</v>
+        <v>3.3969615923604723</v>
       </c>
       <c r="I27">
-        <v>0.8768575819076988</v>
+        <v>0.87668918471593382</v>
       </c>
       <c r="J27">
-        <v>87.224093945836714</v>
+        <v>233.17295013960108</v>
       </c>
       <c r="K27">
-        <v>808.3622345757118</v>
+        <v>806.2444812752401</v>
       </c>
       <c r="L27">
-        <v>11673.783937489694</v>
+        <v>9287.1626199115017</v>
       </c>
       <c r="M27">
-        <v>13085.767536051861</v>
+        <v>13065.949366165765</v>
       </c>
       <c r="N27">
-        <v>257583.85479183181</v>
+        <v>257495.1098249699</v>
       </c>
       <c r="O27">
-        <v>1922043.8971965348</v>
+        <v>1921259.2449468414</v>
       </c>
       <c r="P27">
-        <v>2.9536177920858595E-2</v>
+        <v>0.21114818341118083</v>
       </c>
       <c r="Q27">
-        <v>2.5368418483228616</v>
+        <v>2.5244369263114694</v>
       </c>
       <c r="R27">
-        <v>70.902247143243898</v>
+        <v>44.893155234273408</v>
       </c>
       <c r="S27">
-        <v>89.091259703981294</v>
+        <v>88.857884894097765</v>
       </c>
       <c r="T27">
-        <v>4678.5215570884229</v>
+        <v>4735.0475038152063</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>0.77617909699520649</v>
+        <v>5.5773819057315009E-2</v>
       </c>
       <c r="B28">
-        <v>1.4579322273084905</v>
+        <v>1.4657929901770277</v>
       </c>
       <c r="C28">
-        <v>8.6952551244423985E-5</v>
+        <v>4.4538701688368059E-4</v>
       </c>
       <c r="D28">
-        <v>1.6097136126639868</v>
+        <v>6.7567374713555242E-2</v>
       </c>
       <c r="E28">
-        <v>2.1183024523205369</v>
+        <v>1.682720290659746</v>
       </c>
       <c r="F28">
-        <v>44.217431861106355</v>
+        <v>1326.7608960497873</v>
       </c>
       <c r="G28">
-        <v>2687.3278314283912</v>
+        <v>2075.0543140721938</v>
       </c>
       <c r="H28">
-        <v>3.40200058872496</v>
+        <v>3.3959654639229271</v>
       </c>
       <c r="I28">
-        <v>0.87583216514899498</v>
+        <v>0.87686320754234126</v>
       </c>
       <c r="J28">
-        <v>787.81230741806985</v>
+        <v>162.04665254631342</v>
       </c>
       <c r="K28">
-        <v>903.73777865582065</v>
+        <v>808.68149887108518</v>
       </c>
       <c r="L28">
-        <v>1889.4659318093729</v>
+        <v>10467.338556720444</v>
       </c>
       <c r="M28">
-        <v>14729.996141720943</v>
+        <v>13090.452952466439</v>
       </c>
       <c r="N28">
-        <v>257034.79701862275</v>
+        <v>257586.80799393295</v>
       </c>
       <c r="O28">
-        <v>1917105.320753888</v>
+        <v>1922069.9209374664</v>
       </c>
       <c r="P28">
-        <v>2.4146467284521638</v>
+        <v>0.10194278894159875</v>
       </c>
       <c r="Q28">
-        <v>3.1775540979013148</v>
+        <v>2.5388169980808497</v>
       </c>
       <c r="R28">
-        <v>1.8622250268776848</v>
+        <v>57.003741262215549</v>
       </c>
       <c r="S28">
-        <v>113.17729077596574</v>
+        <v>89.153863048415303</v>
       </c>
       <c r="T28">
-        <v>2397.7753890461404</v>
+        <v>4653.161426921165</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>0.49898824319987978</v>
+        <v>3.1140354171162399E-2</v>
       </c>
       <c r="B29">
-        <v>1.4584261780217807</v>
+        <v>1.465750701917468</v>
       </c>
       <c r="C29">
-        <v>1.2977205797858469E-4</v>
+        <v>4.9515679519039765E-4</v>
       </c>
       <c r="D29">
-        <v>1.3558713858111127</v>
+        <v>1.9577098445337986E-2</v>
       </c>
       <c r="E29">
-        <v>2.1381309522539933</v>
+        <v>1.6814634154068011</v>
       </c>
       <c r="F29">
-        <v>112.31834284569302</v>
+        <v>1650.4247789052963</v>
       </c>
       <c r="G29">
-        <v>2707.6273968700625</v>
+        <v>2073.8189341485286</v>
       </c>
       <c r="H29">
-        <v>3.4016167344248225</v>
+        <v>3.3959975115380567</v>
       </c>
       <c r="I29">
-        <v>0.87589635830165924</v>
+        <v>0.8768575819076988</v>
       </c>
       <c r="J29">
-        <v>723.2132704658045</v>
+        <v>87.224093945836714</v>
       </c>
       <c r="K29">
-        <v>908.18492564109476</v>
+        <v>808.3622345757118</v>
       </c>
       <c r="L29">
-        <v>3013.5436911619381</v>
+        <v>11673.783937489694</v>
       </c>
       <c r="M29">
-        <v>14796.077542153609</v>
+        <v>13085.767536051861</v>
       </c>
       <c r="N29">
-        <v>257069.72620693722</v>
+        <v>257583.85479183181</v>
       </c>
       <c r="O29">
-        <v>1917424.4218166198</v>
+        <v>1922043.8971965348</v>
       </c>
       <c r="P29">
-        <v>2.0346131078725609</v>
+        <v>2.9536177920858595E-2</v>
       </c>
       <c r="Q29">
-        <v>3.2084674898582555</v>
+        <v>2.5368418483228616</v>
       </c>
       <c r="R29">
-        <v>4.7362730312665517</v>
+        <v>70.902247143243898</v>
       </c>
       <c r="S29">
-        <v>114.17603121274938</v>
+        <v>89.091259703981294</v>
       </c>
       <c r="T29">
-        <v>2909.0164024735263</v>
+        <v>4678.5215570884229</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>0.34900845598980462</v>
+        <v>0.77617909699520649</v>
       </c>
       <c r="B30">
-        <v>1.4591170543237595</v>
+        <v>1.4579322273084905</v>
       </c>
       <c r="C30">
-        <v>1.7444494224435372E-4</v>
+        <v>8.6952551244423985E-5</v>
       </c>
       <c r="D30">
-        <v>1.0872663576516732</v>
+        <v>1.6097136126639868</v>
       </c>
       <c r="E30">
-        <v>2.131565256846172</v>
+        <v>2.1183024523205369</v>
       </c>
       <c r="F30">
-        <v>219.93599557234563</v>
+        <v>44.217431861106355</v>
       </c>
       <c r="G30">
-        <v>2692.5633567090795</v>
+        <v>2687.3278314283912</v>
       </c>
       <c r="H30">
-        <v>3.4010808430638351</v>
+        <v>3.40200058872496</v>
       </c>
       <c r="I30">
-        <v>0.8759862356293372</v>
+        <v>0.87583216514899498</v>
       </c>
       <c r="J30">
-        <v>647.85381316620339</v>
+        <v>787.81230741806985</v>
       </c>
       <c r="K30">
-        <v>907.10667060257481</v>
+        <v>903.73777865582065</v>
       </c>
       <c r="L30">
-        <v>4221.1735479386389</v>
+        <v>1889.4659318093729</v>
       </c>
       <c r="M30">
-        <v>14769.575621923639</v>
+        <v>14729.996141720943</v>
       </c>
       <c r="N30">
-        <v>257118.5050354361</v>
+        <v>257034.79701862275</v>
       </c>
       <c r="O30">
-        <v>1917869.2567268591</v>
+        <v>1917105.320753888</v>
       </c>
       <c r="P30">
-        <v>1.6323778919613152</v>
+        <v>2.4146467284521638</v>
       </c>
       <c r="Q30">
-        <v>3.2002461734066325</v>
+        <v>3.1775540979013148</v>
       </c>
       <c r="R30">
-        <v>9.2906782145444975</v>
+        <v>1.8622250268776848</v>
       </c>
       <c r="S30">
-        <v>113.74099839527717</v>
+        <v>113.17729077596574</v>
       </c>
       <c r="T30">
-        <v>3610.9573495000695</v>
+        <v>2397.7753890461404</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>0.25958881259819483</v>
+        <v>0.49898824319987978</v>
       </c>
       <c r="B31">
-        <v>1.4607338950183177</v>
+        <v>1.4584261780217807</v>
       </c>
       <c r="C31">
-        <v>2.1867615294909979E-4</v>
+        <v>1.2977205797858469E-4</v>
       </c>
       <c r="D31">
-        <v>0.85541505165342102</v>
+        <v>1.3558713858111127</v>
       </c>
       <c r="E31">
-        <v>2.1365409766121433</v>
+        <v>2.1381309522539933</v>
       </c>
       <c r="F31">
-        <v>361.87587456861877</v>
+        <v>112.31834284569302</v>
       </c>
       <c r="G31">
-        <v>2683.1092330840379</v>
+        <v>2707.6273968700625</v>
       </c>
       <c r="H31">
-        <v>3.3998313552112855</v>
+        <v>3.4016167344248225</v>
       </c>
       <c r="I31">
-        <v>0.87619706204165659</v>
+        <v>0.87589635830165924</v>
       </c>
       <c r="J31">
-        <v>575.11212093955896</v>
+        <v>723.2132704658045</v>
       </c>
       <c r="K31">
-        <v>908.90750651954704</v>
+        <v>908.18492564109476</v>
       </c>
       <c r="L31">
-        <v>5427.2003338409368</v>
+        <v>3013.5436911619381</v>
       </c>
       <c r="M31">
-        <v>14777.984765254811</v>
+        <v>14796.077542153609</v>
       </c>
       <c r="N31">
-        <v>257232.35938442458</v>
+        <v>257069.72620693722</v>
       </c>
       <c r="O31">
-        <v>1918903.2843046312</v>
+        <v>1917424.4218166198</v>
       </c>
       <c r="P31">
-        <v>1.2858178202894681</v>
+        <v>2.0346131078725609</v>
       </c>
       <c r="Q31">
-        <v>3.2115432808863074</v>
+        <v>3.2084674898582555</v>
       </c>
       <c r="R31">
-        <v>15.349655037104617</v>
+        <v>4.7362730312665517</v>
       </c>
       <c r="S31">
-        <v>113.80919273440225</v>
+        <v>114.17603121274938</v>
       </c>
       <c r="T31">
-        <v>4098.3008193025034</v>
+        <v>2909.0164024735263</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>0.1972698347498453</v>
+        <v>0.34900845598980462</v>
       </c>
       <c r="B32">
-        <v>1.462486072396235</v>
+        <v>1.4591170543237595</v>
       </c>
       <c r="C32">
-        <v>2.6302194129591448E-4</v>
+        <v>1.7444494224435372E-4</v>
       </c>
       <c r="D32">
-        <v>0.64128853929497676</v>
+        <v>1.0872663576516732</v>
       </c>
       <c r="E32">
-        <v>2.1233391822025873</v>
+        <v>2.131565256846172</v>
       </c>
       <c r="F32">
-        <v>537.61294208475408</v>
+        <v>219.93599557234563</v>
       </c>
       <c r="G32">
-        <v>2649.7234122678892</v>
+        <v>2692.5633567090795</v>
       </c>
       <c r="H32">
-        <v>3.3984848670938792</v>
+        <v>3.4010808430638351</v>
       </c>
       <c r="I32">
-        <v>0.87642646645393163</v>
+        <v>0.8759862356293372</v>
       </c>
       <c r="J32">
-        <v>498.39641856017073</v>
+        <v>647.85381316620339</v>
       </c>
       <c r="K32">
-        <v>906.89678130815037</v>
+        <v>907.10667060257481</v>
       </c>
       <c r="L32">
-        <v>6631.6732585383261</v>
+        <v>4221.1735479386389</v>
       </c>
       <c r="M32">
-        <v>14722.736333446464</v>
+        <v>14769.575621923639</v>
       </c>
       <c r="N32">
-        <v>257355.3664934414</v>
+        <v>257118.5050354361</v>
       </c>
       <c r="O32">
-        <v>1920012.2167704601</v>
+        <v>1917869.2567268591</v>
       </c>
       <c r="P32">
-        <v>0.96519840801507151</v>
+        <v>1.6323778919613152</v>
       </c>
       <c r="Q32">
-        <v>3.1958213390045764</v>
+        <v>3.2002461734066325</v>
       </c>
       <c r="R32">
-        <v>22.905630403741384</v>
+        <v>9.2906782145444975</v>
       </c>
       <c r="S32">
-        <v>112.89457600888717</v>
+        <v>113.74099839527717</v>
       </c>
       <c r="T32">
-        <v>4493.1700146264238</v>
+        <v>3610.9573495000695</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>0.15182216668004084</v>
+        <v>0.25958881259819483</v>
       </c>
       <c r="B33">
-        <v>1.4645865800590079</v>
+        <v>1.4607338950183177</v>
       </c>
       <c r="C33">
-        <v>3.0668818454028318E-4</v>
+        <v>2.1867615294909979E-4</v>
       </c>
       <c r="D33">
-        <v>0.46635563283223319</v>
+        <v>0.85541505165342102</v>
       </c>
       <c r="E33">
-        <v>2.1351743308604454</v>
+        <v>2.1365409766121433</v>
       </c>
       <c r="F33">
-        <v>750.26758202221936</v>
+        <v>361.87587456861877</v>
       </c>
       <c r="G33">
-        <v>2644.4282394623474</v>
+        <v>2683.1092330840379</v>
       </c>
       <c r="H33">
-        <v>3.3968814196629404</v>
+        <v>3.3998313552112855</v>
       </c>
       <c r="I33">
-        <v>0.87670312472160083</v>
+        <v>0.87619706204165659</v>
       </c>
       <c r="J33">
-        <v>425.46759994309639</v>
+        <v>575.11212093955896</v>
       </c>
       <c r="K33">
-        <v>910.38386069571015</v>
+        <v>908.90750651954704</v>
       </c>
       <c r="L33">
-        <v>7857.800973782194</v>
+        <v>5427.2003338409368</v>
       </c>
       <c r="M33">
-        <v>14752.269136092864</v>
+        <v>14777.984765254811</v>
       </c>
       <c r="N33">
-        <v>257502.48225225459</v>
+        <v>257232.35938442458</v>
       </c>
       <c r="O33">
-        <v>1921324.6318921603</v>
+        <v>1918903.2843046312</v>
       </c>
       <c r="P33">
-        <v>0.70299391686642176</v>
+        <v>1.2858178202894681</v>
       </c>
       <c r="Q33">
-        <v>3.2186049880611192</v>
+        <v>3.2115432808863074</v>
       </c>
       <c r="R33">
-        <v>32.136701481188325</v>
+        <v>15.349655037104617</v>
       </c>
       <c r="S33">
-        <v>113.27052235279582</v>
+        <v>113.80919273440225</v>
       </c>
       <c r="T33">
-        <v>4843.6346939191744</v>
+        <v>4098.3008193025034</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>0.11748349823327076</v>
+        <v>0.1972698347498453</v>
       </c>
       <c r="B34">
-        <v>1.4665384869744802</v>
+        <v>1.462486072396235</v>
       </c>
       <c r="C34">
-        <v>3.4980443888649171E-4</v>
+        <v>2.6302194129591448E-4</v>
       </c>
       <c r="D34">
-        <v>0.32312535489504274</v>
+        <v>0.64128853929497676</v>
       </c>
       <c r="E34">
-        <v>2.1405211459450708</v>
+        <v>2.1233391822025873</v>
       </c>
       <c r="F34">
-        <v>984.29481286318946</v>
+        <v>537.61294208475408</v>
       </c>
       <c r="G34">
-        <v>2632.5486851690825</v>
+        <v>2649.7234122678892</v>
       </c>
       <c r="H34">
-        <v>3.3954012046101241</v>
+        <v>3.3984848670938792</v>
       </c>
       <c r="I34">
-        <v>0.87696253419722614</v>
+        <v>0.87642646645393163</v>
       </c>
       <c r="J34">
-        <v>354.50293662210981</v>
+        <v>498.39641856017073</v>
       </c>
       <c r="K34">
-        <v>912.41849438371923</v>
+        <v>906.89678130815037</v>
       </c>
       <c r="L34">
-        <v>9025.334666823288</v>
+        <v>6631.6732585383261</v>
       </c>
       <c r="M34">
-        <v>14760.087173497959</v>
+        <v>14722.736333446464</v>
       </c>
       <c r="N34">
-        <v>257638.83387667919</v>
+        <v>257355.3664934414</v>
       </c>
       <c r="O34">
-        <v>1922527.5225696131</v>
+        <v>1920012.2167704601</v>
       </c>
       <c r="P34">
-        <v>0.48778489710853778</v>
+        <v>0.96519840801507151</v>
       </c>
       <c r="Q34">
-        <v>3.2312966813533213</v>
+        <v>3.1958213390045764</v>
       </c>
       <c r="R34">
-        <v>42.369570730144261</v>
+        <v>22.905630403741384</v>
       </c>
       <c r="S34">
-        <v>113.31966425014886</v>
+        <v>112.89457600888717</v>
       </c>
       <c r="T34">
-        <v>5086.3710259623504</v>
+        <v>4493.1700146264238</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>8.8455411303821299E-2</v>
+        <v>0.15182216668004084</v>
       </c>
       <c r="B35">
-        <v>1.4685727360143948</v>
+        <v>1.4645865800590079</v>
       </c>
       <c r="C35">
-        <v>3.9303947292601831E-4</v>
+        <v>3.0668818454028318E-4</v>
       </c>
       <c r="D35">
-        <v>0.20338595069153148</v>
+        <v>0.46635563283223319</v>
       </c>
       <c r="E35">
-        <v>2.1470275375237642</v>
+        <v>2.1351743308604454</v>
       </c>
       <c r="F35">
-        <v>1256.0907954931827</v>
+        <v>750.26758202221936</v>
       </c>
       <c r="G35">
-        <v>2621.4035213999691</v>
+        <v>2644.4282394623474</v>
       </c>
       <c r="H35">
-        <v>3.3938682678865342</v>
+        <v>3.3968814196629404</v>
       </c>
       <c r="I35">
-        <v>0.8772347995205847</v>
+        <v>0.87670312472160083</v>
       </c>
       <c r="J35">
-        <v>281.53883396534809</v>
+        <v>425.46759994309639</v>
       </c>
       <c r="K35">
-        <v>914.73782962993357</v>
+        <v>910.38386069571015</v>
       </c>
       <c r="L35">
-        <v>10225.048953088968</v>
+        <v>7857.800973782194</v>
       </c>
       <c r="M35">
-        <v>14771.405436914134</v>
+        <v>14752.269136092864</v>
       </c>
       <c r="N35">
-        <v>257780.394966711</v>
+        <v>257502.48225225459</v>
       </c>
       <c r="O35">
-        <v>1923765.4023733065</v>
+        <v>1921324.6318921603</v>
       </c>
       <c r="P35">
-        <v>0.3074869795307893</v>
+        <v>0.70299391686642176</v>
       </c>
       <c r="Q35">
-        <v>3.2459617305813206</v>
+        <v>3.2186049880611192</v>
       </c>
       <c r="R35">
-        <v>54.347388701388844</v>
+        <v>32.136701481188325</v>
       </c>
       <c r="S35">
-        <v>113.42049207897951</v>
+        <v>113.27052235279582</v>
       </c>
       <c r="T35">
-        <v>5129.2221697033829</v>
+        <v>4843.6346939191744</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>5.9445400340919205E-2</v>
+        <v>0.11748349823327076</v>
       </c>
       <c r="B36">
-        <v>1.4704898967648548</v>
+        <v>1.4665384869744802</v>
       </c>
       <c r="C36">
-        <v>4.4238769592904093E-4</v>
+        <v>3.4980443888649171E-4</v>
       </c>
       <c r="D36">
-        <v>9.6440805824615006E-2</v>
+        <v>0.32312535489504274</v>
       </c>
       <c r="E36">
-        <v>2.1341347236183812</v>
+        <v>2.1405211459450708</v>
       </c>
       <c r="F36">
-        <v>1604.5842849462842</v>
+        <v>984.29481286318946</v>
       </c>
       <c r="G36">
-        <v>2587.9035356628542</v>
+        <v>2632.5486851690825</v>
       </c>
       <c r="H36">
-        <v>3.3924325667762005</v>
+        <v>3.3954012046101241</v>
       </c>
       <c r="I36">
-        <v>0.8774925140852089</v>
+        <v>0.87696253419722614</v>
       </c>
       <c r="J36">
-        <v>194.05518341048307</v>
+        <v>354.50293662210981</v>
       </c>
       <c r="K36">
-        <v>912.86330219216984</v>
+        <v>912.41849438371923</v>
       </c>
       <c r="L36">
-        <v>11588.146793192964</v>
+        <v>9025.334666823288</v>
       </c>
       <c r="M36">
-        <v>14716.575497020163</v>
+        <v>14760.087173497959</v>
       </c>
       <c r="N36">
-        <v>257913.14200193607</v>
+        <v>257638.83387667919</v>
       </c>
       <c r="O36">
-        <v>1924918.626022611</v>
+        <v>1922527.5225696131</v>
       </c>
       <c r="P36">
-        <v>0.14600812473601496</v>
+        <v>0.48778489710853778</v>
       </c>
       <c r="Q36">
-        <v>3.2310079355434227</v>
+        <v>3.2312966813533213</v>
       </c>
       <c r="R36">
-        <v>69.761466425236307</v>
+        <v>42.369570730144261</v>
       </c>
       <c r="S36">
-        <v>112.51259738028547</v>
+        <v>113.31966425014886</v>
       </c>
       <c r="T36">
-        <v>5207.2737390463662</v>
+        <v>5086.3710259623504</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>3.7203782112081064E-2</v>
+        <v>8.8455411303821299E-2</v>
       </c>
       <c r="B37">
-        <v>1.4720929322797647</v>
+        <v>1.4685727360143948</v>
       </c>
       <c r="C37">
-        <v>4.8448728271912082E-4</v>
+        <v>3.9303947292601831E-4</v>
       </c>
       <c r="D37">
-        <v>3.6377776821509701E-2</v>
+        <v>0.20338595069153148</v>
       </c>
       <c r="E37">
-        <v>2.1379219970320973</v>
+        <v>2.1470275375237642</v>
       </c>
       <c r="F37">
-        <v>1949.1126698571309</v>
+        <v>1256.0907954931827</v>
       </c>
       <c r="G37">
-        <v>2577.7526663055282</v>
+        <v>2621.4035213999691</v>
       </c>
       <c r="H37">
-        <v>3.3912387579951133</v>
+        <v>3.3938682678865342</v>
       </c>
       <c r="I37">
-        <v>0.87770837706111526</v>
+        <v>0.8772347995205847</v>
       </c>
       <c r="J37">
-        <v>119.27811222217164</v>
+        <v>281.53883396534809</v>
       </c>
       <c r="K37">
-        <v>914.40503302858338</v>
+        <v>914.73782962993357</v>
       </c>
       <c r="L37">
-        <v>12800.680612430793</v>
+        <v>10225.048953088968</v>
       </c>
       <c r="M37">
-        <v>14720.928787478351</v>
+        <v>14771.405436914134</v>
       </c>
       <c r="N37">
-        <v>258023.53181083649</v>
+        <v>257780.394966711</v>
       </c>
       <c r="O37">
-        <v>1925873.8179215167</v>
+        <v>1923765.4023733065</v>
       </c>
       <c r="P37">
-        <v>5.5139420639026597E-2</v>
+        <v>0.3074869795307893</v>
       </c>
       <c r="Q37">
-        <v>3.2405438316416704</v>
+        <v>3.2459617305813206</v>
       </c>
       <c r="R37">
-        <v>85.082118369677687</v>
+        <v>54.347388701388844</v>
       </c>
       <c r="S37">
-        <v>112.52333478414839</v>
+        <v>113.42049207897951</v>
       </c>
       <c r="T37">
-        <v>4978.8165500872365</v>
+        <v>5129.2221697033829</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1.756360382988769E-2</v>
+        <v>5.9445400340919205E-2</v>
       </c>
       <c r="B38">
-        <v>1.4706626196011097</v>
+        <v>1.4704898967648548</v>
       </c>
       <c r="C38">
-        <v>5.2410837748264087E-4</v>
+        <v>4.4238769592904093E-4</v>
       </c>
       <c r="D38">
-        <v>6.5879057024957445E-3</v>
+        <v>9.6440805824615006E-2</v>
       </c>
       <c r="E38">
-        <v>2.1363675380335252</v>
+        <v>2.1341347236183812</v>
       </c>
       <c r="F38">
-        <v>2309.4600389877951</v>
+        <v>1604.5842849462842</v>
       </c>
       <c r="G38">
-        <v>2589.0179461419762</v>
+        <v>2587.9035356628542</v>
       </c>
       <c r="H38">
-        <v>3.3923036465484913</v>
+        <v>3.3924325667762005</v>
       </c>
       <c r="I38">
-        <v>0.87751576385459062</v>
+        <v>0.8774925140852089</v>
       </c>
       <c r="J38">
-        <v>50.723129056605828</v>
+        <v>194.05518341048307</v>
       </c>
       <c r="K38">
-        <v>913.41961795154066</v>
+        <v>912.86330219216984</v>
       </c>
       <c r="L38">
-        <v>13905.732463627561</v>
+        <v>11588.146793192964</v>
       </c>
       <c r="M38">
-        <v>14723.334333414601</v>
+        <v>14716.575497020163</v>
       </c>
       <c r="N38">
-        <v>257925.06458811095</v>
+        <v>257913.14200193607</v>
       </c>
       <c r="O38">
-        <v>1925021.92794295</v>
+        <v>1924918.626022611</v>
       </c>
       <c r="P38">
-        <v>9.9751291151239478E-3</v>
+        <v>0.14600812473601496</v>
       </c>
       <c r="Q38">
-        <v>3.2347976719172915</v>
+        <v>3.2310079355434227</v>
       </c>
       <c r="R38">
-        <v>100.45048970253399</v>
+        <v>69.761466425236307</v>
       </c>
       <c r="S38">
-        <v>112.60992446208101</v>
+        <v>112.51259738028547</v>
       </c>
       <c r="T38">
-        <v>5054.8074112758777</v>
+        <v>5207.2737390463662</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>0.88646977874028376</v>
+        <v>3.7203782112081064E-2</v>
       </c>
       <c r="B39">
-        <v>1.4587596241605676</v>
+        <v>1.4720929322797647</v>
       </c>
       <c r="C39">
-        <v>7.8919203062021904E-5</v>
+        <v>4.8448728271912082E-4</v>
       </c>
       <c r="D39">
-        <v>2.0735263233383296</v>
+        <v>3.6377776821509701E-2</v>
       </c>
       <c r="E39">
-        <v>2.6231341637807835</v>
+        <v>2.1379219970320973</v>
       </c>
       <c r="F39">
-        <v>40.814158525314497</v>
+        <v>1949.1126698571309</v>
       </c>
       <c r="G39">
-        <v>3317.7998497746094</v>
+        <v>2577.7526663055282</v>
       </c>
       <c r="H39">
-        <v>3.4013579445670294</v>
+        <v>3.3912387579951133</v>
       </c>
       <c r="I39">
-        <v>0.87593972285140909</v>
+        <v>0.87770837706111526</v>
       </c>
       <c r="J39">
-        <v>894.51009690317335</v>
+        <v>119.27811222217164</v>
       </c>
       <c r="K39">
-        <v>1006.0990117639036</v>
+        <v>914.40503302858338</v>
       </c>
       <c r="L39">
-        <v>1817.4671793749353</v>
+        <v>12800.680612430793</v>
       </c>
       <c r="M39">
-        <v>16386.501610528205</v>
+        <v>14720.928787478351</v>
       </c>
       <c r="N39">
-        <v>257093.27954821454</v>
+        <v>258023.53181083649</v>
       </c>
       <c r="O39">
-        <v>1917639.3363113375</v>
+        <v>1925873.8179215167</v>
       </c>
       <c r="P39">
-        <v>3.1122879402674819</v>
+        <v>5.5139420639026597E-2</v>
       </c>
       <c r="Q39">
-        <v>3.9372294104734538</v>
+        <v>3.2405438316416704</v>
       </c>
       <c r="R39">
-        <v>1.7225277379107724</v>
+        <v>85.082118369677687</v>
       </c>
       <c r="S39">
-        <v>140.02499320250095</v>
+        <v>112.52333478414839</v>
       </c>
       <c r="T39">
-        <v>2516.2165474943881</v>
+        <v>4978.8165500872365</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>0.55526316016872435</v>
+        <v>1.756360382988769E-2</v>
       </c>
       <c r="B40">
-        <v>1.4592999735201244</v>
+        <v>1.4706626196011097</v>
       </c>
       <c r="C40">
-        <v>1.1780553031377662E-4</v>
+        <v>5.2410837748264087E-4</v>
       </c>
       <c r="D40">
-        <v>1.7494928245264587</v>
+        <v>6.5879057024957445E-3</v>
       </c>
       <c r="E40">
-        <v>2.6210697609564622</v>
+        <v>2.1363675380335252</v>
       </c>
       <c r="F40">
-        <v>110.81724992075756</v>
+        <v>2309.4600389877951</v>
       </c>
       <c r="G40">
-        <v>3308.7060877160998</v>
+        <v>2589.0179461419762</v>
       </c>
       <c r="H40">
-        <v>3.4009391549932961</v>
+        <v>3.3923036465484913</v>
       </c>
       <c r="I40">
-        <v>0.87601005133163656</v>
+        <v>0.87751576385459062</v>
       </c>
       <c r="J40">
-        <v>821.87415791625313</v>
+        <v>50.723129056605828</v>
       </c>
       <c r="K40">
-        <v>1005.9781142087852</v>
+        <v>913.41961795154066</v>
       </c>
       <c r="L40">
-        <v>2997.1139950274232</v>
+        <v>13905.732463627561</v>
       </c>
       <c r="M40">
-        <v>16376.785950192776</v>
+        <v>14723.334333414601</v>
       </c>
       <c r="N40">
-        <v>257131.40604128179</v>
+        <v>257925.06458811095</v>
       </c>
       <c r="O40">
-        <v>1917986.7381649672</v>
+        <v>1925021.92794295</v>
       </c>
       <c r="P40">
-        <v>2.6269724956977991</v>
+        <v>9.9751291151239478E-3</v>
       </c>
       <c r="Q40">
-        <v>3.9356995780771755</v>
+        <v>3.2347976719172915</v>
       </c>
       <c r="R40">
-        <v>4.6833964596561435</v>
+        <v>100.45048970253399</v>
       </c>
       <c r="S40">
-        <v>139.83366658469751</v>
+        <v>112.60992446208101</v>
       </c>
       <c r="T40">
-        <v>3176.9244022210441</v>
+        <v>5054.8074112758777</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>0.39819321986038814</v>
+        <v>0.88646977874028376</v>
       </c>
       <c r="B41">
-        <v>1.4603084665857369</v>
+        <v>1.4587596241605676</v>
       </c>
       <c r="C41">
-        <v>1.5746289990127037E-4</v>
+        <v>7.8919203062021904E-5</v>
       </c>
       <c r="D41">
-        <v>1.4619128116154356</v>
+        <v>2.0735263233383296</v>
       </c>
       <c r="E41">
-        <v>2.6243371245160887</v>
+        <v>2.6231341637807835</v>
       </c>
       <c r="F41">
-        <v>212.34151505613664</v>
+        <v>40.814158525314497</v>
       </c>
       <c r="G41">
-        <v>3300.7644700240735</v>
+        <v>3317.7998497746094</v>
       </c>
       <c r="H41">
-        <v>3.4001594839423808</v>
+        <v>3.4013579445670294</v>
       </c>
       <c r="I41">
-        <v>0.87614151600973611</v>
+        <v>0.87593972285140909</v>
       </c>
       <c r="J41">
-        <v>751.67733559934049</v>
+        <v>894.51009690317335</v>
       </c>
       <c r="K41">
-        <v>1007.1184026146443</v>
+        <v>1006.0990117639036</v>
       </c>
       <c r="L41">
-        <v>4154.7774801514788</v>
+        <v>1817.4671793749353</v>
       </c>
       <c r="M41">
-        <v>16380.89328361114</v>
+        <v>16386.501610528205</v>
       </c>
       <c r="N41">
-        <v>257202.43863767342</v>
+        <v>257093.27954821454</v>
       </c>
       <c r="O41">
-        <v>1918632.181990548</v>
+        <v>1917639.3363113375</v>
       </c>
       <c r="P41">
-        <v>2.1967863906985645</v>
+        <v>3.1122879402674819</v>
       </c>
       <c r="Q41">
-        <v>3.9435375584207493</v>
+        <v>3.9372294104734538</v>
       </c>
       <c r="R41">
-        <v>8.9971262191926016</v>
+        <v>1.7225277379107724</v>
       </c>
       <c r="S41">
-        <v>139.85675174627005</v>
+        <v>140.02499320250095</v>
       </c>
       <c r="T41">
-        <v>3729.5564924506848</v>
+        <v>2516.2165474943881</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>0.28880856699535451</v>
+        <v>0.55526316016872435</v>
       </c>
       <c r="B42">
-        <v>1.4626462608867279</v>
+        <v>1.4592999735201244</v>
       </c>
       <c r="C42">
-        <v>1.9775736369099308E-4</v>
+        <v>1.1780553031377662E-4</v>
       </c>
       <c r="D42">
-        <v>1.1417557900788262</v>
+        <v>1.7494928245264587</v>
       </c>
       <c r="E42">
-        <v>2.60003743978739</v>
+        <v>2.6210697609564622</v>
       </c>
       <c r="F42">
-        <v>368.99626621082621</v>
+        <v>110.81724992075756</v>
       </c>
       <c r="G42">
-        <v>3242.7246787209924</v>
+        <v>3308.7060877160998</v>
       </c>
       <c r="H42">
-        <v>3.3983621720084982</v>
+        <v>3.4009391549932961</v>
       </c>
       <c r="I42">
-        <v>0.87644749455132021</v>
+        <v>0.87601005133163656</v>
       </c>
       <c r="J42">
-        <v>665.07384657275622</v>
+        <v>821.87415791625313</v>
       </c>
       <c r="K42">
-        <v>1003.6286709995904</v>
+        <v>1005.9781142087852</v>
       </c>
       <c r="L42">
-        <v>5495.395148737548</v>
+        <v>2997.1139950274232</v>
       </c>
       <c r="M42">
-        <v>16290.821254969274</v>
+        <v>16376.785950192776</v>
       </c>
       <c r="N42">
-        <v>257366.59701068926</v>
+        <v>257131.40604128179</v>
       </c>
       <c r="O42">
-        <v>1920112.9686466858</v>
+        <v>1917986.7381649672</v>
       </c>
       <c r="P42">
-        <v>1.7186504640954279</v>
+        <v>2.6269724956977991</v>
       </c>
       <c r="Q42">
-        <v>3.9137577329453084</v>
+        <v>3.9356995780771755</v>
       </c>
       <c r="R42">
-        <v>15.727912020745833</v>
+        <v>4.6833964596561435</v>
       </c>
       <c r="S42">
-        <v>138.2162724250588</v>
+        <v>139.83366658469751</v>
       </c>
       <c r="T42">
-        <v>3931.5149143981353</v>
+        <v>3176.9244022210441</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>0.28657640137829243</v>
+        <v>0.39819321986038814</v>
       </c>
       <c r="B43">
-        <v>1.4626139677167496</v>
+        <v>1.4603084665857369</v>
       </c>
       <c r="C43">
-        <v>1.9810234322424383E-4</v>
+        <v>1.5746289990127037E-4</v>
       </c>
       <c r="D43">
-        <v>1.1411276155411503</v>
+        <v>1.4619128116154356</v>
       </c>
       <c r="E43">
-        <v>2.6156566044444047</v>
+        <v>2.6243371245160887</v>
       </c>
       <c r="F43">
-        <v>376.03306263481812</v>
+        <v>212.34151505613664</v>
       </c>
       <c r="G43">
-        <v>3262.5842568000267</v>
+        <v>3300.7644700240735</v>
       </c>
       <c r="H43">
-        <v>3.3983869011774108</v>
+        <v>3.4001594839423808</v>
       </c>
       <c r="I43">
-        <v>0.87644325459899763</v>
+        <v>0.87614151600973611</v>
       </c>
       <c r="J43">
-        <v>664.88003746243396</v>
+        <v>751.67733559934049</v>
       </c>
       <c r="K43">
-        <v>1006.6223055397328</v>
+        <v>1007.1184026146443</v>
       </c>
       <c r="L43">
-        <v>5547.2899191041843</v>
+        <v>4154.7774801514788</v>
       </c>
       <c r="M43">
-        <v>16339.874488697773</v>
+        <v>16380.89328361114</v>
       </c>
       <c r="N43">
-        <v>257364.33316816451</v>
+        <v>257202.43863767342</v>
       </c>
       <c r="O43">
-        <v>1920092.6662570601</v>
+        <v>1918632.181990548</v>
       </c>
       <c r="P43">
-        <v>1.7176640553654243</v>
+        <v>2.1967863906985645</v>
       </c>
       <c r="Q43">
-        <v>3.9371751848304259</v>
+        <v>3.9435375584207493</v>
       </c>
       <c r="R43">
-        <v>16.026531420788796</v>
+        <v>8.9971262191926016</v>
       </c>
       <c r="S43">
-        <v>139.05136090481366</v>
+        <v>139.85675174627005</v>
       </c>
       <c r="T43">
-        <v>4221.2822872508423</v>
+        <v>3729.5564924506848</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>0.17794675907397492</v>
+        <v>0.28880856699535451</v>
       </c>
       <c r="B44">
-        <v>1.4673987781576767</v>
+        <v>1.4626462608867279</v>
       </c>
       <c r="C44">
-        <v>2.7670658429890569E-4</v>
+        <v>1.9775736369099308E-4</v>
       </c>
       <c r="D44">
-        <v>0.69665592150615818</v>
+        <v>1.1417557900788262</v>
       </c>
       <c r="E44">
-        <v>2.6152037638732319</v>
+        <v>2.60003743978739</v>
       </c>
       <c r="F44">
-        <v>750.73694155473447</v>
+        <v>368.99626621082621</v>
       </c>
       <c r="G44">
-        <v>3206.4511447577838</v>
+        <v>3242.7246787209924</v>
       </c>
       <c r="H44">
-        <v>3.3947517146171635</v>
+        <v>3.3983621720084982</v>
       </c>
       <c r="I44">
-        <v>0.87707748055462054</v>
+        <v>0.87644749455132021</v>
       </c>
       <c r="J44">
-        <v>520.7522689916957</v>
+        <v>665.07384657275622</v>
       </c>
       <c r="K44">
-        <v>1008.9619089613489</v>
+        <v>1003.6286709995904</v>
       </c>
       <c r="L44">
-        <v>7891.790732185179</v>
+        <v>5495.395148737548</v>
       </c>
       <c r="M44">
-        <v>16309.625190448891</v>
+        <v>16290.821254969274</v>
       </c>
       <c r="N44">
-        <v>257698.77828445402</v>
+        <v>257366.59701068926</v>
       </c>
       <c r="O44">
-        <v>1923052.9048272597</v>
+        <v>1920112.9686466858</v>
       </c>
       <c r="P44">
-        <v>1.0523252281804039</v>
+        <v>1.7186504640954279</v>
       </c>
       <c r="Q44">
-        <v>3.950364609843946</v>
+        <v>3.9137577329453084</v>
       </c>
       <c r="R44">
-        <v>32.386192186531801</v>
+        <v>15.727912020745833</v>
       </c>
       <c r="S44">
-        <v>138.32374199648919</v>
+        <v>138.2162724250588</v>
       </c>
       <c r="T44">
-        <v>4922.8546734033316</v>
+        <v>3931.5149143981353</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>0.13810565034590053</v>
+        <v>0.28657640137829243</v>
       </c>
       <c r="B45">
-        <v>1.4703839661972853</v>
+        <v>1.4626139677167496</v>
       </c>
       <c r="C45">
-        <v>3.2020799767316211E-4</v>
+        <v>1.9810234322424383E-4</v>
       </c>
       <c r="D45">
-        <v>0.50089103587862782</v>
+        <v>1.1411276155411503</v>
       </c>
       <c r="E45">
-        <v>2.6296571889232254</v>
+        <v>2.6156566044444047</v>
       </c>
       <c r="F45">
-        <v>1013.1492842288044</v>
+        <v>376.03306263481812</v>
       </c>
       <c r="G45">
-        <v>3189.9896317370735</v>
+        <v>3262.5842568000267</v>
       </c>
       <c r="H45">
-        <v>3.3925116680783955</v>
+        <v>3.3983869011774108</v>
       </c>
       <c r="I45">
-        <v>0.8774782568423336</v>
+        <v>0.87644325459899763</v>
       </c>
       <c r="J45">
-        <v>442.22516073447395</v>
+        <v>664.88003746243396</v>
       </c>
       <c r="K45">
-        <v>1013.2611390542934</v>
+        <v>1006.6223055397328</v>
       </c>
       <c r="L45">
-        <v>9206.7100055017199</v>
+        <v>5547.2899191041843</v>
       </c>
       <c r="M45">
-        <v>16336.62644964283</v>
+        <v>16339.874488697773</v>
       </c>
       <c r="N45">
-        <v>257905.82669024103</v>
+        <v>257364.33316816451</v>
       </c>
       <c r="O45">
-        <v>1924855.224010519</v>
+        <v>1920092.6662570601</v>
       </c>
       <c r="P45">
-        <v>0.75827326313768495</v>
+        <v>1.7176640553654243</v>
       </c>
       <c r="Q45">
-        <v>3.9809032199599135</v>
+        <v>3.9371751848304259</v>
       </c>
       <c r="R45">
-        <v>44.036303649267211</v>
+        <v>16.026531420788796</v>
       </c>
       <c r="S45">
-        <v>138.65217520053406</v>
+        <v>139.05136090481366</v>
       </c>
       <c r="T45">
-        <v>5112.8828529350267</v>
+        <v>4221.2822872508423</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>0.11240493979820555</v>
+        <v>0.17794675907397492</v>
       </c>
       <c r="B46">
-        <v>1.4727872211781059</v>
+        <v>1.4673987781576767</v>
       </c>
       <c r="C46">
-        <v>3.561480698216814E-4</v>
+        <v>2.7670658429890569E-4</v>
       </c>
       <c r="D46">
-        <v>0.36883013404514858</v>
+        <v>0.69665592150615818</v>
       </c>
       <c r="E46">
-        <v>2.638811870308758</v>
+        <v>2.6152037638732319</v>
       </c>
       <c r="F46">
-        <v>1244.313565718249</v>
+        <v>750.73694155473447</v>
       </c>
       <c r="G46">
-        <v>3173.8537931492656</v>
+        <v>3206.4511447577838</v>
       </c>
       <c r="H46">
-        <v>3.3907235792315782</v>
+        <v>3.3947517146171635</v>
       </c>
       <c r="I46">
-        <v>0.87780187779992713</v>
+        <v>0.87707748055462054</v>
       </c>
       <c r="J46">
-        <v>379.93235586634262</v>
+        <v>520.7522689916957</v>
       </c>
       <c r="K46">
-        <v>1016.2423676210545</v>
+        <v>1008.9619089613489</v>
       </c>
       <c r="L46">
-        <v>10237.73632272786</v>
+        <v>7891.790732185179</v>
       </c>
       <c r="M46">
-        <v>16350.554301351502</v>
+        <v>16309.625190448891</v>
       </c>
       <c r="N46">
-        <v>258071.14756215995</v>
+        <v>257698.77828445402</v>
       </c>
       <c r="O46">
-        <v>1926285.1472091784</v>
+        <v>1923052.9048272597</v>
       </c>
       <c r="P46">
-        <v>0.55933643259900212</v>
+        <v>1.0523252281804039</v>
       </c>
       <c r="Q46">
-        <v>4.0017977968625678</v>
+        <v>3.950364609843946</v>
       </c>
       <c r="R46">
-        <v>54.411074687230482</v>
+        <v>32.386192186531801</v>
       </c>
       <c r="S46">
-        <v>138.7855927502581</v>
+        <v>138.32374199648919</v>
       </c>
       <c r="T46">
-        <v>5120.6612562036571</v>
+        <v>4922.8546734033316</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>8.4036323704782742E-2</v>
+        <v>0.13810565034590053</v>
       </c>
       <c r="B47">
-        <v>1.4755063610376598</v>
+        <v>1.4703839661972853</v>
       </c>
       <c r="C47">
-        <v>3.9968052974357737E-4</v>
+        <v>3.2020799767316211E-4</v>
       </c>
       <c r="D47">
-        <v>0.22431465792085983</v>
+        <v>0.50089103587862782</v>
       </c>
       <c r="E47">
-        <v>2.6181437069399234</v>
+        <v>2.6296571889232254</v>
       </c>
       <c r="F47">
-        <v>1560.22860761577</v>
+        <v>1013.1492842288044</v>
       </c>
       <c r="G47">
-        <v>3118.8082240754779</v>
+        <v>3189.9896317370735</v>
       </c>
       <c r="H47">
-        <v>3.3887167318607934</v>
+        <v>3.3925116680783955</v>
       </c>
       <c r="I47">
-        <v>0.87816745309614219</v>
+        <v>0.8774782568423336</v>
       </c>
       <c r="J47">
-        <v>296.69439495749015</v>
+        <v>442.22516073447395</v>
       </c>
       <c r="K47">
-        <v>1013.6248646687976</v>
+        <v>1013.2611390542934</v>
       </c>
       <c r="L47">
-        <v>11507.758766001649</v>
+        <v>9206.7100055017199</v>
       </c>
       <c r="M47">
-        <v>16270.127877988858</v>
+        <v>16336.62644964283</v>
       </c>
       <c r="N47">
-        <v>258256.33478331167</v>
+        <v>257905.82669024103</v>
       </c>
       <c r="O47">
-        <v>1927883.6048918718</v>
+        <v>1924855.224010519</v>
       </c>
       <c r="P47">
-        <v>0.34085345504903153</v>
+        <v>0.75827326313768495</v>
       </c>
       <c r="Q47">
-        <v>3.9783549438851189</v>
+        <v>3.9809032199599135</v>
       </c>
       <c r="R47">
-        <v>68.691134402751061</v>
+        <v>44.036303649267211</v>
       </c>
       <c r="S47">
-        <v>137.30966978214292</v>
+        <v>138.65217520053406</v>
       </c>
       <c r="T47">
-        <v>5465.6460503808821</v>
+        <v>5112.8828529350267</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>6.3273223321943073E-2</v>
+        <v>0.11240493979820555</v>
       </c>
       <c r="B48">
-        <v>1.4781058010277344</v>
+        <v>1.4727872211781059</v>
       </c>
       <c r="C48">
-        <v>4.3585033029245723E-4</v>
+        <v>3.561480698216814E-4</v>
       </c>
       <c r="D48">
-        <v>0.13290845100528448</v>
+        <v>0.36883013404514858</v>
       </c>
       <c r="E48">
-        <v>2.638055610601274</v>
+        <v>2.638811870308758</v>
       </c>
       <c r="F48">
-        <v>1872.8685533149244</v>
+        <v>1244.313565718249</v>
       </c>
       <c r="G48">
-        <v>3113.8394098431659</v>
+        <v>3173.8537931492656</v>
       </c>
       <c r="H48">
-        <v>3.3868142375917896</v>
+        <v>3.3907235792315782</v>
       </c>
       <c r="I48">
-        <v>0.8785148527377955</v>
+        <v>0.87780187779992713</v>
       </c>
       <c r="J48">
-        <v>228.6734540658602</v>
+        <v>379.93235586634262</v>
       </c>
       <c r="K48">
-        <v>1018.782383458159</v>
+        <v>1016.2423676210545</v>
       </c>
       <c r="L48">
-        <v>12654.011541581283</v>
+        <v>10237.73632272786</v>
       </c>
       <c r="M48">
-        <v>16316.337607467229</v>
+        <v>16350.554301351502</v>
       </c>
       <c r="N48">
-        <v>258431.1515114049</v>
+        <v>258071.14756215995</v>
       </c>
       <c r="O48">
-        <v>1929395.4183494567</v>
+        <v>1926285.1472091784</v>
       </c>
       <c r="P48">
-        <v>0.20234228067549118</v>
+        <v>0.55933643259900212</v>
       </c>
       <c r="Q48">
-        <v>4.0162245873786722</v>
+        <v>4.0017977968625678</v>
       </c>
       <c r="R48">
-        <v>82.991804879195726</v>
+        <v>54.411074687230482</v>
       </c>
       <c r="S48">
-        <v>137.98253607785355</v>
+        <v>138.7855927502581</v>
       </c>
       <c r="T48">
-        <v>5598.5263868543989</v>
+        <v>5120.6612562036571</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>3.7800564046957703E-2</v>
+        <v>8.4036323704782742E-2</v>
       </c>
       <c r="B49">
-        <v>1.4797503014533124</v>
+        <v>1.4755063610376598</v>
       </c>
       <c r="C49">
-        <v>4.8407213843019547E-4</v>
+        <v>3.9968052974357737E-4</v>
       </c>
       <c r="D49">
-        <v>4.5540202448268674E-2</v>
+        <v>0.22431465792085983</v>
       </c>
       <c r="E49">
-        <v>2.6237231511820958</v>
+        <v>2.6181437069399234</v>
       </c>
       <c r="F49">
-        <v>2321.1972263012976</v>
+        <v>1560.22860761577</v>
       </c>
       <c r="G49">
-        <v>3079.0643964595815</v>
+        <v>3118.8082240754779</v>
       </c>
       <c r="H49">
-        <v>3.38561867685172</v>
+        <v>3.3887167318607934</v>
       </c>
       <c r="I49">
-        <v>0.87873290816073235</v>
+        <v>0.87816745309614219</v>
       </c>
       <c r="J49">
-        <v>133.96429699786577</v>
+        <v>296.69439495749015</v>
       </c>
       <c r="K49">
-        <v>1016.8352533100615</v>
+        <v>1013.6248646687976</v>
       </c>
       <c r="L49">
-        <v>14119.705079586463</v>
+        <v>11507.758766001649</v>
       </c>
       <c r="M49">
-        <v>16262.188475693469</v>
+        <v>16270.127877988858</v>
       </c>
       <c r="N49">
-        <v>258540.46120066073</v>
+        <v>258256.33478331167</v>
       </c>
       <c r="O49">
-        <v>1930344.9685693816</v>
+        <v>1927883.6048918718</v>
       </c>
       <c r="P49">
-        <v>6.9414407272228251E-2</v>
+        <v>0.34085345504903153</v>
       </c>
       <c r="Q49">
-        <v>3.9991958224738187</v>
+        <v>3.9783549438851189</v>
       </c>
       <c r="R49">
-        <v>103.28002236939756</v>
+        <v>68.691134402751061</v>
       </c>
       <c r="S49">
-        <v>137.00078396607697</v>
+        <v>137.30966978214292</v>
       </c>
       <c r="T49">
-        <v>5675.3112025342143</v>
+        <v>5465.6460503808821</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>2.2180581769566575E-2</v>
+        <v>6.3273223321943073E-2</v>
       </c>
       <c r="B50">
-        <v>1.4799231344123469</v>
+        <v>1.4781058010277344</v>
       </c>
       <c r="C50">
-        <v>5.1580738610579303E-4</v>
+        <v>4.3585033029245723E-4</v>
       </c>
       <c r="D50">
-        <v>1.3826983271040663E-2</v>
+        <v>0.13290845100528448</v>
       </c>
       <c r="E50">
-        <v>2.6465996561160994</v>
+        <v>2.638055610601274</v>
       </c>
       <c r="F50">
-        <v>2671.5238099399708</v>
+        <v>1872.8685533149244</v>
       </c>
       <c r="G50">
-        <v>3104.0266145176533</v>
+        <v>3113.8394098431659</v>
       </c>
       <c r="H50">
-        <v>3.385493386175102</v>
+        <v>3.3868142375917896</v>
       </c>
       <c r="I50">
-        <v>0.87875572888963949</v>
+        <v>0.8785148527377955</v>
       </c>
       <c r="J50">
-        <v>73.823094939131735</v>
+        <v>228.6734540658602</v>
       </c>
       <c r="K50">
-        <v>1021.3454433043569</v>
+        <v>1018.782383458159</v>
       </c>
       <c r="L50">
-        <v>15151.427837658333</v>
+        <v>12654.011541581283</v>
       </c>
       <c r="M50">
-        <v>16331.901625588152</v>
+        <v>16316.337607467229</v>
       </c>
       <c r="N50">
-        <v>258551.8868223168</v>
+        <v>258431.1515114049</v>
       </c>
       <c r="O50">
-        <v>1930444.4921488955</v>
+        <v>1929395.4183494567</v>
       </c>
       <c r="P50">
-        <v>2.1078358442370711E-2</v>
+        <v>0.20234228067549118</v>
       </c>
       <c r="Q50">
-        <v>4.0345732045477174</v>
+        <v>4.0162245873786722</v>
       </c>
       <c r="R50">
-        <v>118.91860473243871</v>
+        <v>82.991804879195726</v>
       </c>
       <c r="S50">
-        <v>138.17077455098143</v>
+        <v>137.98253607785355</v>
       </c>
       <c r="T50">
-        <v>5633.4222177895008</v>
+        <v>5598.5263868543989</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1.0073977069020488</v>
+        <v>3.7800564046957703E-2</v>
       </c>
       <c r="B51">
-        <v>1.4593968325362969</v>
+        <v>1.4797503014533124</v>
       </c>
       <c r="C51">
-        <v>7.1744085970149981E-5</v>
+        <v>4.8407213843019547E-4</v>
       </c>
       <c r="D51">
-        <v>2.6049711760024516</v>
+        <v>4.5540202448268674E-2</v>
       </c>
       <c r="E51">
-        <v>3.1887802454762646</v>
+        <v>2.6237231511820958</v>
       </c>
       <c r="F51">
-        <v>37.212236062622978</v>
+        <v>2321.1972263012976</v>
       </c>
       <c r="G51">
-        <v>4023.943717105657</v>
+        <v>3079.0643964595815</v>
       </c>
       <c r="H51">
-        <v>3.4008641622164499</v>
+        <v>3.38561867685172</v>
       </c>
       <c r="I51">
-        <v>0.87602266564276354</v>
+        <v>0.87873290816073235</v>
       </c>
       <c r="J51">
-        <v>1002.9331487077394</v>
+        <v>133.96429699786577</v>
       </c>
       <c r="K51">
-        <v>1109.6418305002767</v>
+        <v>1016.8352533100615</v>
       </c>
       <c r="L51">
-        <v>1737.0130824774292</v>
+        <v>14119.705079586463</v>
       </c>
       <c r="M51">
-        <v>18062.844972544473</v>
+        <v>16262.188475693469</v>
       </c>
       <c r="N51">
-        <v>257138.23511450557</v>
+        <v>258540.46120066073</v>
       </c>
       <c r="O51">
-        <v>1918048.8960986331</v>
+        <v>1930344.9685693816</v>
       </c>
       <c r="P51">
-        <v>3.9118060382148028</v>
+        <v>6.9414407272228251E-2</v>
       </c>
       <c r="Q51">
-        <v>4.7884943732607326</v>
+        <v>3.9991958224738187</v>
       </c>
       <c r="R51">
-        <v>1.5730644066659831</v>
+        <v>103.28002236939756</v>
       </c>
       <c r="S51">
-        <v>170.10325918479472</v>
+        <v>137.00078396607697</v>
       </c>
       <c r="T51">
-        <v>2154.7472024477393</v>
+        <v>5675.3112025342143</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>0.62738178974950487</v>
+        <v>2.2180581769566575E-2</v>
       </c>
       <c r="B52">
-        <v>1.4603039232599628</v>
+        <v>1.4799231344123469</v>
       </c>
       <c r="C52">
-        <v>1.0811026496151324E-4</v>
+        <v>5.1580738610579303E-4</v>
       </c>
       <c r="D52">
-        <v>2.2405327204260455</v>
+        <v>1.3826983271040663E-2</v>
       </c>
       <c r="E52">
-        <v>3.1862316358817804</v>
+        <v>2.6465996561160994</v>
       </c>
       <c r="F52">
-        <v>104.44130404212824</v>
+        <v>2671.5238099399708</v>
       </c>
       <c r="G52">
-        <v>4007.5540732928312</v>
+        <v>3104.0266145176533</v>
       </c>
       <c r="H52">
-        <v>3.4001629906565478</v>
+        <v>3.385493386175102</v>
       </c>
       <c r="I52">
-        <v>0.87614092310617619</v>
+        <v>0.87875572888963949</v>
       </c>
       <c r="J52">
-        <v>930.56211538006426</v>
+        <v>73.823094939131735</v>
       </c>
       <c r="K52">
-        <v>1109.707177733374</v>
+        <v>1021.3454433043569</v>
       </c>
       <c r="L52">
-        <v>2913.8260194844879</v>
+        <v>15151.427837658333</v>
       </c>
       <c r="M52">
-        <v>18049.582868832349</v>
+        <v>16331.901625588152</v>
       </c>
       <c r="N52">
-        <v>257202.11896878292</v>
+        <v>258551.8868223168</v>
       </c>
       <c r="O52">
-        <v>1918629.2829673886</v>
+        <v>1930444.4921488955</v>
       </c>
       <c r="P52">
-        <v>3.366791277041234</v>
+        <v>2.1078358442370711E-2</v>
       </c>
       <c r="Q52">
-        <v>4.7878688762374999</v>
+        <v>4.0345732045477174</v>
       </c>
       <c r="R52">
-        <v>4.4252332366643694</v>
+        <v>118.91860473243871</v>
       </c>
       <c r="S52">
-        <v>169.80218358544857</v>
+        <v>138.17077455098143</v>
       </c>
       <c r="T52">
-        <v>3170.8786444979537</v>
+        <v>5633.4222177895008</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>0.44828419323206686</v>
+        <v>1.0073977069020488</v>
       </c>
       <c r="B53">
-        <v>1.461552755641979</v>
+        <v>1.4593968325362969</v>
       </c>
       <c r="C53">
-        <v>1.4314342929676863E-4</v>
+        <v>7.1744085970149981E-5</v>
       </c>
       <c r="D53">
-        <v>1.9035435824492615</v>
+        <v>2.6049711760024516</v>
       </c>
       <c r="E53">
-        <v>3.1846885066706401</v>
+        <v>3.1887802454762646</v>
       </c>
       <c r="F53">
-        <v>205.25576814324151</v>
+        <v>37.212236062622978</v>
       </c>
       <c r="G53">
-        <v>3987.5846988081039</v>
+        <v>4023.943717105657</v>
       </c>
       <c r="H53">
-        <v>3.3992010884325197</v>
+        <v>3.4008641622164499</v>
       </c>
       <c r="I53">
-        <v>0.87630413894818027</v>
+        <v>0.87602266564276354</v>
       </c>
       <c r="J53">
-        <v>858.27224917011029</v>
+        <v>1002.9331487077394</v>
       </c>
       <c r="K53">
-        <v>1110.1384338214139</v>
+        <v>1109.6418305002767</v>
       </c>
       <c r="L53">
-        <v>4092.1788119331541</v>
+        <v>1737.0130824774292</v>
       </c>
       <c r="M53">
-        <v>18036.899171224781</v>
+        <v>18062.844972544473</v>
       </c>
       <c r="N53">
-        <v>257289.88652452509</v>
+        <v>257138.23511450557</v>
       </c>
       <c r="O53">
-        <v>1919423.0828223599</v>
+        <v>1918048.8960986331</v>
       </c>
       <c r="P53">
-        <v>2.8630400659969335</v>
+        <v>3.9118060382148028</v>
       </c>
       <c r="Q53">
-        <v>4.7899564141242985</v>
+        <v>4.7884943732607326</v>
       </c>
       <c r="R53">
-        <v>8.7244587077753994</v>
+        <v>1.5730644066659831</v>
       </c>
       <c r="S53">
-        <v>169.49349761625118</v>
+        <v>170.10325918479472</v>
       </c>
       <c r="T53">
-        <v>3725.215452333096</v>
+        <v>2154.7472024477393</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>0.33723733989537941</v>
+        <v>0.62738178974950487</v>
       </c>
       <c r="B54">
-        <v>1.4635177044341547</v>
+        <v>1.4603039232599628</v>
       </c>
       <c r="C54">
-        <v>1.7965802881340353E-4</v>
+        <v>1.0811026496151324E-4</v>
       </c>
       <c r="D54">
-        <v>1.5730420373282239</v>
+        <v>2.2405327204260455</v>
       </c>
       <c r="E54">
-        <v>3.1709263551922424</v>
+        <v>3.1862316358817804</v>
       </c>
       <c r="F54">
-        <v>344.63872149056209</v>
+        <v>104.44130404212824</v>
       </c>
       <c r="G54">
-        <v>3942.3377948779657</v>
+        <v>4007.5540732928312</v>
       </c>
       <c r="H54">
-        <v>3.3976959070989809</v>
+        <v>3.4001629906565478</v>
       </c>
       <c r="I54">
-        <v>0.87656206846716567</v>
+        <v>0.87614092310617619</v>
       </c>
       <c r="J54">
-        <v>780.98772858315704</v>
+        <v>930.56211538006426</v>
       </c>
       <c r="K54">
-        <v>1108.8355046042354</v>
+        <v>1109.707177733374</v>
       </c>
       <c r="L54">
-        <v>5317.5515632577708</v>
+        <v>2913.8260194844879</v>
       </c>
       <c r="M54">
-        <v>17984.840533201856</v>
+        <v>18049.582868832349</v>
       </c>
       <c r="N54">
-        <v>257427.65829373008</v>
+        <v>257202.11896878292</v>
       </c>
       <c r="O54">
-        <v>1920659.1651064097</v>
+        <v>1918629.2829673886</v>
       </c>
       <c r="P54">
-        <v>2.3693717926048303</v>
+        <v>3.366791277041234</v>
       </c>
       <c r="Q54">
-        <v>4.7761619105746078</v>
+        <v>4.7878688762374999</v>
       </c>
       <c r="R54">
-        <v>14.722213676229522</v>
+        <v>4.4252332366643694</v>
       </c>
       <c r="S54">
-        <v>168.40806264904376</v>
+        <v>169.80218358544857</v>
       </c>
       <c r="T54">
-        <v>4047.4609475178854</v>
+        <v>3170.8786444979537</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>0.25566235041953056</v>
+        <v>0.44828419323206686</v>
       </c>
       <c r="B55">
-        <v>1.4672964557257158</v>
+        <v>1.461552755641979</v>
       </c>
       <c r="C55">
-        <v>2.1744418577569616E-4</v>
+        <v>1.4314342929676863E-4</v>
       </c>
       <c r="D55">
-        <v>1.239449454386141</v>
+        <v>1.9035435824492615</v>
       </c>
       <c r="E55">
-        <v>3.1569193904177477</v>
+        <v>3.1846885066706401</v>
       </c>
       <c r="F55">
-        <v>539.90353789212634</v>
+        <v>205.25576814324151</v>
       </c>
       <c r="G55">
-        <v>3872.0558686210011</v>
+        <v>3987.5846988081039</v>
       </c>
       <c r="H55">
-        <v>3.3948288717438082</v>
+        <v>3.3992010884325197</v>
       </c>
       <c r="I55">
-        <v>0.87706379241689225</v>
+        <v>0.87630413894818027</v>
       </c>
       <c r="J55">
-        <v>694.56692831739701</v>
+        <v>858.27224917011029</v>
       </c>
       <c r="K55">
-        <v>1108.4891246406085</v>
+        <v>1110.1384338214139</v>
       </c>
       <c r="L55">
-        <v>6691.5487496004835</v>
+        <v>4092.1788119331541</v>
       </c>
       <c r="M55">
-        <v>17920.056188875245</v>
+        <v>18036.899171224781</v>
       </c>
       <c r="N55">
-        <v>257691.65415435191</v>
+        <v>257289.88652452509</v>
       </c>
       <c r="O55">
-        <v>1922990.5633919232</v>
+        <v>1919423.0828223599</v>
       </c>
       <c r="P55">
-        <v>1.8720948472134169</v>
+        <v>2.8630400659969335</v>
       </c>
       <c r="Q55">
-        <v>4.7682884549707145</v>
+        <v>4.7899564141242985</v>
       </c>
       <c r="R55">
-        <v>23.284994487595863</v>
+        <v>8.7244587077753994</v>
       </c>
       <c r="S55">
-        <v>166.99427440039764</v>
+        <v>169.49349761625118</v>
       </c>
       <c r="T55">
-        <v>4212.4328921572824</v>
+        <v>3725.215452333096</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>0.20759863076546786</v>
+        <v>0.33723733989537941</v>
       </c>
       <c r="B56">
-        <v>1.4692193239552258</v>
+        <v>1.4635177044341547</v>
       </c>
       <c r="C56">
-        <v>2.5307258196483376E-4</v>
+        <v>1.7965802881340353E-4</v>
       </c>
       <c r="D56">
-        <v>1.0060108393391625</v>
+        <v>1.5730420373282239</v>
       </c>
       <c r="E56">
-        <v>3.1688519782708759</v>
+        <v>3.1709263551922424</v>
       </c>
       <c r="F56">
-        <v>735.65901961302643</v>
+        <v>344.63872149056209</v>
       </c>
       <c r="G56">
-        <v>3860.0736887664011</v>
+        <v>3942.3377948779657</v>
       </c>
       <c r="H56">
-        <v>3.3933830861203362</v>
+        <v>3.3976959070989809</v>
       </c>
       <c r="I56">
-        <v>0.87732162818195303</v>
+        <v>0.87656206846716567</v>
       </c>
       <c r="J56">
-        <v>626.35408605259443</v>
+        <v>780.98772858315704</v>
       </c>
       <c r="K56">
-        <v>1111.6538116398685</v>
+        <v>1108.8355046042354</v>
       </c>
       <c r="L56">
-        <v>7832.3276242759857</v>
+        <v>5317.5515632577708</v>
       </c>
       <c r="M56">
-        <v>17941.153473767703</v>
+        <v>17984.840533201856</v>
       </c>
       <c r="N56">
-        <v>257825.24569255218</v>
+        <v>257427.65829373008</v>
       </c>
       <c r="O56">
-        <v>1924155.7319944759</v>
+        <v>1920659.1651064097</v>
       </c>
       <c r="P56">
-        <v>1.5216486657889523</v>
+        <v>2.3693717926048303</v>
       </c>
       <c r="Q56">
-        <v>4.7930690170157613</v>
+        <v>4.7761619105746078</v>
       </c>
       <c r="R56">
-        <v>31.8817001108374</v>
+        <v>14.722213676229522</v>
       </c>
       <c r="S56">
-        <v>167.28634934119302</v>
+        <v>168.40806264904376</v>
       </c>
       <c r="T56">
-        <v>4807.3673882517323</v>
+        <v>4047.4609475178854</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>0.16728894602656927</v>
+        <v>0.25566235041953056</v>
       </c>
       <c r="B57">
-        <v>1.472789755122542</v>
+        <v>1.4672964557257158</v>
       </c>
       <c r="C57">
-        <v>2.8985052812861221E-4</v>
+        <v>2.1744418577569616E-4</v>
       </c>
       <c r="D57">
-        <v>0.77853988742125502</v>
+        <v>1.239449454386141</v>
       </c>
       <c r="E57">
-        <v>3.1731464775567146</v>
+        <v>3.1569193904177477</v>
       </c>
       <c r="F57">
-        <v>972.02676493453669</v>
+        <v>539.90353789212634</v>
       </c>
       <c r="G57">
-        <v>3816.4950331205309</v>
+        <v>3872.0558686210011</v>
       </c>
       <c r="H57">
-        <v>3.390721701049614</v>
+        <v>3.3948288717438082</v>
       </c>
       <c r="I57">
-        <v>0.87780221900053457</v>
+        <v>0.87706379241689225</v>
       </c>
       <c r="J57">
-        <v>551.9936287094888</v>
+        <v>694.56692831739701</v>
       </c>
       <c r="K57">
-        <v>1114.393810167237</v>
+        <v>1108.4891246406085</v>
       </c>
       <c r="L57">
-        <v>9048.5644036164977</v>
+        <v>6691.5487496004835</v>
       </c>
       <c r="M57">
-        <v>17929.695783797295</v>
+        <v>17920.056188875245</v>
       </c>
       <c r="N57">
-        <v>258071.32111515317</v>
+        <v>257691.65415435191</v>
       </c>
       <c r="O57">
-        <v>1926286.645925533</v>
+        <v>1922990.5633919232</v>
       </c>
       <c r="P57">
-        <v>1.1806696103202847</v>
+        <v>1.8720948472134169</v>
       </c>
       <c r="Q57">
-        <v>4.8121331683535633</v>
+        <v>4.7682884549707145</v>
       </c>
       <c r="R57">
-        <v>42.504846274867852</v>
+        <v>23.284994487595863</v>
       </c>
       <c r="S57">
-        <v>166.88792998669115</v>
+        <v>166.99427440039764</v>
       </c>
       <c r="T57">
-        <v>5142.1748500531057</v>
+        <v>4212.4328921572824</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>0.13481649452182518</v>
+        <v>0.20759863076546786</v>
       </c>
       <c r="B58">
-        <v>1.4758270466910182</v>
+        <v>1.4692193239552258</v>
       </c>
       <c r="C58">
-        <v>3.2643218395693745E-4</v>
+        <v>2.5307258196483376E-4</v>
       </c>
       <c r="D58">
-        <v>0.57837424898181899</v>
+        <v>1.0060108393391625</v>
       </c>
       <c r="E58">
-        <v>3.1637890508369146</v>
+        <v>3.1688519782708759</v>
       </c>
       <c r="F58">
-        <v>1233.573369575377</v>
+        <v>735.65901961302643</v>
       </c>
       <c r="G58">
-        <v>3764.5276075490146</v>
+        <v>3860.0736887664011</v>
       </c>
       <c r="H58">
-        <v>3.3884811829318355</v>
+        <v>3.3933830861203362</v>
       </c>
       <c r="I58">
-        <v>0.87821045183330848</v>
+        <v>0.87732162818195303</v>
       </c>
       <c r="J58">
-        <v>476.490328013848</v>
+        <v>626.35408605259443</v>
       </c>
       <c r="K58">
-        <v>1114.4314884613311</v>
+        <v>1111.6538116398685</v>
       </c>
       <c r="L58">
-        <v>10237.033814022863</v>
+        <v>7832.3276242759857</v>
       </c>
       <c r="M58">
-        <v>17883.268141513265</v>
+        <v>17941.153473767703</v>
       </c>
       <c r="N58">
-        <v>258278.02630927437</v>
+        <v>257825.24569255218</v>
       </c>
       <c r="O58">
-        <v>1928070.9118411213</v>
+        <v>1924155.7319944759</v>
       </c>
       <c r="P58">
-        <v>0.87906445598617189</v>
+        <v>1.5216486657889523</v>
       </c>
       <c r="Q58">
-        <v>4.8086070666614082</v>
+        <v>4.7930690170157613</v>
       </c>
       <c r="R58">
-        <v>54.353219410056155</v>
+        <v>31.8817001108374</v>
       </c>
       <c r="S58">
-        <v>165.87111887698907</v>
+        <v>167.28634934119302</v>
       </c>
       <c r="T58">
-        <v>5378.3138860003328</v>
+        <v>4807.3673882517323</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>0.10772855186167954</v>
+        <v>0.16728894602656927</v>
       </c>
       <c r="B59">
-        <v>1.4791808583095727</v>
+        <v>1.472789755122542</v>
       </c>
       <c r="C59">
-        <v>3.6375122153641394E-4</v>
+        <v>2.8985052812861221E-4</v>
       </c>
       <c r="D59">
-        <v>0.40996372068321446</v>
+        <v>0.77853988742125502</v>
       </c>
       <c r="E59">
-        <v>3.1653379846002272</v>
+        <v>3.1731464775567146</v>
       </c>
       <c r="F59">
-        <v>1525.1305073140293</v>
+        <v>972.02676493453669</v>
       </c>
       <c r="G59">
-        <v>3722.1150111959673</v>
+        <v>3816.4950331205309</v>
       </c>
       <c r="H59">
-        <v>3.3860319633681875</v>
+        <v>3.390721701049614</v>
       </c>
       <c r="I59">
-        <v>0.87865758353392442</v>
+        <v>0.87780221900053457</v>
       </c>
       <c r="J59">
-        <v>401.83013554788204</v>
+        <v>551.9936287094888</v>
       </c>
       <c r="K59">
-        <v>1116.5542669695856</v>
+        <v>1114.393810167237</v>
       </c>
       <c r="L59">
-        <v>11436.123509831988</v>
+        <v>9048.5644036164977</v>
       </c>
       <c r="M59">
-        <v>17865.707818056118</v>
+        <v>17929.695783797295</v>
       </c>
       <c r="N59">
-        <v>258502.730801436</v>
+        <v>258071.32111515317</v>
       </c>
       <c r="O59">
-        <v>1930016.7087268147</v>
+        <v>1926286.645925533</v>
       </c>
       <c r="P59">
-        <v>0.62462573348386574</v>
+        <v>1.1806696103202847</v>
       </c>
       <c r="Q59">
-        <v>4.8227476252295869</v>
+        <v>4.8121331683535633</v>
       </c>
       <c r="R59">
-        <v>67.76362108202035</v>
+        <v>42.504846274867852</v>
       </c>
       <c r="S59">
-        <v>165.37862827659617</v>
+        <v>166.88792998669115</v>
       </c>
       <c r="T59">
-        <v>5549.415047317264</v>
+        <v>5142.1748500531057</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>8.2471699010962671E-2</v>
+        <v>0.13481649452182518</v>
       </c>
       <c r="B60">
-        <v>1.482482449372015</v>
+        <v>1.4758270466910182</v>
       </c>
       <c r="C60">
-        <v>4.032729647938945E-4</v>
+        <v>3.2643218395693745E-4</v>
       </c>
       <c r="D60">
-        <v>0.25925904797171945</v>
+        <v>0.57837424898181899</v>
       </c>
       <c r="E60">
-        <v>3.1629940853767615</v>
+        <v>3.1637890508369146</v>
       </c>
       <c r="F60">
-        <v>1872.7289438231901</v>
+        <v>1233.573369575377</v>
       </c>
       <c r="G60">
-        <v>3676.5515477651543</v>
+        <v>3764.5276075490146</v>
       </c>
       <c r="H60">
-        <v>3.3836463426020766</v>
+        <v>3.3884811829318355</v>
       </c>
       <c r="I60">
-        <v>0.87909112452665361</v>
+        <v>0.87821045183330848</v>
       </c>
       <c r="J60">
-        <v>320.06696168469546</v>
+        <v>476.490328013848</v>
       </c>
       <c r="K60">
-        <v>1117.9517913150735</v>
+        <v>1114.4314884613311</v>
       </c>
       <c r="L60">
-        <v>12730.777341426377</v>
+        <v>10237.033814022863</v>
       </c>
       <c r="M60">
-        <v>17837.656269607429</v>
+        <v>17883.268141513265</v>
       </c>
       <c r="N60">
-        <v>258719.58842476318</v>
+        <v>258278.02630927437</v>
       </c>
       <c r="O60">
-        <v>1931913.1615551151</v>
+        <v>1928070.9118411213</v>
       </c>
       <c r="P60">
-        <v>0.39596097298161542</v>
+        <v>0.87906445598617189</v>
       </c>
       <c r="Q60">
-        <v>4.830775339873556</v>
+        <v>4.8086070666614082</v>
       </c>
       <c r="R60">
-        <v>83.892327534283709</v>
+        <v>54.353219410056155</v>
       </c>
       <c r="S60">
-        <v>164.69786920264113</v>
+        <v>165.87111887698907</v>
       </c>
       <c r="T60">
-        <v>5736.0280593889966</v>
+        <v>5378.3138860003328</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>6.0851622672254538E-2</v>
+        <v>0.10772855186167954</v>
       </c>
       <c r="B61">
-        <v>1.4849696019205409</v>
+        <v>1.4791808583095727</v>
       </c>
       <c r="C61">
-        <v>4.4109553419681598E-4</v>
+        <v>3.6375122153641394E-4</v>
       </c>
       <c r="D61">
-        <v>0.14487551638629051</v>
+        <v>0.40996372068321446</v>
       </c>
       <c r="E61">
-        <v>3.1396700121226364</v>
+        <v>3.1653379846002272</v>
       </c>
       <c r="F61">
-        <v>2230.5068140879907</v>
+        <v>1525.1305073140293</v>
       </c>
       <c r="G61">
-        <v>3617.8835352332585</v>
+        <v>3722.1150111959673</v>
       </c>
       <c r="H61">
-        <v>3.3818687567510808</v>
+        <v>3.3860319633681875</v>
       </c>
       <c r="I61">
-        <v>0.87941263838333217</v>
+        <v>0.87865758353392442</v>
       </c>
       <c r="J61">
-        <v>239.55126904742991</v>
+        <v>401.83013554788204</v>
       </c>
       <c r="K61">
-        <v>1115.1748846222235</v>
+        <v>1116.5542669695856</v>
       </c>
       <c r="L61">
-        <v>13941.652417018351</v>
+        <v>11436.123509831988</v>
       </c>
       <c r="M61">
-        <v>17755.780393594883</v>
+        <v>17865.707818056118</v>
       </c>
       <c r="N61">
-        <v>258879.92723536066</v>
+        <v>258502.730801436</v>
       </c>
       <c r="O61">
-        <v>1933332.9793555252</v>
+        <v>1930016.7087268147</v>
       </c>
       <c r="P61">
-        <v>0.22166573946099249</v>
+        <v>0.62462573348386574</v>
       </c>
       <c r="Q61">
-        <v>4.8038294686383987</v>
+        <v>4.8227476252295869</v>
       </c>
       <c r="R61">
-        <v>100.53605570921704</v>
+        <v>67.76362108202035</v>
       </c>
       <c r="S61">
-        <v>163.06954919408798</v>
+        <v>165.37862827659617</v>
       </c>
       <c r="T61">
-        <v>5856.6233432459967</v>
+        <v>5549.415047317264</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>4.2163805142291171E-2</v>
+        <v>8.2471699010962671E-2</v>
       </c>
       <c r="B62">
-        <v>1.4873974081307859</v>
+        <v>1.482482449372015</v>
       </c>
       <c r="C62">
-        <v>4.7495378890154881E-4</v>
+        <v>4.032729647938945E-4</v>
       </c>
       <c r="D62">
-        <v>6.762336397678767E-2</v>
+        <v>0.25925904797171945</v>
       </c>
       <c r="E62">
-        <v>3.1244857753334014</v>
+        <v>3.1629940853767615</v>
       </c>
       <c r="F62">
-        <v>2596.9308567346916</v>
+        <v>1872.7289438231901</v>
       </c>
       <c r="G62">
-        <v>3570.0983217378675</v>
+        <v>3676.5515477651543</v>
       </c>
       <c r="H62">
-        <v>3.3801492073725314</v>
+        <v>3.3836463426020766</v>
       </c>
       <c r="I62">
-        <v>0.87972340453984166</v>
+        <v>0.87909112452665361</v>
       </c>
       <c r="J62">
-        <v>163.85563166982536</v>
+        <v>320.06696168469546</v>
       </c>
       <c r="K62">
-        <v>1113.7873033170392</v>
+        <v>1117.9517913150735</v>
       </c>
       <c r="L62">
-        <v>15093.747497342827</v>
+        <v>12730.777341426377</v>
       </c>
       <c r="M62">
-        <v>17697.29847291284</v>
+        <v>17837.656269607429</v>
       </c>
       <c r="N62">
-        <v>259034.21762714614</v>
+        <v>258719.58842476318</v>
       </c>
       <c r="O62">
-        <v>1934709.435575973</v>
+        <v>1931913.1615551151</v>
       </c>
       <c r="P62">
-        <v>0.10364911738635027</v>
+        <v>0.39596097298161542</v>
       </c>
       <c r="Q62">
-        <v>4.7890281384208855</v>
+        <v>4.830775339873556</v>
       </c>
       <c r="R62">
-        <v>117.75474359317388</v>
+        <v>83.892327534283709</v>
       </c>
       <c r="S62">
-        <v>161.88186581419316</v>
+        <v>164.69786920264113</v>
       </c>
       <c r="T62">
-        <v>5730.9088714036561</v>
+        <v>5736.0280593889966</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
+        <v>6.0851622672254538E-2</v>
+      </c>
+      <c r="B63">
+        <v>1.4849696019205409</v>
+      </c>
+      <c r="C63">
+        <v>4.4109553419681598E-4</v>
+      </c>
+      <c r="D63">
+        <v>0.14487551638629051</v>
+      </c>
+      <c r="E63">
+        <v>3.1396700121226364</v>
+      </c>
+      <c r="F63">
+        <v>2230.5068140879907</v>
+      </c>
+      <c r="G63">
+        <v>3617.8835352332585</v>
+      </c>
+      <c r="H63">
+        <v>3.3818687567510808</v>
+      </c>
+      <c r="I63">
+        <v>0.87941263838333217</v>
+      </c>
+      <c r="J63">
+        <v>239.55126904742991</v>
+      </c>
+      <c r="K63">
+        <v>1115.1748846222235</v>
+      </c>
+      <c r="L63">
+        <v>13941.652417018351</v>
+      </c>
+      <c r="M63">
+        <v>17755.780393594883</v>
+      </c>
+      <c r="N63">
+        <v>258879.92723536066</v>
+      </c>
+      <c r="O63">
+        <v>1933332.9793555252</v>
+      </c>
+      <c r="P63">
+        <v>0.22166573946099249</v>
+      </c>
+      <c r="Q63">
+        <v>4.8038294686383987</v>
+      </c>
+      <c r="R63">
+        <v>100.53605570921704</v>
+      </c>
+      <c r="S63">
+        <v>163.06954919408798</v>
+      </c>
+      <c r="T63">
+        <v>5856.6233432459967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>4.2163805142291171E-2</v>
+      </c>
+      <c r="B64">
+        <v>1.4873974081307859</v>
+      </c>
+      <c r="C64">
+        <v>4.7495378890154881E-4</v>
+      </c>
+      <c r="D64">
+        <v>6.762336397678767E-2</v>
+      </c>
+      <c r="E64">
+        <v>3.1244857753334014</v>
+      </c>
+      <c r="F64">
+        <v>2596.9308567346916</v>
+      </c>
+      <c r="G64">
+        <v>3570.0983217378675</v>
+      </c>
+      <c r="H64">
+        <v>3.3801492073725314</v>
+      </c>
+      <c r="I64">
+        <v>0.87972340453984166</v>
+      </c>
+      <c r="J64">
+        <v>163.85563166982536</v>
+      </c>
+      <c r="K64">
+        <v>1113.7873033170392</v>
+      </c>
+      <c r="L64">
+        <v>15093.747497342827</v>
+      </c>
+      <c r="M64">
+        <v>17697.29847291284</v>
+      </c>
+      <c r="N64">
+        <v>259034.21762714614</v>
+      </c>
+      <c r="O64">
+        <v>1934709.435575973</v>
+      </c>
+      <c r="P64">
+        <v>0.10364911738635027</v>
+      </c>
+      <c r="Q64">
+        <v>4.7890281384208855</v>
+      </c>
+      <c r="R64">
+        <v>117.75474359317388</v>
+      </c>
+      <c r="S64">
+        <v>161.88186581419316</v>
+      </c>
+      <c r="T64">
+        <v>5730.9088714036561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A65">
         <v>2.2652167389626384E-2</v>
       </c>
-      <c r="B63">
+      <c r="B65">
         <v>1.488243141883254</v>
       </c>
-      <c r="C63">
+      <c r="C65">
         <v>5.1342678219127929E-4</v>
       </c>
-      <c r="D63">
+      <c r="D65">
         <v>1.68185599351857E-2</v>
       </c>
-      <c r="E63">
+      <c r="E65">
         <v>3.1180221530276695</v>
       </c>
-      <c r="F63">
+      <c r="F65">
         <v>3049.6456034626217</v>
       </c>
-      <c r="G63">
+      <c r="G65">
         <v>3552.2685224523552</v>
       </c>
-      <c r="H63">
+      <c r="H65">
         <v>3.3795534521607009</v>
       </c>
-      <c r="I63">
+      <c r="I65">
         <v>0.8798311661679874</v>
       </c>
-      <c r="J63">
+      <c r="J65">
         <v>81.749520727603667</v>
       </c>
-      <c r="K63">
+      <c r="K65">
         <v>1113.0903299967842</v>
       </c>
-      <c r="L63">
+      <c r="L65">
         <v>16375.591199239787</v>
       </c>
-      <c r="M63">
+      <c r="M65">
         <v>17673.607063770189</v>
       </c>
-      <c r="N63">
+      <c r="N65">
         <v>259087.50395850174</v>
       </c>
-      <c r="O63">
+      <c r="O65">
         <v>1935186.1277053426</v>
       </c>
-      <c r="P63">
+      <c r="P65">
         <v>2.5794312875326169E-2</v>
       </c>
-      <c r="Q63">
+      <c r="Q65">
         <v>4.7820526416850928</v>
       </c>
-      <c r="R63">
+      <c r="R65">
         <v>138.57064356005472</v>
       </c>
-      <c r="S63">
+      <c r="S65">
         <v>161.40896328919311</v>
       </c>
-      <c r="T63">
+      <c r="T65">
         <v>5595.2157028247184</v>
       </c>
     </row>

--- a/2phase_Consolidate_modified.xlsx
+++ b/2phase_Consolidate_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19344" windowHeight="9084" tabRatio="714" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19340" windowHeight="9080" tabRatio="714" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2phase_z2" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2phase_z10" sheetId="21" r:id="rId9"/>
     <sheet name="2phase_z11" sheetId="22" r:id="rId10"/>
     <sheet name="2phase_avg" sheetId="23" r:id="rId11"/>
+    <sheet name="2phase_avg2" sheetId="24" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="40">
   <si>
     <t>W/m²K</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -579,9 +580,9 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="29" max="29" width="21.26953125" customWidth="1"/>
+    <col min="29" max="29" width="21.23046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
@@ -4650,7 +4651,7 @@
       <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -8692,11 +8693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -12720,6 +12721,4052 @@
       </c>
       <c r="R65">
         <v>138.57064356005472</v>
+      </c>
+      <c r="S65">
+        <v>161.40896328919311</v>
+      </c>
+      <c r="T65">
+        <v>5595.2157028247184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.66963128442813691</v>
+      </c>
+      <c r="B3">
+        <v>1.4550665789805801</v>
+      </c>
+      <c r="C3">
+        <v>1.9498698409989781E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.30549473209167571</v>
+      </c>
+      <c r="E3">
+        <v>0.42277962359749671</v>
+      </c>
+      <c r="F3">
+        <v>12.186004272906077</v>
+      </c>
+      <c r="G3">
+        <v>541.966633916771</v>
+      </c>
+      <c r="H3">
+        <v>3.4042388214220831</v>
+      </c>
+      <c r="I3">
+        <v>0.87546056972078345</v>
+      </c>
+      <c r="J3">
+        <v>342.70333414494365</v>
+      </c>
+      <c r="K3">
+        <v>403.15633706077745</v>
+      </c>
+      <c r="L3">
+        <v>987.80227011413763</v>
+      </c>
+      <c r="M3">
+        <v>6587.5758978257536</v>
+      </c>
+      <c r="N3">
+        <v>256831.10098724937</v>
+      </c>
+      <c r="O3">
+        <v>1915237.5362639478</v>
+      </c>
+      <c r="P3">
+        <v>0.45728720074245061</v>
+      </c>
+      <c r="Q3">
+        <v>0.63284793581261956</v>
+      </c>
+      <c r="R3">
+        <v>0.5094685679281562</v>
+      </c>
+      <c r="S3">
+        <v>22.658367637398971</v>
+      </c>
+      <c r="T3">
+        <v>3209.3886075123287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.40835231816922141</v>
+      </c>
+      <c r="B4">
+        <v>1.4545431446533021</v>
+      </c>
+      <c r="C4">
+        <v>2.9460919388783557E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.23952687789577223</v>
+      </c>
+      <c r="E4">
+        <v>0.42188254401954639</v>
+      </c>
+      <c r="F4">
+        <v>32.924899958165753</v>
+      </c>
+      <c r="G4">
+        <v>541.84984422018294</v>
+      </c>
+      <c r="H4">
+        <v>3.4046496633933527</v>
+      </c>
+      <c r="I4">
+        <v>0.87539279923123459</v>
+      </c>
+      <c r="J4">
+        <v>303.37365545546578</v>
+      </c>
+      <c r="K4">
+        <v>402.62108587160293</v>
+      </c>
+      <c r="L4">
+        <v>1622.4498223810683</v>
+      </c>
+      <c r="M4">
+        <v>6581.8581551209872</v>
+      </c>
+      <c r="N4">
+        <v>256793.67073606694</v>
+      </c>
+      <c r="O4">
+        <v>1914893.489960467</v>
+      </c>
+      <c r="P4">
+        <v>0.35840281639575927</v>
+      </c>
+      <c r="Q4">
+        <v>0.63126064721057407</v>
+      </c>
+      <c r="R4">
+        <v>1.3746683248678782</v>
+      </c>
+      <c r="S4">
+        <v>22.623115594291875</v>
+      </c>
+      <c r="T4">
+        <v>3751.6911279481146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0.28407620123711314</v>
+      </c>
+      <c r="B5">
+        <v>1.4543866062903115</v>
+      </c>
+      <c r="C5">
+        <v>3.9314768582728374E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.1854204791299526</v>
+      </c>
+      <c r="E5">
+        <v>0.42548639433829288</v>
+      </c>
+      <c r="F5">
+        <v>63.156979623755007</v>
+      </c>
+      <c r="G5">
+        <v>546.79067385044152</v>
+      </c>
+      <c r="H5">
+        <v>3.4047726464032944</v>
+      </c>
+      <c r="I5">
+        <v>0.87537253546825777</v>
+      </c>
+      <c r="J5">
+        <v>266.89777808770253</v>
+      </c>
+      <c r="K5">
+        <v>404.30484663247415</v>
+      </c>
+      <c r="L5">
+        <v>2246.574760380955</v>
+      </c>
+      <c r="M5">
+        <v>6610.293586521394</v>
+      </c>
+      <c r="N5">
+        <v>256782.46182531276</v>
+      </c>
+      <c r="O5">
+        <v>1914790.4356863112</v>
+      </c>
+      <c r="P5">
+        <v>0.27741156246337711</v>
+      </c>
+      <c r="Q5">
+        <v>0.63657933586488746</v>
+      </c>
+      <c r="R5">
+        <v>2.6358488427333993</v>
+      </c>
+      <c r="S5">
+        <v>22.820242093147954</v>
+      </c>
+      <c r="T5">
+        <v>3829.4821407740833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0.20561784584673151</v>
+      </c>
+      <c r="B6">
+        <v>1.4538619296110247</v>
+      </c>
+      <c r="C6">
+        <v>4.9239180106719956E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.13413947680062474</v>
+      </c>
+      <c r="E6">
+        <v>0.42056655443333169</v>
+      </c>
+      <c r="F6">
+        <v>102.58108618225087</v>
+      </c>
+      <c r="G6">
+        <v>541.50432045533171</v>
+      </c>
+      <c r="H6">
+        <v>3.4051852406627385</v>
+      </c>
+      <c r="I6">
+        <v>0.8753046259322802</v>
+      </c>
+      <c r="J6">
+        <v>226.94900380411426</v>
+      </c>
+      <c r="K6">
+        <v>401.8531184917826</v>
+      </c>
+      <c r="L6">
+        <v>2860.96372554953</v>
+      </c>
+      <c r="M6">
+        <v>6573.2426996184677</v>
+      </c>
+      <c r="N6">
+        <v>256744.84016414563</v>
+      </c>
+      <c r="O6">
+        <v>1914444.4847016176</v>
+      </c>
+      <c r="P6">
+        <v>0.20061104361338067</v>
+      </c>
+      <c r="Q6">
+        <v>0.62897438849531417</v>
+      </c>
+      <c r="R6">
+        <v>4.2754509228748754</v>
+      </c>
+      <c r="S6">
+        <v>22.569220436194446</v>
+      </c>
+      <c r="T6">
+        <v>3430.667752511295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1.1393313244651058</v>
+      </c>
+      <c r="B7">
+        <v>1.4561191780315883</v>
+      </c>
+      <c r="C7">
+        <v>1.3135969178568597E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.79682585342462264</v>
+      </c>
+      <c r="E7">
+        <v>0.94825026585301353</v>
+      </c>
+      <c r="F7">
+        <v>8.4054500283545472</v>
+      </c>
+      <c r="G7">
+        <v>1210.9234882035867</v>
+      </c>
+      <c r="H7">
+        <v>3.4034144873457666</v>
+      </c>
+      <c r="I7">
+        <v>0.87559692986932869</v>
+      </c>
+      <c r="J7">
+        <v>553.77151989782237</v>
+      </c>
+      <c r="K7">
+        <v>604.10216865482494</v>
+      </c>
+      <c r="L7">
+        <v>821.64300874010974</v>
+      </c>
+      <c r="M7">
+        <v>9861.9099037724427</v>
+      </c>
+      <c r="N7">
+        <v>256906.14951548129</v>
+      </c>
+      <c r="O7">
+        <v>1915926.7742767003</v>
+      </c>
+      <c r="P7">
+        <v>1.1936767447112613</v>
+      </c>
+      <c r="Q7">
+        <v>1.4205165227135645</v>
+      </c>
+      <c r="R7">
+        <v>0.35236066580173053</v>
+      </c>
+      <c r="S7">
+        <v>50.76251778298861</v>
+      </c>
+      <c r="T7">
+        <v>2805.3208897045865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0.69757740128428747</v>
+      </c>
+      <c r="B8">
+        <v>1.4558005706243848</v>
+      </c>
+      <c r="C8">
+        <v>1.9629082205137091E-4</v>
+      </c>
+      <c r="D8">
+        <v>0.69723376601142195</v>
+      </c>
+      <c r="E8">
+        <v>0.95077844277393353</v>
+      </c>
+      <c r="F8">
+        <v>25.084699756471831</v>
+      </c>
+      <c r="G8">
+        <v>1215.5607472059214</v>
+      </c>
+      <c r="H8">
+        <v>3.403663738406753</v>
+      </c>
+      <c r="I8">
+        <v>0.87555564261006269</v>
+      </c>
+      <c r="J8">
+        <v>517.92609856845809</v>
+      </c>
+      <c r="K8">
+        <v>604.80901154755691</v>
+      </c>
+      <c r="L8">
+        <v>1418.7519925774964</v>
+      </c>
+      <c r="M8">
+        <v>9876.2111080270497</v>
+      </c>
+      <c r="N8">
+        <v>256883.46335693952</v>
+      </c>
+      <c r="O8">
+        <v>1915718.5278833171</v>
+      </c>
+      <c r="P8">
+        <v>1.0442378815393594</v>
+      </c>
+      <c r="Q8">
+        <v>1.4239684239263863</v>
+      </c>
+      <c r="R8">
+        <v>1.0507061382689804</v>
+      </c>
+      <c r="S8">
+        <v>50.915384713686841</v>
+      </c>
+      <c r="T8">
+        <v>3252.2266105164836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0.47757637641047246</v>
+      </c>
+      <c r="B9">
+        <v>1.4564149361638947</v>
+      </c>
+      <c r="C9">
+        <v>2.6291431143419158E-4</v>
+      </c>
+      <c r="D9">
+        <v>0.5891847510729028</v>
+      </c>
+      <c r="E9">
+        <v>0.94963910773293558</v>
+      </c>
+      <c r="F9">
+        <v>54.612471541899694</v>
+      </c>
+      <c r="G9">
+        <v>1211.392982366546</v>
+      </c>
+      <c r="H9">
+        <v>3.4031833190782015</v>
+      </c>
+      <c r="I9">
+        <v>0.87563526785807033</v>
+      </c>
+      <c r="J9">
+        <v>476.25538907400352</v>
+      </c>
+      <c r="K9">
+        <v>604.63523156592714</v>
+      </c>
+      <c r="L9">
+        <v>2095.2447033029603</v>
+      </c>
+      <c r="M9">
+        <v>9868.0504803436452</v>
+      </c>
+      <c r="N9">
+        <v>256927.18643343385</v>
+      </c>
+      <c r="O9">
+        <v>1916119.7875782456</v>
+      </c>
+      <c r="P9">
+        <v>0.88281508380116902</v>
+      </c>
+      <c r="Q9">
+        <v>1.422908055491044</v>
+      </c>
+      <c r="R9">
+        <v>2.2911147805991958</v>
+      </c>
+      <c r="S9">
+        <v>50.820632882083821</v>
+      </c>
+      <c r="T9">
+        <v>3659.4254670189885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0.35822796466504914</v>
+      </c>
+      <c r="B10">
+        <v>1.45696380837029</v>
+      </c>
+      <c r="C10">
+        <v>3.287059350113678E-4</v>
+      </c>
+      <c r="D10">
+        <v>0.49625359153378057</v>
+      </c>
+      <c r="E10">
+        <v>0.95384514200517367</v>
+      </c>
+      <c r="F10">
+        <v>94.325127595759682</v>
+      </c>
+      <c r="G10">
+        <v>1214.3328538067317</v>
+      </c>
+      <c r="H10">
+        <v>3.4027548487905772</v>
+      </c>
+      <c r="I10">
+        <v>0.8757064495335064</v>
+      </c>
+      <c r="J10">
+        <v>437.20688885710882</v>
+      </c>
+      <c r="K10">
+        <v>606.14161382301893</v>
+      </c>
+      <c r="L10">
+        <v>2755.8003376557299</v>
+      </c>
+      <c r="M10">
+        <v>9887.873936976197</v>
+      </c>
+      <c r="N10">
+        <v>256966.17249098694</v>
+      </c>
+      <c r="O10">
+        <v>1916477.210013764</v>
+      </c>
+      <c r="P10">
+        <v>0.74387170035315398</v>
+      </c>
+      <c r="Q10">
+        <v>1.4297899698095891</v>
+      </c>
+      <c r="R10">
+        <v>3.9627058758339695</v>
+      </c>
+      <c r="S10">
+        <v>51.015504114881168</v>
+      </c>
+      <c r="T10">
+        <v>4073.925594702705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0.28346584251611517</v>
+      </c>
+      <c r="B11">
+        <v>1.4578124202353229</v>
+      </c>
+      <c r="C11">
+        <v>3.9403332213722538E-4</v>
+      </c>
+      <c r="D11">
+        <v>0.41215859903759255</v>
+      </c>
+      <c r="E11">
+        <v>0.95003636676228553</v>
+      </c>
+      <c r="F11">
+        <v>140.48601368046775</v>
+      </c>
+      <c r="G11">
+        <v>1205.7623601535699</v>
+      </c>
+      <c r="H11">
+        <v>3.4020937805386278</v>
+      </c>
+      <c r="I11">
+        <v>0.87581660281098828</v>
+      </c>
+      <c r="J11">
+        <v>398.61557472575424</v>
+      </c>
+      <c r="K11">
+        <v>605.19063085462983</v>
+      </c>
+      <c r="L11">
+        <v>3367.3143402945711</v>
+      </c>
+      <c r="M11">
+        <v>9865.0201436583538</v>
+      </c>
+      <c r="N11">
+        <v>257026.31778556356</v>
+      </c>
+      <c r="O11">
+        <v>1917027.7922164444</v>
+      </c>
+      <c r="P11">
+        <v>0.6182027497530761</v>
+      </c>
+      <c r="Q11">
+        <v>1.4249735312311136</v>
+      </c>
+      <c r="R11">
+        <v>5.9147842886741211</v>
+      </c>
+      <c r="S11">
+        <v>50.765368572078181</v>
+      </c>
+      <c r="T11">
+        <v>4004.0012046855545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0.23305845073956261</v>
+      </c>
+      <c r="B12">
+        <v>1.4583650213861195</v>
+      </c>
+      <c r="C12">
+        <v>4.5694207688299932E-4</v>
+      </c>
+      <c r="D12">
+        <v>0.34429299001898672</v>
+      </c>
+      <c r="E12">
+        <v>0.95142704678520273</v>
+      </c>
+      <c r="F12">
+        <v>191.31989372470849</v>
+      </c>
+      <c r="G12">
+        <v>1205.1091830674266</v>
+      </c>
+      <c r="H12">
+        <v>3.4016642278924927</v>
+      </c>
+      <c r="I12">
+        <v>0.87588840762774611</v>
+      </c>
+      <c r="J12">
+        <v>364.42467577992687</v>
+      </c>
+      <c r="K12">
+        <v>605.80301790324938</v>
+      </c>
+      <c r="L12">
+        <v>3932.7276125143553</v>
+      </c>
+      <c r="M12">
+        <v>9870.2237959502418</v>
+      </c>
+      <c r="N12">
+        <v>257065.40411427952</v>
+      </c>
+      <c r="O12">
+        <v>1917384.9610308465</v>
+      </c>
+      <c r="P12">
+        <v>0.5166208373113701</v>
+      </c>
+      <c r="Q12">
+        <v>1.4276417231839351</v>
+      </c>
+      <c r="R12">
+        <v>8.0663751873372718</v>
+      </c>
+      <c r="S12">
+        <v>50.809472151990619</v>
+      </c>
+      <c r="T12">
+        <v>4121.7806322487104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0.18748683544164896</v>
+      </c>
+      <c r="B13">
+        <v>1.4580628780682028</v>
+      </c>
+      <c r="C13">
+        <v>5.2801805395316095E-4</v>
+      </c>
+      <c r="D13">
+        <v>0.27018140451434469</v>
+      </c>
+      <c r="E13">
+        <v>0.94386721368523518</v>
+      </c>
+      <c r="F13">
+        <v>258.76233745077536</v>
+      </c>
+      <c r="G13">
+        <v>1196.8444782492111</v>
+      </c>
+      <c r="H13">
+        <v>3.4018990014100003</v>
+      </c>
+      <c r="I13">
+        <v>0.87584913934062825</v>
+      </c>
+      <c r="J13">
+        <v>322.77874936970665</v>
+      </c>
+      <c r="K13">
+        <v>603.29907212624983</v>
+      </c>
+      <c r="L13">
+        <v>4571.6694442438056</v>
+      </c>
+      <c r="M13">
+        <v>9832.0289477703573</v>
+      </c>
+      <c r="N13">
+        <v>257044.04044678737</v>
+      </c>
+      <c r="O13">
+        <v>1917189.8083472066</v>
+      </c>
+      <c r="P13">
+        <v>0.40532400931598433</v>
+      </c>
+      <c r="Q13">
+        <v>1.4159821398533539</v>
+      </c>
+      <c r="R13">
+        <v>10.90145660927038</v>
+      </c>
+      <c r="S13">
+        <v>50.422129728058408</v>
+      </c>
+      <c r="T13">
+        <v>3694.9999171173249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1.3598681851186987</v>
+      </c>
+      <c r="B14">
+        <v>1.4568643235788898</v>
+      </c>
+      <c r="C14">
+        <v>1.1326457569773772E-4</v>
+      </c>
+      <c r="D14">
+        <v>1.1278657007938246</v>
+      </c>
+      <c r="E14">
+        <v>1.2983364577136607</v>
+      </c>
+      <c r="F14">
+        <v>7.6365410385849906</v>
+      </c>
+      <c r="G14">
+        <v>1653.4997827382174</v>
+      </c>
+      <c r="H14">
+        <v>3.4028324584025627</v>
+      </c>
+      <c r="I14">
+        <v>0.87569354417939493</v>
+      </c>
+      <c r="J14">
+        <v>659.08576676639552</v>
+      </c>
+      <c r="K14">
+        <v>707.14237749810445</v>
+      </c>
+      <c r="L14">
+        <v>784.00683260345716</v>
+      </c>
+      <c r="M14">
+        <v>11536.486804637649</v>
+      </c>
+      <c r="N14">
+        <v>256959.11126760195</v>
+      </c>
+      <c r="O14">
+        <v>1916412.5015668885</v>
+      </c>
+      <c r="P14">
+        <v>1.690518175483809</v>
+      </c>
+      <c r="Q14">
+        <v>1.9460307890499746</v>
+      </c>
+      <c r="R14">
+        <v>0.32073820905798944</v>
+      </c>
+      <c r="S14">
+        <v>69.447745558308398</v>
+      </c>
+      <c r="T14">
+        <v>2645.5969464116374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0.82621788063875257</v>
+      </c>
+      <c r="B15">
+        <v>1.4567295604942883</v>
+      </c>
+      <c r="C15">
+        <v>1.691571479175535E-4</v>
+      </c>
+      <c r="D15">
+        <v>0.99970012704351841</v>
+      </c>
+      <c r="E15">
+        <v>1.2899018274945058</v>
+      </c>
+      <c r="F15">
+        <v>23.528507703753451</v>
+      </c>
+      <c r="G15">
+        <v>1643.5627256717919</v>
+      </c>
+      <c r="H15">
+        <v>3.4029376259449915</v>
+      </c>
+      <c r="I15">
+        <v>0.87567606496513095</v>
+      </c>
+      <c r="J15">
+        <v>620.46659518286981</v>
+      </c>
+      <c r="K15">
+        <v>704.79345144858075</v>
+      </c>
+      <c r="L15">
+        <v>1375.8907508088382</v>
+      </c>
+      <c r="M15">
+        <v>11499.524991459322</v>
+      </c>
+      <c r="N15">
+        <v>256949.54249068978</v>
+      </c>
+      <c r="O15">
+        <v>1916324.7933300489</v>
+      </c>
+      <c r="P15">
+        <v>1.4982661265169306</v>
+      </c>
+      <c r="Q15">
+        <v>1.9331959278456441</v>
+      </c>
+      <c r="R15">
+        <v>0.98786769588868117</v>
+      </c>
+      <c r="S15">
+        <v>69.006608634125172</v>
+      </c>
+      <c r="T15">
+        <v>3285.9673058869994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0.57707381965906102</v>
+      </c>
+      <c r="B16">
+        <v>1.4571785877166459</v>
+      </c>
+      <c r="C16">
+        <v>2.2382528261983986E-4</v>
+      </c>
+      <c r="D16">
+        <v>0.8796597441221945</v>
+      </c>
+      <c r="E16">
+        <v>1.2942186587095559</v>
+      </c>
+      <c r="F16">
+        <v>50.749486402348523</v>
+      </c>
+      <c r="G16">
+        <v>1646.3744817418742</v>
+      </c>
+      <c r="H16">
+        <v>3.4025873751157083</v>
+      </c>
+      <c r="I16">
+        <v>0.87573431667750201</v>
+      </c>
+      <c r="J16">
+        <v>582.15663477879309</v>
+      </c>
+      <c r="K16">
+        <v>706.13269574441483</v>
+      </c>
+      <c r="L16">
+        <v>2022.017300828132</v>
+      </c>
+      <c r="M16">
+        <v>11516.840560626804</v>
+      </c>
+      <c r="N16">
+        <v>256981.40956855964</v>
+      </c>
+      <c r="O16">
+        <v>1916616.7949547397</v>
+      </c>
+      <c r="P16">
+        <v>1.3187971378394701</v>
+      </c>
+      <c r="Q16">
+        <v>1.9403091641391572</v>
+      </c>
+      <c r="R16">
+        <v>2.1332140966367947</v>
+      </c>
+      <c r="S16">
+        <v>69.204035385712501</v>
+      </c>
+      <c r="T16">
+        <v>3704.7313370977922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0.44196741372720216</v>
+      </c>
+      <c r="B17">
+        <v>1.4582063446949394</v>
+      </c>
+      <c r="C17">
+        <v>2.8334085001749517E-4</v>
+      </c>
+      <c r="D17">
+        <v>0.76883225520798915</v>
+      </c>
+      <c r="E17">
+        <v>1.2944961792093024</v>
+      </c>
+      <c r="F17">
+        <v>86.286683144748636</v>
+      </c>
+      <c r="G17">
+        <v>1640.595763352698</v>
+      </c>
+      <c r="H17">
+        <v>3.4017874964667918</v>
+      </c>
+      <c r="I17">
+        <v>0.87586778265957588</v>
+      </c>
+      <c r="J17">
+        <v>544.53346364179117</v>
+      </c>
+      <c r="K17">
+        <v>706.57645712647877</v>
+      </c>
+      <c r="L17">
+        <v>2640.5000219863882</v>
+      </c>
+      <c r="M17">
+        <v>11513.70454504615</v>
+      </c>
+      <c r="N17">
+        <v>257054.18673761957</v>
+      </c>
+      <c r="O17">
+        <v>1917282.5134496111</v>
+      </c>
+      <c r="P17">
+        <v>1.1535182398269455</v>
+      </c>
+      <c r="Q17">
+        <v>1.9421986317421924</v>
+      </c>
+      <c r="R17">
+        <v>3.6365221698942682</v>
+      </c>
+      <c r="S17">
+        <v>69.142336312295583</v>
+      </c>
+      <c r="T17">
+        <v>4332.0019935882283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0.34304087590247445</v>
+      </c>
+      <c r="B18">
+        <v>1.4594333296172042</v>
+      </c>
+      <c r="C18">
+        <v>3.3964631875194837E-4</v>
+      </c>
+      <c r="D18">
+        <v>0.64584575179265469</v>
+      </c>
+      <c r="E18">
+        <v>1.2822560067787196</v>
+      </c>
+      <c r="F18">
+        <v>136.34143074045261</v>
+      </c>
+      <c r="G18">
+        <v>1617.8738879835169</v>
+      </c>
+      <c r="H18">
+        <v>3.4008359105235368</v>
+      </c>
+      <c r="I18">
+        <v>0.87602741942667151</v>
+      </c>
+      <c r="J18">
+        <v>499.39357080480136</v>
+      </c>
+      <c r="K18">
+        <v>703.66494245681656</v>
+      </c>
+      <c r="L18">
+        <v>3325.0407458321019</v>
+      </c>
+      <c r="M18">
+        <v>11453.952583567692</v>
+      </c>
+      <c r="N18">
+        <v>257140.8079555665</v>
+      </c>
+      <c r="O18">
+        <v>1918072.308469773</v>
+      </c>
+      <c r="P18">
+        <v>0.96987304560490073</v>
+      </c>
+      <c r="Q18">
+        <v>1.9255767109836379</v>
+      </c>
+      <c r="R18">
+        <v>5.7640663037693454</v>
+      </c>
+      <c r="S18">
+        <v>68.398375393512708</v>
+      </c>
+      <c r="T18">
+        <v>4427.2952948992597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0.28520016560692696</v>
+      </c>
+      <c r="B19">
+        <v>1.4607172822314076</v>
+      </c>
+      <c r="C19">
+        <v>3.9433556498122061E-4</v>
+      </c>
+      <c r="D19">
+        <v>0.5626376650477124</v>
+      </c>
+      <c r="E19">
+        <v>1.2930655426605411</v>
+      </c>
+      <c r="F19">
+        <v>188.13162951471867</v>
+      </c>
+      <c r="G19">
+        <v>1623.9540433610043</v>
+      </c>
+      <c r="H19">
+        <v>3.3998441597974858</v>
+      </c>
+      <c r="I19">
+        <v>0.87619489194882161</v>
+      </c>
+      <c r="J19">
+        <v>466.41749611313946</v>
+      </c>
+      <c r="K19">
+        <v>707.08349772585734</v>
+      </c>
+      <c r="L19">
+        <v>3913.0605998959045</v>
+      </c>
+      <c r="M19">
+        <v>11496.682361641162</v>
+      </c>
+      <c r="N19">
+        <v>257231.19144320796</v>
+      </c>
+      <c r="O19">
+        <v>1918892.7111927113</v>
+      </c>
+      <c r="P19">
+        <v>0.84571890158383289</v>
+      </c>
+      <c r="Q19">
+        <v>1.9436487074181918</v>
+      </c>
+      <c r="R19">
+        <v>7.9796244829864973</v>
+      </c>
+      <c r="S19">
+        <v>68.880195621941198</v>
+      </c>
+      <c r="T19">
+        <v>4497.6149628714102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0.24044632602005719</v>
+      </c>
+      <c r="B20">
+        <v>1.4617581972456939</v>
+      </c>
+      <c r="C20">
+        <v>4.4877258181049925E-4</v>
+      </c>
+      <c r="D20">
+        <v>0.48329799845825938</v>
+      </c>
+      <c r="E20">
+        <v>1.2990250235699343</v>
+      </c>
+      <c r="F20">
+        <v>247.26634858075528</v>
+      </c>
+      <c r="G20">
+        <v>1625.3187219473068</v>
+      </c>
+      <c r="H20">
+        <v>3.3990432366087195</v>
+      </c>
+      <c r="I20">
+        <v>0.87633103870783891</v>
+      </c>
+      <c r="J20">
+        <v>432.51003580420468</v>
+      </c>
+      <c r="K20">
+        <v>709.08361384417321</v>
+      </c>
+      <c r="L20">
+        <v>4492.8040432315738</v>
+      </c>
+      <c r="M20">
+        <v>11518.720442659096</v>
+      </c>
+      <c r="N20">
+        <v>257304.30738469021</v>
+      </c>
+      <c r="O20">
+        <v>1919553.0700028318</v>
+      </c>
+      <c r="P20">
+        <v>0.72701826476490972</v>
+      </c>
+      <c r="Q20">
+        <v>1.9541047584197164</v>
+      </c>
+      <c r="R20">
+        <v>10.515618706414926</v>
+      </c>
+      <c r="S20">
+        <v>69.120735815830727</v>
+      </c>
+      <c r="T20">
+        <v>4293.7720416460734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1.5881408209689318</v>
+      </c>
+      <c r="B21">
+        <v>1.4572195393224763</v>
+      </c>
+      <c r="C21">
+        <v>9.778306805967684E-5</v>
+      </c>
+      <c r="D21">
+        <v>1.4975428732391376</v>
+      </c>
+      <c r="E21">
+        <v>1.6829002814529874</v>
+      </c>
+      <c r="F21">
+        <v>6.8758735159394133</v>
+      </c>
+      <c r="G21">
+        <v>2140.4976089670872</v>
+      </c>
+      <c r="H21">
+        <v>3.4025554554948547</v>
+      </c>
+      <c r="I21">
+        <v>0.87573963094585872</v>
+      </c>
+      <c r="J21">
+        <v>759.5933381301802</v>
+      </c>
+      <c r="K21">
+        <v>805.23140836698235</v>
+      </c>
+      <c r="L21">
+        <v>744.31832954204003</v>
+      </c>
+      <c r="M21">
+        <v>13132.643287953682</v>
+      </c>
+      <c r="N21">
+        <v>256984.31364569889</v>
+      </c>
+      <c r="O21">
+        <v>1916643.3914133487</v>
+      </c>
+      <c r="P21">
+        <v>2.2452033400265368</v>
+      </c>
+      <c r="Q21">
+        <v>2.5231019427692059</v>
+      </c>
+      <c r="R21">
+        <v>0.28905208875800392</v>
+      </c>
+      <c r="S21">
+        <v>89.983520409321841</v>
+      </c>
+      <c r="T21">
+        <v>2724.9027599055526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0.95738952892658058</v>
+      </c>
+      <c r="B22">
+        <v>1.4576633582084371</v>
+      </c>
+      <c r="C22">
+        <v>1.4660855722661308E-4</v>
+      </c>
+      <c r="D22">
+        <v>1.3629754034325547</v>
+      </c>
+      <c r="E22">
+        <v>1.6889148029206489</v>
+      </c>
+      <c r="F22">
+        <v>22.165371102866494</v>
+      </c>
+      <c r="G22">
+        <v>2144.6883829997532</v>
+      </c>
+      <c r="H22">
+        <v>3.4022097761957886</v>
+      </c>
+      <c r="I22">
+        <v>0.87579724435180595</v>
+      </c>
+      <c r="J22">
+        <v>724.82518138279295</v>
+      </c>
+      <c r="K22">
+        <v>806.8506156724518</v>
+      </c>
+      <c r="L22">
+        <v>1337.2451825684695</v>
+      </c>
+      <c r="M22">
+        <v>13153.93338912706</v>
+      </c>
+      <c r="N22">
+        <v>257015.7640046778</v>
+      </c>
+      <c r="O22">
+        <v>1916931.2617801903</v>
+      </c>
+      <c r="P22">
+        <v>2.0441218677817625</v>
+      </c>
+      <c r="Q22">
+        <v>2.5329493641454839</v>
+      </c>
+      <c r="R22">
+        <v>0.93285800798194229</v>
+      </c>
+      <c r="S22">
+        <v>90.261955165209358</v>
+      </c>
+      <c r="T22">
+        <v>3278.7438915274106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0.67872668620038434</v>
+      </c>
+      <c r="B23">
+        <v>1.4580592356664024</v>
+      </c>
+      <c r="C23">
+        <v>1.9695951033685938E-4</v>
+      </c>
+      <c r="D23">
+        <v>1.2201679435481971</v>
+      </c>
+      <c r="E23">
+        <v>1.6818466326121357</v>
+      </c>
+      <c r="F23">
+        <v>46.865904966995977</v>
+      </c>
+      <c r="G23">
+        <v>2132.6468643221342</v>
+      </c>
+      <c r="H23">
+        <v>3.4019018329983384</v>
+      </c>
+      <c r="I23">
+        <v>0.87584866607093026</v>
+      </c>
+      <c r="J23">
+        <v>685.94012928342192</v>
+      </c>
+      <c r="K23">
+        <v>805.32206872395659</v>
+      </c>
+      <c r="L23">
+        <v>1945.5863328614478</v>
+      </c>
+      <c r="M23">
+        <v>13124.461018171734</v>
+      </c>
+      <c r="N23">
+        <v>257043.7827955737</v>
+      </c>
+      <c r="O23">
+        <v>1917187.4537474755</v>
+      </c>
+      <c r="P23">
+        <v>1.8304813905402106</v>
+      </c>
+      <c r="Q23">
+        <v>2.5230862513784995</v>
+      </c>
+      <c r="R23">
+        <v>1.9744058783705363</v>
+      </c>
+      <c r="S23">
+        <v>89.845923350277573</v>
+      </c>
+      <c r="T23">
+        <v>3754.9579740010909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0.52929027083136282</v>
+      </c>
+      <c r="B24">
+        <v>1.4595793096322112</v>
+      </c>
+      <c r="C24">
+        <v>2.4732432141382919E-4</v>
+      </c>
+      <c r="D24">
+        <v>1.0954864061460809</v>
+      </c>
+      <c r="E24">
+        <v>1.6787295138865879</v>
+      </c>
+      <c r="F24">
+        <v>78.189759671960672</v>
+      </c>
+      <c r="G24">
+        <v>2117.0014764234984</v>
+      </c>
+      <c r="H24">
+        <v>3.4007229433854143</v>
+      </c>
+      <c r="I24">
+        <v>0.87604643699305051</v>
+      </c>
+      <c r="J24">
+        <v>650.45028638373014</v>
+      </c>
+      <c r="K24">
+        <v>805.19482642813352</v>
+      </c>
+      <c r="L24">
+        <v>2518.5428033596995</v>
+      </c>
+      <c r="M24">
+        <v>13104.938208618752</v>
+      </c>
+      <c r="N24">
+        <v>257151.09659624516</v>
+      </c>
+      <c r="O24">
+        <v>1918165.9025047384</v>
+      </c>
+      <c r="P24">
+        <v>1.6452800732985648</v>
+      </c>
+      <c r="Q24">
+        <v>2.5212364134872565</v>
+      </c>
+      <c r="R24">
+        <v>3.3068348488898578</v>
+      </c>
+      <c r="S24">
+        <v>89.533134348524612</v>
+      </c>
+      <c r="T24">
+        <v>4131.3947685547482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>0.41546870974140981</v>
+      </c>
+      <c r="B25">
+        <v>1.4610407457636323</v>
+      </c>
+      <c r="C25">
+        <v>2.9683702319579472E-4</v>
+      </c>
+      <c r="D25">
+        <v>0.97186826977087648</v>
+      </c>
+      <c r="E25">
+        <v>1.6998668425321624</v>
+      </c>
+      <c r="F25">
+        <v>126.81737207755081</v>
+      </c>
+      <c r="G25">
+        <v>2132.3605263983868</v>
+      </c>
+      <c r="H25">
+        <v>3.3995949725523444</v>
+      </c>
+      <c r="I25">
+        <v>0.87623716105475824</v>
+      </c>
+      <c r="J25">
+        <v>613.10532721707102</v>
+      </c>
+      <c r="K25">
+        <v>810.84686031681474</v>
+      </c>
+      <c r="L25">
+        <v>3214.229952955016</v>
+      </c>
+      <c r="M25">
+        <v>13180.07514574698</v>
+      </c>
+      <c r="N25">
+        <v>257253.9258627056</v>
+      </c>
+      <c r="O25">
+        <v>1919098.381469364</v>
+      </c>
+      <c r="P25">
+        <v>1.4611949691394239</v>
+      </c>
+      <c r="Q25">
+        <v>2.5557341007752949</v>
+      </c>
+      <c r="R25">
+        <v>5.3833999810697719</v>
+      </c>
+      <c r="S25">
+        <v>90.518746993331504</v>
+      </c>
+      <c r="T25">
+        <v>4531.032516351449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0.34268319448519036</v>
+      </c>
+      <c r="B26">
+        <v>1.462844948611713</v>
+      </c>
+      <c r="C26">
+        <v>3.4545986383267954E-4</v>
+      </c>
+      <c r="D26">
+        <v>0.84541315576362652</v>
+      </c>
+      <c r="E26">
+        <v>1.6835144906131096</v>
+      </c>
+      <c r="F26">
+        <v>178.11247506240528</v>
+      </c>
+      <c r="G26">
+        <v>2098.1496884489347</v>
+      </c>
+      <c r="H26">
+        <v>3.3982100842824403</v>
+      </c>
+      <c r="I26">
+        <v>0.87647359034300287</v>
+      </c>
+      <c r="J26">
+        <v>572.34945055757225</v>
+      </c>
+      <c r="K26">
+        <v>807.67231909287261</v>
+      </c>
+      <c r="L26">
+        <v>3819.0795233808758</v>
+      </c>
+      <c r="M26">
+        <v>13107.798807009798</v>
+      </c>
+      <c r="N26">
+        <v>257380.52374325984</v>
+      </c>
+      <c r="O26">
+        <v>1920237.7849298259</v>
+      </c>
+      <c r="P26">
+        <v>1.2727610030055099</v>
+      </c>
+      <c r="Q26">
+        <v>2.5345141331656111</v>
+      </c>
+      <c r="R26">
+        <v>7.5956053569897399</v>
+      </c>
+      <c r="S26">
+        <v>89.475580010694557</v>
+      </c>
+      <c r="T26">
+        <v>4524.869108757719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0.28572254059239827</v>
+      </c>
+      <c r="B27">
+        <v>1.4644812041525688</v>
+      </c>
+      <c r="C27">
+        <v>3.9757814584557362E-4</v>
+      </c>
+      <c r="D27">
+        <v>0.72777132937523847</v>
+      </c>
+      <c r="E27">
+        <v>1.6748034109318537</v>
+      </c>
+      <c r="F27">
+        <v>241.00845023603884</v>
+      </c>
+      <c r="G27">
+        <v>2075.0412336757386</v>
+      </c>
+      <c r="H27">
+        <v>3.3969615923604723</v>
+      </c>
+      <c r="I27">
+        <v>0.87668918471593382</v>
+      </c>
+      <c r="J27">
+        <v>531.47434799459234</v>
+      </c>
+      <c r="K27">
+        <v>806.2444812752401</v>
+      </c>
+      <c r="L27">
+        <v>4452.9081837571612</v>
+      </c>
+      <c r="M27">
+        <v>13065.949366165765</v>
+      </c>
+      <c r="N27">
+        <v>257495.1098249699</v>
+      </c>
+      <c r="O27">
+        <v>1921259.2449468418</v>
+      </c>
+      <c r="P27">
+        <v>1.0969722212133668</v>
+      </c>
+      <c r="Q27">
+        <v>2.5244369263114694</v>
+      </c>
+      <c r="R27">
+        <v>10.320518350203239</v>
+      </c>
+      <c r="S27">
+        <v>88.857884894097765</v>
+      </c>
+      <c r="T27">
+        <v>4735.0475038152063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0.245309742448521</v>
+      </c>
+      <c r="B28">
+        <v>1.4657929901770277</v>
+      </c>
+      <c r="C28">
+        <v>4.4538701688368059E-4</v>
+      </c>
+      <c r="D28">
+        <v>0.63607688497420789</v>
+      </c>
+      <c r="E28">
+        <v>1.682720290659746</v>
+      </c>
+      <c r="F28">
+        <v>307.86066190654611</v>
+      </c>
+      <c r="G28">
+        <v>2075.0543140721938</v>
+      </c>
+      <c r="H28">
+        <v>3.3959654639229271</v>
+      </c>
+      <c r="I28">
+        <v>0.87686320754234126</v>
+      </c>
+      <c r="J28">
+        <v>497.19453730034132</v>
+      </c>
+      <c r="K28">
+        <v>808.68149887108518</v>
+      </c>
+      <c r="L28">
+        <v>5042.1648342897915</v>
+      </c>
+      <c r="M28">
+        <v>13090.452952466439</v>
+      </c>
+      <c r="N28">
+        <v>257586.80799393292</v>
+      </c>
+      <c r="O28">
+        <v>1922069.9209374664</v>
+      </c>
+      <c r="P28">
+        <v>0.95968582337928965</v>
+      </c>
+      <c r="Q28">
+        <v>2.5388169980808497</v>
+      </c>
+      <c r="R28">
+        <v>13.227107889888121</v>
+      </c>
+      <c r="S28">
+        <v>89.153863048415303</v>
+      </c>
+      <c r="T28">
+        <v>4653.161426921165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0.2104726955837368</v>
+      </c>
+      <c r="B29">
+        <v>1.465750701917468</v>
+      </c>
+      <c r="C29">
+        <v>4.9515679519039765E-4</v>
+      </c>
+      <c r="D29">
+        <v>0.5436612247472824</v>
+      </c>
+      <c r="E29">
+        <v>1.6814634154068011</v>
+      </c>
+      <c r="F29">
+        <v>385.9181736763781</v>
+      </c>
+      <c r="G29">
+        <v>2073.8189341485286</v>
+      </c>
+      <c r="H29">
+        <v>3.3959975115380567</v>
+      </c>
+      <c r="I29">
+        <v>0.8768575819076988</v>
+      </c>
+      <c r="J29">
+        <v>459.64917404479877</v>
+      </c>
+      <c r="K29">
+        <v>808.3622345757118</v>
+      </c>
+      <c r="L29">
+        <v>5644.966887014215</v>
+      </c>
+      <c r="M29">
+        <v>13085.767536051861</v>
+      </c>
+      <c r="N29">
+        <v>257583.85479183178</v>
+      </c>
+      <c r="O29">
+        <v>1922043.8971965346</v>
+      </c>
+      <c r="P29">
+        <v>0.8202275075462746</v>
+      </c>
+      <c r="Q29">
+        <v>2.5368418483228616</v>
+      </c>
+      <c r="R29">
+        <v>16.579044423473228</v>
+      </c>
+      <c r="S29">
+        <v>89.091259703981294</v>
+      </c>
+      <c r="T29">
+        <v>4678.5215570884229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1.857277784952486</v>
+      </c>
+      <c r="B30">
+        <v>1.4579322273084905</v>
+      </c>
+      <c r="C30">
+        <v>8.6952551244423985E-5</v>
+      </c>
+      <c r="D30">
+        <v>1.9233996766202481</v>
+      </c>
+      <c r="E30">
+        <v>2.1183024523205369</v>
+      </c>
+      <c r="F30">
+        <v>5.9652291813294473</v>
+      </c>
+      <c r="G30">
+        <v>2687.3278314283912</v>
+      </c>
+      <c r="H30">
+        <v>3.40200058872496</v>
+      </c>
+      <c r="I30">
+        <v>0.87583216514899498</v>
+      </c>
+      <c r="J30">
+        <v>861.15875691701797</v>
+      </c>
+      <c r="K30">
+        <v>903.73777865582065</v>
+      </c>
+      <c r="L30">
+        <v>693.99425446579016</v>
+      </c>
+      <c r="M30">
+        <v>14729.996141720943</v>
+      </c>
+      <c r="N30">
+        <v>257034.79701862272</v>
+      </c>
+      <c r="O30">
+        <v>1917105.320753888</v>
+      </c>
+      <c r="P30">
+        <v>2.8851906948658534</v>
+      </c>
+      <c r="Q30">
+        <v>3.1775540979013148</v>
+      </c>
+      <c r="R30">
+        <v>0.25122669058272246</v>
+      </c>
+      <c r="S30">
+        <v>113.17729077596574</v>
+      </c>
+      <c r="T30">
+        <v>2397.7753890461404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1.1502196944362919</v>
+      </c>
+      <c r="B31">
+        <v>1.4584261780217807</v>
+      </c>
+      <c r="C31">
+        <v>1.2977205797858469E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.7994624502012535</v>
+      </c>
+      <c r="E31">
+        <v>2.1381309522539933</v>
+      </c>
+      <c r="F31">
+        <v>18.477736289035786</v>
+      </c>
+      <c r="G31">
+        <v>2707.6273968700625</v>
+      </c>
+      <c r="H31">
+        <v>3.4016167344248225</v>
+      </c>
+      <c r="I31">
+        <v>0.87589635830165924</v>
+      </c>
+      <c r="J31">
+        <v>833.16023359124961</v>
+      </c>
+      <c r="K31">
+        <v>908.18492564109476</v>
+      </c>
+      <c r="L31">
+        <v>1222.2963955959704</v>
+      </c>
+      <c r="M31">
+        <v>14796.077542153609</v>
+      </c>
+      <c r="N31">
+        <v>257069.72620693719</v>
+      </c>
+      <c r="O31">
+        <v>1917424.4218166198</v>
+      </c>
+      <c r="P31">
+        <v>2.7002634074423866</v>
+      </c>
+      <c r="Q31">
+        <v>3.2084674898582555</v>
+      </c>
+      <c r="R31">
+        <v>0.77917463743965287</v>
+      </c>
+      <c r="S31">
+        <v>114.17603121274938</v>
+      </c>
+      <c r="T31">
+        <v>2909.0164024735263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0.80639277898492689</v>
+      </c>
+      <c r="B32">
+        <v>1.4591170543237595</v>
+      </c>
+      <c r="C32">
+        <v>1.7444494224435372E-4</v>
+      </c>
+      <c r="D32">
+        <v>1.6387957979954457</v>
+      </c>
+      <c r="E32">
+        <v>2.131565256846172</v>
+      </c>
+      <c r="F32">
+        <v>40.851546606482287</v>
+      </c>
+      <c r="G32">
+        <v>2692.5633567090795</v>
+      </c>
+      <c r="H32">
+        <v>3.4010808430638351</v>
+      </c>
+      <c r="I32">
+        <v>0.8759862356293372</v>
+      </c>
+      <c r="J32">
+        <v>795.37413702612093</v>
+      </c>
+      <c r="K32">
+        <v>907.10667060257481</v>
+      </c>
+      <c r="L32">
+        <v>1819.2370947843776</v>
+      </c>
+      <c r="M32">
+        <v>14769.575621923639</v>
+      </c>
+      <c r="N32">
+        <v>257118.5050354361</v>
+      </c>
+      <c r="O32">
+        <v>1917869.2567268584</v>
+      </c>
+      <c r="P32">
+        <v>2.4604219667614311</v>
+      </c>
+      <c r="Q32">
+        <v>3.2002461734066325</v>
+      </c>
+      <c r="R32">
+        <v>1.7256773867306727</v>
+      </c>
+      <c r="S32">
+        <v>113.74099839527717</v>
+      </c>
+      <c r="T32">
+        <v>3610.9573495000695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0.62020955826588531</v>
+      </c>
+      <c r="B33">
+        <v>1.4607338950183177</v>
+      </c>
+      <c r="C33">
+        <v>2.1867615294909979E-4</v>
+      </c>
+      <c r="D33">
+        <v>1.495163762497888</v>
+      </c>
+      <c r="E33">
+        <v>2.1365409766121433</v>
+      </c>
+      <c r="F33">
+        <v>71.686982130068884</v>
+      </c>
+      <c r="G33">
+        <v>2683.1092330840379</v>
+      </c>
+      <c r="H33">
+        <v>3.3998313552112855</v>
+      </c>
+      <c r="I33">
+        <v>0.87619706204165659</v>
+      </c>
+      <c r="J33">
+        <v>760.34108516153094</v>
+      </c>
+      <c r="K33">
+        <v>908.90750651954704</v>
+      </c>
+      <c r="L33">
+        <v>2415.5508626663236</v>
+      </c>
+      <c r="M33">
+        <v>14777.984765254811</v>
+      </c>
+      <c r="N33">
+        <v>257232.35938442458</v>
+      </c>
+      <c r="O33">
+        <v>1918903.2843046314</v>
+      </c>
+      <c r="P33">
+        <v>2.2474566075904816</v>
+      </c>
+      <c r="Q33">
+        <v>3.2115432808863074</v>
+      </c>
+      <c r="R33">
+        <v>3.0407399986510812</v>
+      </c>
+      <c r="S33">
+        <v>113.80919273440225</v>
+      </c>
+      <c r="T33">
+        <v>4098.3008193025034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0.49662177043079142</v>
+      </c>
+      <c r="B34">
+        <v>1.462486072396235</v>
+      </c>
+      <c r="C34">
+        <v>2.6302194129591448E-4</v>
+      </c>
+      <c r="D34">
+        <v>1.340704936950464</v>
+      </c>
+      <c r="E34">
+        <v>2.1233391822025873</v>
+      </c>
+      <c r="F34">
+        <v>111.77296265296859</v>
+      </c>
+      <c r="G34">
+        <v>2649.7234122678892</v>
+      </c>
+      <c r="H34">
+        <v>3.3984848670938792</v>
+      </c>
+      <c r="I34">
+        <v>0.87642646645393163</v>
+      </c>
+      <c r="J34">
+        <v>720.6340486291889</v>
+      </c>
+      <c r="K34">
+        <v>906.89678130815037</v>
+      </c>
+      <c r="L34">
+        <v>3023.8249363107825</v>
+      </c>
+      <c r="M34">
+        <v>14722.736333446464</v>
+      </c>
+      <c r="N34">
+        <v>257355.36649344134</v>
+      </c>
+      <c r="O34">
+        <v>1920012.2167704601</v>
+      </c>
+      <c r="P34">
+        <v>2.0178846049317989</v>
+      </c>
+      <c r="Q34">
+        <v>3.1958213390045764</v>
+      </c>
+      <c r="R34">
+        <v>4.762218263816405</v>
+      </c>
+      <c r="S34">
+        <v>112.89457600888717</v>
+      </c>
+      <c r="T34">
+        <v>4493.1700146264238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>0.41126491765848622</v>
+      </c>
+      <c r="B35">
+        <v>1.4645865800590079</v>
+      </c>
+      <c r="C35">
+        <v>3.0668818454028318E-4</v>
+      </c>
+      <c r="D35">
+        <v>1.210779867598698</v>
+      </c>
+      <c r="E35">
+        <v>2.1351743308604454</v>
+      </c>
+      <c r="F35">
+        <v>161.28647411807256</v>
+      </c>
+      <c r="G35">
+        <v>2644.4282394623474</v>
+      </c>
+      <c r="H35">
+        <v>3.3968814196629404</v>
+      </c>
+      <c r="I35">
+        <v>0.87670312472160083</v>
+      </c>
+      <c r="J35">
+        <v>685.55211593184367</v>
+      </c>
+      <c r="K35">
+        <v>910.38386069571015</v>
+      </c>
+      <c r="L35">
+        <v>3643.2746144678295</v>
+      </c>
+      <c r="M35">
+        <v>14752.269136092864</v>
+      </c>
+      <c r="N35">
+        <v>257502.48225225459</v>
+      </c>
+      <c r="O35">
+        <v>1921324.63189216</v>
+      </c>
+      <c r="P35">
+        <v>1.8251540705468794</v>
+      </c>
+      <c r="Q35">
+        <v>3.2186049880611192</v>
+      </c>
+      <c r="R35">
+        <v>6.9084889123363515</v>
+      </c>
+      <c r="S35">
+        <v>113.27052235279582</v>
+      </c>
+      <c r="T35">
+        <v>4843.6346939191744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>0.35156349888828342</v>
+      </c>
+      <c r="B36">
+        <v>1.4665384869744802</v>
+      </c>
+      <c r="C36">
+        <v>3.4980443888649171E-4</v>
+      </c>
+      <c r="D36">
+        <v>1.0923109661398951</v>
+      </c>
+      <c r="E36">
+        <v>2.1405211459450708</v>
+      </c>
+      <c r="F36">
+        <v>214.79945836734365</v>
+      </c>
+      <c r="G36">
+        <v>2632.5486851690825</v>
+      </c>
+      <c r="H36">
+        <v>3.3954012046101241</v>
+      </c>
+      <c r="I36">
+        <v>0.87696253419722614</v>
+      </c>
+      <c r="J36">
+        <v>651.7896581226139</v>
+      </c>
+      <c r="K36">
+        <v>912.41849438371923</v>
+      </c>
+      <c r="L36">
+        <v>4216.1621742877769</v>
+      </c>
+      <c r="M36">
+        <v>14760.087173497959</v>
+      </c>
+      <c r="N36">
+        <v>257638.83387667919</v>
+      </c>
+      <c r="O36">
+        <v>1922527.5225696124</v>
+      </c>
+      <c r="P36">
+        <v>1.6489352635361716</v>
+      </c>
+      <c r="Q36">
+        <v>3.2312966813533213</v>
+      </c>
+      <c r="R36">
+        <v>9.2461737328659677</v>
+      </c>
+      <c r="S36">
+        <v>113.31966425014886</v>
+      </c>
+      <c r="T36">
+        <v>5086.3710259623504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>0.30226360191306956</v>
+      </c>
+      <c r="B37">
+        <v>1.4685727360143948</v>
+      </c>
+      <c r="C37">
+        <v>3.9303947292601831E-4</v>
+      </c>
+      <c r="D37">
+        <v>0.97480510825973832</v>
+      </c>
+      <c r="E37">
+        <v>2.1470275375237642</v>
+      </c>
+      <c r="F37">
+        <v>278.91011325675254</v>
+      </c>
+      <c r="G37">
+        <v>2621.4035213999691</v>
+      </c>
+      <c r="H37">
+        <v>3.3938682678865342</v>
+      </c>
+      <c r="I37">
+        <v>0.8772347995205847</v>
+      </c>
+      <c r="J37">
+        <v>616.36324201015236</v>
+      </c>
+      <c r="K37">
+        <v>914.73782962993357</v>
+      </c>
+      <c r="L37">
+        <v>4818.224263871225</v>
+      </c>
+      <c r="M37">
+        <v>14771.405436914134</v>
+      </c>
+      <c r="N37">
+        <v>257780.39496671097</v>
+      </c>
+      <c r="O37">
+        <v>1923765.4023733067</v>
+      </c>
+      <c r="P37">
+        <v>1.4737491815478261</v>
+      </c>
+      <c r="Q37">
+        <v>3.2459617305813206</v>
+      </c>
+      <c r="R37">
+        <v>12.067627907393089</v>
+      </c>
+      <c r="S37">
+        <v>113.42049207897951</v>
+      </c>
+      <c r="T37">
+        <v>5129.2221697033829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>0.25455780952451712</v>
+      </c>
+      <c r="B38">
+        <v>1.4704898967648548</v>
+      </c>
+      <c r="C38">
+        <v>4.4238769592904093E-4</v>
+      </c>
+      <c r="D38">
+        <v>0.83227707085848757</v>
+      </c>
+      <c r="E38">
+        <v>2.1341347236183812</v>
+      </c>
+      <c r="F38">
+        <v>364.92129842966568</v>
+      </c>
+      <c r="G38">
+        <v>2587.9035356628542</v>
+      </c>
+      <c r="H38">
+        <v>3.3924325667762005</v>
+      </c>
+      <c r="I38">
+        <v>0.8774925140852089</v>
+      </c>
+      <c r="J38">
+        <v>570.0708015221993</v>
+      </c>
+      <c r="K38">
+        <v>912.86330219216984</v>
+      </c>
+      <c r="L38">
+        <v>5526.2728864304527</v>
+      </c>
+      <c r="M38">
+        <v>14716.575497020163</v>
+      </c>
+      <c r="N38">
+        <v>257913.14200193607</v>
+      </c>
+      <c r="O38">
+        <v>1924918.6260226108</v>
+      </c>
+      <c r="P38">
+        <v>1.2600393924312829</v>
+      </c>
+      <c r="Q38">
+        <v>3.2310079355434227</v>
+      </c>
+      <c r="R38">
+        <v>15.865445740113918</v>
+      </c>
+      <c r="S38">
+        <v>112.51259738028547</v>
+      </c>
+      <c r="T38">
+        <v>5207.2737390463662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>0.22073730783393786</v>
+      </c>
+      <c r="B39">
+        <v>1.4720929322797647</v>
+      </c>
+      <c r="C39">
+        <v>4.8448728271912082E-4</v>
+      </c>
+      <c r="D39">
+        <v>0.72275575901491795</v>
+      </c>
+      <c r="E39">
+        <v>2.1379219970320973</v>
+      </c>
+      <c r="F39">
+        <v>451.61746434573462</v>
+      </c>
+      <c r="G39">
+        <v>2577.7526663055282</v>
+      </c>
+      <c r="H39">
+        <v>3.3912387579951133</v>
+      </c>
+      <c r="I39">
+        <v>0.87770837706111526</v>
+      </c>
+      <c r="J39">
+        <v>531.66547638024463</v>
+      </c>
+      <c r="K39">
+        <v>914.40503302858338</v>
+      </c>
+      <c r="L39">
+        <v>6161.691541559032</v>
+      </c>
+      <c r="M39">
+        <v>14720.928787478351</v>
+      </c>
+      <c r="N39">
+        <v>258023.53181083646</v>
+      </c>
+      <c r="O39">
+        <v>1925873.8179215163</v>
+      </c>
+      <c r="P39">
+        <v>1.0955131758364722</v>
+      </c>
+      <c r="Q39">
+        <v>3.2405438316416704</v>
+      </c>
+      <c r="R39">
+        <v>19.713878604100394</v>
+      </c>
+      <c r="S39">
+        <v>112.52333478414839</v>
+      </c>
+      <c r="T39">
+        <v>4978.8165500872365</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>0.19475210632113321</v>
+      </c>
+      <c r="B40">
+        <v>1.4706626196011097</v>
+      </c>
+      <c r="C40">
+        <v>5.2410837748264087E-4</v>
+      </c>
+      <c r="D40">
+        <v>0.63063517920316348</v>
+      </c>
+      <c r="E40">
+        <v>2.1363675380335252</v>
+      </c>
+      <c r="F40">
+        <v>539.97038835325088</v>
+      </c>
+      <c r="G40">
+        <v>2589.0179461419762</v>
+      </c>
+      <c r="H40">
+        <v>3.3923036465484913</v>
+      </c>
+      <c r="I40">
+        <v>0.87751576385459062</v>
+      </c>
+      <c r="J40">
+        <v>496.27391280518623</v>
+      </c>
+      <c r="K40">
+        <v>913.41961795154066</v>
+      </c>
+      <c r="L40">
+        <v>6723.9366901178155</v>
+      </c>
+      <c r="M40">
+        <v>14723.334333414601</v>
+      </c>
+      <c r="N40">
+        <v>257925.06458811098</v>
+      </c>
+      <c r="O40">
+        <v>1925021.9279429498</v>
+      </c>
+      <c r="P40">
+        <v>0.95488120522243414</v>
+      </c>
+      <c r="Q40">
+        <v>3.2347976719172915</v>
+      </c>
+      <c r="R40">
+        <v>23.486134862382936</v>
+      </c>
+      <c r="S40">
+        <v>112.60992446208101</v>
+      </c>
+      <c r="T40">
+        <v>5054.8074112758777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2.2638255960814959</v>
+      </c>
+      <c r="B41">
+        <v>1.4587596241605676</v>
+      </c>
+      <c r="C41">
+        <v>7.8919203062021904E-5</v>
+      </c>
+      <c r="D41">
+        <v>2.4315800012748685</v>
+      </c>
+      <c r="E41">
+        <v>2.6231341637807835</v>
+      </c>
+      <c r="F41">
+        <v>4.5924271695870811</v>
+      </c>
+      <c r="G41">
+        <v>3317.7998497746094</v>
+      </c>
+      <c r="H41">
+        <v>3.4013579445670294</v>
+      </c>
+      <c r="I41">
+        <v>0.87593972285140909</v>
+      </c>
+      <c r="J41">
+        <v>968.66755152897565</v>
+      </c>
+      <c r="K41">
+        <v>1006.0990117639036</v>
+      </c>
+      <c r="L41">
+        <v>609.65240622659985</v>
+      </c>
+      <c r="M41">
+        <v>16386.501610528205</v>
+      </c>
+      <c r="N41">
+        <v>257093.27954821457</v>
+      </c>
+      <c r="O41">
+        <v>1917639.3363113375</v>
+      </c>
+      <c r="P41">
+        <v>3.6497135476821025</v>
+      </c>
+      <c r="Q41">
+        <v>3.9372294104734538</v>
+      </c>
+      <c r="R41">
+        <v>0.19381958295287066</v>
+      </c>
+      <c r="S41">
+        <v>140.02499320250095</v>
+      </c>
+      <c r="T41">
+        <v>2516.2165474943881</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>1.2807091420787624</v>
+      </c>
+      <c r="B42">
+        <v>1.4592999735201244</v>
+      </c>
+      <c r="C42">
+        <v>1.1780553031377662E-4</v>
+      </c>
+      <c r="D42">
+        <v>2.2521150146204718</v>
+      </c>
+      <c r="E42">
+        <v>2.6210697609564622</v>
+      </c>
+      <c r="F42">
+        <v>17.656582409712627</v>
+      </c>
+      <c r="G42">
+        <v>3308.7060877160998</v>
+      </c>
+      <c r="H42">
+        <v>3.4009391549932961</v>
+      </c>
+      <c r="I42">
+        <v>0.87601005133163656</v>
+      </c>
+      <c r="J42">
+        <v>932.49073487905628</v>
+      </c>
+      <c r="K42">
+        <v>1005.9781142087852</v>
+      </c>
+      <c r="L42">
+        <v>1196.3352525518421</v>
+      </c>
+      <c r="M42">
+        <v>16376.785950192776</v>
+      </c>
+      <c r="N42">
+        <v>257131.40604128179</v>
+      </c>
+      <c r="O42">
+        <v>1917986.7381649667</v>
+      </c>
+      <c r="P42">
+        <v>3.3816910350331932</v>
+      </c>
+      <c r="Q42">
+        <v>3.9356995780771755</v>
+      </c>
+      <c r="R42">
+        <v>0.74620851542883837</v>
+      </c>
+      <c r="S42">
+        <v>139.83366658469751</v>
+      </c>
+      <c r="T42">
+        <v>3176.9244022210441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>0.91908521024604728</v>
+      </c>
+      <c r="B43">
+        <v>1.4603084665857369</v>
+      </c>
+      <c r="C43">
+        <v>1.5746289990127037E-4</v>
+      </c>
+      <c r="D43">
+        <v>2.0941661597524974</v>
+      </c>
+      <c r="E43">
+        <v>2.6243371245160887</v>
+      </c>
+      <c r="F43">
+        <v>37.58112575441379</v>
+      </c>
+      <c r="G43">
+        <v>3300.7644700240735</v>
+      </c>
+      <c r="H43">
+        <v>3.4001594839423808</v>
+      </c>
+      <c r="I43">
+        <v>0.87614151600973611</v>
+      </c>
+      <c r="J43">
+        <v>899.65560154372452</v>
+      </c>
+      <c r="K43">
+        <v>1007.1184026146443</v>
+      </c>
+      <c r="L43">
+        <v>1747.8944598078517</v>
+      </c>
+      <c r="M43">
+        <v>16380.89328361114</v>
+      </c>
+      <c r="N43">
+        <v>257202.43863767336</v>
+      </c>
+      <c r="O43">
+        <v>1918632.181990548</v>
+      </c>
+      <c r="P43">
+        <v>3.14686052619117</v>
+      </c>
+      <c r="Q43">
+        <v>3.9435375584207493</v>
+      </c>
+      <c r="R43">
+        <v>1.592350566880063</v>
+      </c>
+      <c r="S43">
+        <v>139.85675174627005</v>
+      </c>
+      <c r="T43">
+        <v>3729.5564924506848</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>0.66164508598711769</v>
+      </c>
+      <c r="B44">
+        <v>1.4626462608867279</v>
+      </c>
+      <c r="C44">
+        <v>1.9775736369099308E-4</v>
+      </c>
+      <c r="D44">
+        <v>1.8653791767309924</v>
+      </c>
+      <c r="E44">
+        <v>2.60003743978739</v>
+      </c>
+      <c r="F44">
+        <v>75.888911590846973</v>
+      </c>
+      <c r="G44">
+        <v>3242.7246787209924</v>
+      </c>
+      <c r="H44">
+        <v>3.3983621720084982</v>
+      </c>
+      <c r="I44">
+        <v>0.87644749455132021</v>
+      </c>
+      <c r="J44">
+        <v>850.09374530135744</v>
+      </c>
+      <c r="K44">
+        <v>1003.6286709995904</v>
+      </c>
+      <c r="L44">
+        <v>2492.1667776327636</v>
+      </c>
+      <c r="M44">
+        <v>16290.821254969274</v>
+      </c>
+      <c r="N44">
+        <v>257366.59701068932</v>
+      </c>
+      <c r="O44">
+        <v>1920112.9686466858</v>
+      </c>
+      <c r="P44">
+        <v>2.807898865642128</v>
+      </c>
+      <c r="Q44">
+        <v>3.9137577329453084</v>
+      </c>
+      <c r="R44">
+        <v>3.23465095489354</v>
+      </c>
+      <c r="S44">
+        <v>138.2162724250588</v>
+      </c>
+      <c r="T44">
+        <v>3931.5149143981353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>0.65410267323805937</v>
+      </c>
+      <c r="B45">
+        <v>1.4626139677167496</v>
+      </c>
+      <c r="C45">
+        <v>1.9810234322424383E-4</v>
+      </c>
+      <c r="D45">
+        <v>1.8683458168937359</v>
+      </c>
+      <c r="E45">
+        <v>2.6156566044444047</v>
+      </c>
+      <c r="F45">
+        <v>78.223155679222856</v>
+      </c>
+      <c r="G45">
+        <v>3262.5842568000267</v>
+      </c>
+      <c r="H45">
+        <v>3.3983869011774108</v>
+      </c>
+      <c r="I45">
+        <v>0.87644325459899763</v>
+      </c>
+      <c r="J45">
+        <v>850.75560302965448</v>
+      </c>
+      <c r="K45">
+        <v>1006.6223055397328</v>
+      </c>
+      <c r="L45">
+        <v>2530.087344544092</v>
+      </c>
+      <c r="M45">
+        <v>16339.874488697773</v>
+      </c>
+      <c r="N45">
+        <v>257364.33316816454</v>
+      </c>
+      <c r="O45">
+        <v>1920092.6662570587</v>
+      </c>
+      <c r="P45">
+        <v>2.8122975984143941</v>
+      </c>
+      <c r="Q45">
+        <v>3.9371751848304259</v>
+      </c>
+      <c r="R45">
+        <v>3.3338713716878359</v>
+      </c>
+      <c r="S45">
+        <v>139.05136090481366</v>
+      </c>
+      <c r="T45">
+        <v>4221.2822872508423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>0.45230395907436838</v>
+      </c>
+      <c r="B46">
+        <v>1.4673987781576767</v>
+      </c>
+      <c r="C46">
+        <v>2.7670658429890569E-4</v>
+      </c>
+      <c r="D46">
+        <v>1.5664085062435478</v>
+      </c>
+      <c r="E46">
+        <v>2.6152037638732319</v>
+      </c>
+      <c r="F46">
+        <v>163.87915664470873</v>
+      </c>
+      <c r="G46">
+        <v>3206.4511447577838</v>
+      </c>
+      <c r="H46">
+        <v>3.3947517146171635</v>
+      </c>
+      <c r="I46">
+        <v>0.87707748055462054</v>
+      </c>
+      <c r="J46">
+        <v>780.86241734113992</v>
+      </c>
+      <c r="K46">
+        <v>1008.9619089613489</v>
+      </c>
+      <c r="L46">
+        <v>3687.17310476788</v>
+      </c>
+      <c r="M46">
+        <v>16309.625190448891</v>
+      </c>
+      <c r="N46">
+        <v>257698.77828445405</v>
+      </c>
+      <c r="O46">
+        <v>1923052.9048272597</v>
+      </c>
+      <c r="P46">
+        <v>2.3661195403215931</v>
+      </c>
+      <c r="Q46">
+        <v>3.950364609843946</v>
+      </c>
+      <c r="R46">
+        <v>7.0696159582488525</v>
+      </c>
+      <c r="S46">
+        <v>138.32374199648919</v>
+      </c>
+      <c r="T46">
+        <v>4922.8546734033316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>0.38283611201412365</v>
+      </c>
+      <c r="B47">
+        <v>1.4703839661972853</v>
+      </c>
+      <c r="C47">
+        <v>3.2020799767316211E-4</v>
+      </c>
+      <c r="D47">
+        <v>1.4196361347347577</v>
+      </c>
+      <c r="E47">
+        <v>2.6296571889232254</v>
+      </c>
+      <c r="F47">
+        <v>224.4417278503355</v>
+      </c>
+      <c r="G47">
+        <v>3189.9896317370735</v>
+      </c>
+      <c r="H47">
+        <v>3.3925116680783955</v>
+      </c>
+      <c r="I47">
+        <v>0.8774782568423336</v>
+      </c>
+      <c r="J47">
+        <v>744.49252443392459</v>
+      </c>
+      <c r="K47">
+        <v>1013.2611390542934</v>
+      </c>
+      <c r="L47">
+        <v>4333.3078603399454</v>
+      </c>
+      <c r="M47">
+        <v>16336.62644964283</v>
+      </c>
+      <c r="N47">
+        <v>257905.82669024105</v>
+      </c>
+      <c r="O47">
+        <v>1924855.224010519</v>
+      </c>
+      <c r="P47">
+        <v>2.1491143726803243</v>
+      </c>
+      <c r="Q47">
+        <v>3.9809032199599135</v>
+      </c>
+      <c r="R47">
+        <v>9.7553087516681405</v>
+      </c>
+      <c r="S47">
+        <v>138.65217520053406</v>
+      </c>
+      <c r="T47">
+        <v>5112.8828529350267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>0.34182325099204136</v>
+      </c>
+      <c r="B48">
+        <v>1.4727872211781059</v>
+      </c>
+      <c r="C48">
+        <v>3.561480698216814E-4</v>
+      </c>
+      <c r="D48">
+        <v>1.3141219480726563</v>
+      </c>
+      <c r="E48">
+        <v>2.638811870308758</v>
+      </c>
+      <c r="F48">
+        <v>274.91510398398867</v>
+      </c>
+      <c r="G48">
+        <v>3173.8537931492656</v>
+      </c>
+      <c r="H48">
+        <v>3.3907235792315782</v>
+      </c>
+      <c r="I48">
+        <v>0.87780187779992713</v>
+      </c>
+      <c r="J48">
+        <v>717.15150934900817</v>
+      </c>
+      <c r="K48">
+        <v>1016.2423676210545</v>
+      </c>
+      <c r="L48">
+        <v>4812.1407599475897</v>
+      </c>
+      <c r="M48">
+        <v>16350.554301351502</v>
+      </c>
+      <c r="N48">
+        <v>258071.14756215992</v>
+      </c>
+      <c r="O48">
+        <v>1926285.1472091784</v>
+      </c>
+      <c r="P48">
+        <v>1.9928856527352905</v>
+      </c>
+      <c r="Q48">
+        <v>4.0017977968625678</v>
+      </c>
+      <c r="R48">
+        <v>12.021428253806882</v>
+      </c>
+      <c r="S48">
+        <v>138.7855927502581</v>
+      </c>
+      <c r="T48">
+        <v>5120.6612562036571</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>0.29458768791215839</v>
+      </c>
+      <c r="B49">
+        <v>1.4755063610376598</v>
+      </c>
+      <c r="C49">
+        <v>3.9968052974357737E-4</v>
+      </c>
+      <c r="D49">
+        <v>1.1577905574528071</v>
+      </c>
+      <c r="E49">
+        <v>2.6181437069399234</v>
+      </c>
+      <c r="F49">
+        <v>350.01908075483425</v>
+      </c>
+      <c r="G49">
+        <v>3118.8082240754779</v>
+      </c>
+      <c r="H49">
+        <v>3.3887167318607934</v>
+      </c>
+      <c r="I49">
+        <v>0.87816745309614219</v>
+      </c>
+      <c r="J49">
+        <v>674.05528268728847</v>
+      </c>
+      <c r="K49">
+        <v>1013.6248646687976</v>
+      </c>
+      <c r="L49">
+        <v>5450.5771463288047</v>
+      </c>
+      <c r="M49">
+        <v>16270.127877988858</v>
+      </c>
+      <c r="N49">
+        <v>258256.33478331164</v>
+      </c>
+      <c r="O49">
+        <v>1927883.6048918716</v>
+      </c>
+      <c r="P49">
+        <v>1.7593005976014502</v>
+      </c>
+      <c r="Q49">
+        <v>3.9783549438851189</v>
+      </c>
+      <c r="R49">
+        <v>15.410054399911825</v>
+      </c>
+      <c r="S49">
+        <v>137.30966978214292</v>
+      </c>
+      <c r="T49">
+        <v>5465.6460503808821</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>0.26150538977705046</v>
+      </c>
+      <c r="B50">
+        <v>1.4781058010277344</v>
+      </c>
+      <c r="C50">
+        <v>4.3585033029245723E-4</v>
+      </c>
+      <c r="D50">
+        <v>1.0483214489335304</v>
+      </c>
+      <c r="E50">
+        <v>2.638055610601274</v>
+      </c>
+      <c r="F50">
+        <v>425.39997496954584</v>
+      </c>
+      <c r="G50">
+        <v>3113.8394098431659</v>
+      </c>
+      <c r="H50">
+        <v>3.3868142375917896</v>
+      </c>
+      <c r="I50">
+        <v>0.8785148527377955</v>
+      </c>
+      <c r="J50">
+        <v>642.22423386168907</v>
+      </c>
+      <c r="K50">
+        <v>1018.782383458159</v>
+      </c>
+      <c r="L50">
+        <v>6030.7775216958144</v>
+      </c>
+      <c r="M50">
+        <v>16316.337607467229</v>
+      </c>
+      <c r="N50">
+        <v>258431.1515114049</v>
+      </c>
+      <c r="O50">
+        <v>1929395.4183494577</v>
+      </c>
+      <c r="P50">
+        <v>1.5959839367160482</v>
+      </c>
+      <c r="Q50">
+        <v>4.0162245873786722</v>
+      </c>
+      <c r="R50">
+        <v>18.850608418726956</v>
+      </c>
+      <c r="S50">
+        <v>137.98253607785355</v>
+      </c>
+      <c r="T50">
+        <v>5598.5263868543989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>0.22300661134142813</v>
+      </c>
+      <c r="B51">
+        <v>1.4797503014533124</v>
+      </c>
+      <c r="C51">
+        <v>4.8407213843019547E-4</v>
+      </c>
+      <c r="D51">
+        <v>0.89020580338259614</v>
+      </c>
+      <c r="E51">
+        <v>2.6237231511820958</v>
+      </c>
+      <c r="F51">
+        <v>536.73369672647232</v>
+      </c>
+      <c r="G51">
+        <v>3079.0643964595815</v>
+      </c>
+      <c r="H51">
+        <v>3.38561867685172</v>
+      </c>
+      <c r="I51">
+        <v>0.87873290816073235</v>
+      </c>
+      <c r="J51">
+        <v>592.29327486381385</v>
+      </c>
+      <c r="K51">
+        <v>1016.8352533100615</v>
+      </c>
+      <c r="L51">
+        <v>6789.6757580566064</v>
+      </c>
+      <c r="M51">
+        <v>16262.188475693469</v>
+      </c>
+      <c r="N51">
+        <v>258540.46120066071</v>
+      </c>
+      <c r="O51">
+        <v>1930344.9685693819</v>
+      </c>
+      <c r="P51">
+        <v>1.3568913810230523</v>
+      </c>
+      <c r="Q51">
+        <v>3.9991958224738187</v>
+      </c>
+      <c r="R51">
+        <v>23.881584716801669</v>
+      </c>
+      <c r="S51">
+        <v>137.00078396607697</v>
+      </c>
+      <c r="T51">
+        <v>5675.3112025342143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>0.20228791100627588</v>
+      </c>
+      <c r="B52">
+        <v>1.4799231344123469</v>
+      </c>
+      <c r="C52">
+        <v>5.1580738610579303E-4</v>
+      </c>
+      <c r="D52">
+        <v>0.80799063276527161</v>
+      </c>
+      <c r="E52">
+        <v>2.6465996561160994</v>
+      </c>
+      <c r="F52">
+        <v>621.506172657094</v>
+      </c>
+      <c r="G52">
+        <v>3104.0266145176533</v>
+      </c>
+      <c r="H52">
+        <v>3.385493386175102</v>
+      </c>
+      <c r="I52">
+        <v>0.87875572888963949</v>
+      </c>
+      <c r="J52">
+        <v>564.32812182186956</v>
+      </c>
+      <c r="K52">
+        <v>1021.3454433043569</v>
+      </c>
+      <c r="L52">
+        <v>7307.9700747414481</v>
+      </c>
+      <c r="M52">
+        <v>16331.901625588152</v>
+      </c>
+      <c r="N52">
+        <v>258551.8868223168</v>
+      </c>
+      <c r="O52">
+        <v>1930444.4921488955</v>
+      </c>
+      <c r="P52">
+        <v>1.2317304390737502</v>
+      </c>
+      <c r="Q52">
+        <v>4.0345732045477174</v>
+      </c>
+      <c r="R52">
+        <v>27.665352114769473</v>
+      </c>
+      <c r="S52">
+        <v>138.17077455098143</v>
+      </c>
+      <c r="T52">
+        <v>5633.4222177895008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2.7788755930420028</v>
+      </c>
+      <c r="B53">
+        <v>1.4593968325362969</v>
+      </c>
+      <c r="C53">
+        <v>7.1744085970149981E-5</v>
+      </c>
+      <c r="D53">
+        <v>3.006145486877597</v>
+      </c>
+      <c r="E53">
+        <v>3.1887802454762646</v>
+      </c>
+      <c r="F53">
+        <v>3.3979929555568811</v>
+      </c>
+      <c r="G53">
+        <v>4023.943717105657</v>
+      </c>
+      <c r="H53">
+        <v>3.4008641622164499</v>
+      </c>
+      <c r="I53">
+        <v>0.87602266564276354</v>
+      </c>
+      <c r="J53">
+        <v>1077.3964052770068</v>
+      </c>
+      <c r="K53">
+        <v>1109.6418305002767</v>
+      </c>
+      <c r="L53">
+        <v>524.89379984810603</v>
+      </c>
+      <c r="M53">
+        <v>18062.844972544473</v>
+      </c>
+      <c r="N53">
+        <v>257138.23511450551</v>
+      </c>
+      <c r="O53">
+        <v>1918048.8960986324</v>
+      </c>
+      <c r="P53">
+        <v>4.5142373073646995</v>
+      </c>
+      <c r="Q53">
+        <v>4.7884943732607326</v>
+      </c>
+      <c r="R53">
+        <v>0.14364258475338462</v>
+      </c>
+      <c r="S53">
+        <v>170.10325918479472</v>
+      </c>
+      <c r="T53">
+        <v>2154.7472024477393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>1.5085457161796072</v>
+      </c>
+      <c r="B54">
+        <v>1.4603039232599628</v>
+      </c>
+      <c r="C54">
+        <v>1.0811026496151324E-4</v>
+      </c>
+      <c r="D54">
+        <v>2.812894310347652</v>
+      </c>
+      <c r="E54">
+        <v>3.1862316358817804</v>
+      </c>
+      <c r="F54">
+        <v>14.625408053842325</v>
+      </c>
+      <c r="G54">
+        <v>4007.5540732928312</v>
+      </c>
+      <c r="H54">
+        <v>3.4001629906565478</v>
+      </c>
+      <c r="I54">
+        <v>0.87614092310617619</v>
+      </c>
+      <c r="J54">
+        <v>1042.6689235863516</v>
+      </c>
+      <c r="K54">
+        <v>1109.707177733374</v>
+      </c>
+      <c r="L54">
+        <v>1090.3890214353946</v>
+      </c>
+      <c r="M54">
+        <v>18049.582868832349</v>
+      </c>
+      <c r="N54">
+        <v>257202.11896878286</v>
+      </c>
+      <c r="O54">
+        <v>1918629.2829673891</v>
+      </c>
+      <c r="P54">
+        <v>4.2268644153148358</v>
+      </c>
+      <c r="Q54">
+        <v>4.7878688762374999</v>
+      </c>
+      <c r="R54">
+        <v>0.61968626697283968</v>
+      </c>
+      <c r="S54">
+        <v>169.80218358544857</v>
+      </c>
+      <c r="T54">
+        <v>3170.8786444979537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>1.0376302247332367</v>
+      </c>
+      <c r="B55">
+        <v>1.461552755641979</v>
+      </c>
+      <c r="C55">
+        <v>1.4314342929676863E-4</v>
+      </c>
+      <c r="D55">
+        <v>2.6186930466509835</v>
+      </c>
+      <c r="E55">
+        <v>3.1846885066706401</v>
+      </c>
+      <c r="F55">
+        <v>34.641299153838204</v>
+      </c>
+      <c r="G55">
+        <v>3987.5846988081039</v>
+      </c>
+      <c r="H55">
+        <v>3.3992010884325197</v>
+      </c>
+      <c r="I55">
+        <v>0.87630413894818027</v>
+      </c>
+      <c r="J55">
+        <v>1006.6672867663248</v>
+      </c>
+      <c r="K55">
+        <v>1110.1384338214139</v>
+      </c>
+      <c r="L55">
+        <v>1681.1404683461635</v>
+      </c>
+      <c r="M55">
+        <v>18036.899171224781</v>
+      </c>
+      <c r="N55">
+        <v>257289.88652452495</v>
+      </c>
+      <c r="O55">
+        <v>1919423.0828223596</v>
+      </c>
+      <c r="P55">
+        <v>3.9386663810778209</v>
+      </c>
+      <c r="Q55">
+        <v>4.7899564141242985</v>
+      </c>
+      <c r="R55">
+        <v>1.4724389320958908</v>
+      </c>
+      <c r="S55">
+        <v>169.49349761625118</v>
+      </c>
+      <c r="T55">
+        <v>3725.215452333096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>0.78151696742236287</v>
+      </c>
+      <c r="B56">
+        <v>1.4635177044341547</v>
+      </c>
+      <c r="C56">
+        <v>1.7965802881340353E-4</v>
+      </c>
+      <c r="D56">
+        <v>2.411006392084841</v>
+      </c>
+      <c r="E56">
+        <v>3.1709263551922424</v>
+      </c>
+      <c r="F56">
+        <v>64.612301741741419</v>
+      </c>
+      <c r="G56">
+        <v>3942.3377948779657</v>
+      </c>
+      <c r="H56">
+        <v>3.3976959070989809</v>
+      </c>
+      <c r="I56">
+        <v>0.87656206846716567</v>
+      </c>
+      <c r="J56">
+        <v>966.8814463152496</v>
+      </c>
+      <c r="K56">
+        <v>1108.8355046042354</v>
+      </c>
+      <c r="L56">
+        <v>2302.4344826327228</v>
+      </c>
+      <c r="M56">
+        <v>17984.840533201856</v>
+      </c>
+      <c r="N56">
+        <v>257427.65829373008</v>
+      </c>
+      <c r="O56">
+        <v>1920659.1651064097</v>
+      </c>
+      <c r="P56">
+        <v>3.6315434690470414</v>
+      </c>
+      <c r="Q56">
+        <v>4.7761619105746078</v>
+      </c>
+      <c r="R56">
+        <v>2.7600964518462665</v>
+      </c>
+      <c r="S56">
+        <v>168.40806264904376</v>
+      </c>
+      <c r="T56">
+        <v>4047.4609475178854</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>0.59869494195012729</v>
+      </c>
+      <c r="B57">
+        <v>1.4672964557257158</v>
+      </c>
+      <c r="C57">
+        <v>2.1744418577569616E-4</v>
+      </c>
+      <c r="D57">
+        <v>2.1715458244136925</v>
+      </c>
+      <c r="E57">
+        <v>3.1569193904177477</v>
+      </c>
+      <c r="F57">
+        <v>112.72216504416296</v>
+      </c>
+      <c r="G57">
+        <v>3872.0558686210011</v>
+      </c>
+      <c r="H57">
+        <v>3.3948288717438082</v>
+      </c>
+      <c r="I57">
+        <v>0.87706379241689225</v>
+      </c>
+      <c r="J57">
+        <v>919.35700493836544</v>
+      </c>
+      <c r="K57">
+        <v>1108.4891246406085</v>
+      </c>
+      <c r="L57">
+        <v>3057.5475544553769</v>
+      </c>
+      <c r="M57">
+        <v>17920.056188875245</v>
+      </c>
+      <c r="N57">
+        <v>257691.65415435197</v>
+      </c>
+      <c r="O57">
+        <v>1922990.5633919225</v>
+      </c>
+      <c r="P57">
+        <v>3.2799560595120165</v>
+      </c>
+      <c r="Q57">
+        <v>4.7682884549707145</v>
+      </c>
+      <c r="R57">
+        <v>4.8614887798857742</v>
+      </c>
+      <c r="S57">
+        <v>166.99427440039764</v>
+      </c>
+      <c r="T57">
+        <v>4212.4328921572824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>0.51163628839021236</v>
+      </c>
+      <c r="B58">
+        <v>1.4692193239552258</v>
+      </c>
+      <c r="C58">
+        <v>2.5307258196483376E-4</v>
+      </c>
+      <c r="D58">
+        <v>2.0251135823350088</v>
+      </c>
+      <c r="E58">
+        <v>3.1688519782708759</v>
+      </c>
+      <c r="F58">
+        <v>155.30346769742297</v>
+      </c>
+      <c r="G58">
+        <v>3860.0736887664011</v>
+      </c>
+      <c r="H58">
+        <v>3.3933830861203362</v>
+      </c>
+      <c r="I58">
+        <v>0.87732162818195303</v>
+      </c>
+      <c r="J58">
+        <v>888.67564504470499</v>
+      </c>
+      <c r="K58">
+        <v>1111.6538116398685</v>
+      </c>
+      <c r="L58">
+        <v>3598.6792527448883</v>
+      </c>
+      <c r="M58">
+        <v>17941.153473767703</v>
+      </c>
+      <c r="N58">
+        <v>257825.24569255215</v>
+      </c>
+      <c r="O58">
+        <v>1924155.7319944757</v>
+      </c>
+      <c r="P58">
+        <v>3.0630995811688893</v>
+      </c>
+      <c r="Q58">
+        <v>4.7930690170157613</v>
+      </c>
+      <c r="R58">
+        <v>6.7304803601903513</v>
+      </c>
+      <c r="S58">
+        <v>167.28634934119302</v>
+      </c>
+      <c r="T58">
+        <v>4807.3673882517323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0.43763984741419132</v>
+      </c>
+      <c r="B59">
+        <v>1.472789755122542</v>
+      </c>
+      <c r="C59">
+        <v>2.8985052812861221E-4</v>
+      </c>
+      <c r="D59">
+        <v>1.8597306346524463</v>
+      </c>
+      <c r="E59">
+        <v>3.1731464775567146</v>
+      </c>
+      <c r="F59">
+        <v>209.76033512713281</v>
+      </c>
+      <c r="G59">
+        <v>3816.4950331205309</v>
+      </c>
+      <c r="H59">
+        <v>3.390721701049614</v>
+      </c>
+      <c r="I59">
+        <v>0.87780221900053457</v>
+      </c>
+      <c r="J59">
+        <v>853.13675666244319</v>
+      </c>
+      <c r="K59">
+        <v>1114.393810167237</v>
+      </c>
+      <c r="L59">
+        <v>4203.4148502756289</v>
+      </c>
+      <c r="M59">
+        <v>17929.695783797295</v>
+      </c>
+      <c r="N59">
+        <v>258071.32111515308</v>
+      </c>
+      <c r="O59">
+        <v>1926286.6459255328</v>
+      </c>
+      <c r="P59">
+        <v>2.8203146417952611</v>
+      </c>
+      <c r="Q59">
+        <v>4.8121331683535633</v>
+      </c>
+      <c r="R59">
+        <v>9.1724128601993797</v>
+      </c>
+      <c r="S59">
+        <v>166.88792998669115</v>
+      </c>
+      <c r="T59">
+        <v>5142.1748500531057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>0.38013987626710755</v>
+      </c>
+      <c r="B60">
+        <v>1.4758270466910182</v>
+      </c>
+      <c r="C60">
+        <v>3.2643218395693745E-4</v>
+      </c>
+      <c r="D60">
+        <v>1.6944969030963006</v>
+      </c>
+      <c r="E60">
+        <v>3.1637890508369146</v>
+      </c>
+      <c r="F60">
+        <v>270.70471476697361</v>
+      </c>
+      <c r="G60">
+        <v>3764.5276075490146</v>
+      </c>
+      <c r="H60">
+        <v>3.3884811829318355</v>
+      </c>
+      <c r="I60">
+        <v>0.87821045183330848</v>
+      </c>
+      <c r="J60">
+        <v>815.58645589859339</v>
+      </c>
+      <c r="K60">
+        <v>1114.4314884613311</v>
+      </c>
+      <c r="L60">
+        <v>4795.56249568781</v>
+      </c>
+      <c r="M60">
+        <v>17883.268141513265</v>
+      </c>
+      <c r="N60">
+        <v>258278.02630927431</v>
+      </c>
+      <c r="O60">
+        <v>1928070.9118411213</v>
+      </c>
+      <c r="P60">
+        <v>2.57544660903018</v>
+      </c>
+      <c r="Q60">
+        <v>4.8086070666614082</v>
+      </c>
+      <c r="R60">
+        <v>11.927683524921386</v>
+      </c>
+      <c r="S60">
+        <v>165.87111887698907</v>
+      </c>
+      <c r="T60">
+        <v>5378.3138860003328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>0.33494206997709197</v>
+      </c>
+      <c r="B61">
+        <v>1.4791808583095727</v>
+      </c>
+      <c r="C61">
+        <v>3.6375122153641394E-4</v>
+      </c>
+      <c r="D61">
+        <v>1.5461413295119331</v>
+      </c>
+      <c r="E61">
+        <v>3.1653379846002272</v>
+      </c>
+      <c r="F61">
+        <v>337.45321998139912</v>
+      </c>
+      <c r="G61">
+        <v>3722.1150111959673</v>
+      </c>
+      <c r="H61">
+        <v>3.3860319633681875</v>
+      </c>
+      <c r="I61">
+        <v>0.87865758353392442</v>
+      </c>
+      <c r="J61">
+        <v>780.35889582780851</v>
+      </c>
+      <c r="K61">
+        <v>1116.5542669695856</v>
+      </c>
+      <c r="L61">
+        <v>5379.3787263951508</v>
+      </c>
+      <c r="M61">
+        <v>17865.707818056118</v>
+      </c>
+      <c r="N61">
+        <v>258502.73080143594</v>
+      </c>
+      <c r="O61">
+        <v>1930016.7087268147</v>
+      </c>
+      <c r="P61">
+        <v>2.3557198193212039</v>
+      </c>
+      <c r="Q61">
+        <v>4.8227476252295869</v>
+      </c>
+      <c r="R61">
+        <v>14.993505160420204</v>
+      </c>
+      <c r="S61">
+        <v>165.37862827659617</v>
+      </c>
+      <c r="T61">
+        <v>5549.415047317264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>0.29333268323407657</v>
+      </c>
+      <c r="B62">
+        <v>1.482482449372015</v>
+      </c>
+      <c r="C62">
+        <v>4.032729647938945E-4</v>
+      </c>
+      <c r="D62">
+        <v>1.3865488397038708</v>
+      </c>
+      <c r="E62">
+        <v>3.1629940853767615</v>
+      </c>
+      <c r="F62">
+        <v>419.79512345293006</v>
+      </c>
+      <c r="G62">
+        <v>3676.5515477651543</v>
+      </c>
+      <c r="H62">
+        <v>3.3836463426020766</v>
+      </c>
+      <c r="I62">
+        <v>0.87909112452665361</v>
+      </c>
+      <c r="J62">
+        <v>740.18703217010409</v>
+      </c>
+      <c r="K62">
+        <v>1117.9517913150735</v>
+      </c>
+      <c r="L62">
+        <v>6027.4852428765416</v>
+      </c>
+      <c r="M62">
+        <v>17837.656269607429</v>
+      </c>
+      <c r="N62">
+        <v>258719.58842476306</v>
+      </c>
+      <c r="O62">
+        <v>1931913.1615551142</v>
+      </c>
+      <c r="P62">
+        <v>2.1176473181972146</v>
+      </c>
+      <c r="Q62">
+        <v>4.830775339873556</v>
+      </c>
+      <c r="R62">
+        <v>18.80549243934432</v>
+      </c>
+      <c r="S62">
+        <v>164.69786920264113</v>
+      </c>
+      <c r="T62">
+        <v>5736.0280593889966</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>0.2589339073411881</v>
+      </c>
+      <c r="B63">
+        <v>1.4849696019205409</v>
+      </c>
+      <c r="C63">
+        <v>4.4109553419681598E-4</v>
+      </c>
+      <c r="D63">
+        <v>1.229353193602301</v>
+      </c>
+      <c r="E63">
+        <v>3.1396700121226364</v>
+      </c>
+      <c r="F63">
+        <v>506.74949890385557</v>
+      </c>
+      <c r="G63">
+        <v>3617.8835352332585</v>
+      </c>
+      <c r="H63">
+        <v>3.3818687567510808</v>
+      </c>
+      <c r="I63">
+        <v>0.87941263838333217</v>
+      </c>
+      <c r="J63">
+        <v>697.81341518373313</v>
+      </c>
+      <c r="K63">
+        <v>1115.1748846222235</v>
+      </c>
+      <c r="L63">
+        <v>6645.2165470067121</v>
+      </c>
+      <c r="M63">
+        <v>17755.780393594883</v>
+      </c>
+      <c r="N63">
+        <v>258879.92723536069</v>
+      </c>
+      <c r="O63">
+        <v>1933332.9793555248</v>
+      </c>
+      <c r="P63">
+        <v>1.8809629916485582</v>
+      </c>
+      <c r="Q63">
+        <v>4.8038294686383987</v>
+      </c>
+      <c r="R63">
+        <v>22.840816056079564</v>
+      </c>
+      <c r="S63">
+        <v>163.06954919408798</v>
+      </c>
+      <c r="T63">
+        <v>5856.6233432459967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>0.22976373079314316</v>
+      </c>
+      <c r="B64">
+        <v>1.4873974081307859</v>
+      </c>
+      <c r="C64">
+        <v>4.7495378890154881E-4</v>
+      </c>
+      <c r="D64">
+        <v>1.0858430781043633</v>
+      </c>
+      <c r="E64">
+        <v>3.1244857753334014</v>
+      </c>
+      <c r="F64">
+        <v>601.5565921950822</v>
+      </c>
+      <c r="G64">
+        <v>3570.0983217378675</v>
+      </c>
+      <c r="H64">
+        <v>3.3801492073725314</v>
+      </c>
+      <c r="I64">
+        <v>0.87972340453984166</v>
+      </c>
+      <c r="J64">
+        <v>656.59341144819723</v>
+      </c>
+      <c r="K64">
+        <v>1113.7873033170392</v>
+      </c>
+      <c r="L64">
+        <v>7264.4900335090342</v>
+      </c>
+      <c r="M64">
+        <v>17697.29847291284</v>
+      </c>
+      <c r="N64">
+        <v>259034.21762714611</v>
+      </c>
+      <c r="O64">
+        <v>1934709.435575973</v>
+      </c>
+      <c r="P64">
+        <v>1.6643164440063609</v>
+      </c>
+      <c r="Q64">
+        <v>4.7890281384208855</v>
+      </c>
+      <c r="R64">
+        <v>27.276868803423884</v>
+      </c>
+      <c r="S64">
+        <v>161.88186581419316</v>
+      </c>
+      <c r="T64">
+        <v>5730.9088714036561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>0.20312937795950575</v>
+      </c>
+      <c r="B65">
+        <v>1.488243141883254</v>
+      </c>
+      <c r="C65">
+        <v>5.1342678219127929E-4</v>
+      </c>
+      <c r="D65">
+        <v>0.94860548559048996</v>
+      </c>
+      <c r="E65">
+        <v>3.1180221530276695</v>
+      </c>
+      <c r="F65">
+        <v>714.31333367374771</v>
+      </c>
+      <c r="G65">
+        <v>3552.2685224523552</v>
+      </c>
+      <c r="H65">
+        <v>3.3795534521607009</v>
+      </c>
+      <c r="I65">
+        <v>0.8798311661679874</v>
+      </c>
+      <c r="J65">
+        <v>613.95088181194126</v>
+      </c>
+      <c r="K65">
+        <v>1113.0903299967842</v>
+      </c>
+      <c r="L65">
+        <v>7925.3176849281199</v>
+      </c>
+      <c r="M65">
+        <v>17673.607063770189</v>
+      </c>
+      <c r="N65">
+        <v>259087.50395850168</v>
+      </c>
+      <c r="O65">
+        <v>1935186.1277053428</v>
+      </c>
+      <c r="P65">
+        <v>1.4548586076850485</v>
+      </c>
+      <c r="Q65">
+        <v>4.7820526416850928</v>
+      </c>
+      <c r="R65">
+        <v>32.457167560162539</v>
       </c>
       <c r="S65">
         <v>161.40896328919311</v>
@@ -12742,7 +16789,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -16788,7 +20835,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -20834,7 +24881,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -24880,7 +28927,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -28926,7 +32973,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -32972,7 +37019,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -37018,7 +41065,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -41064,7 +45111,7 @@
       <selection activeCell="A3" sqref="A3:T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
